--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\05_テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\02_SQLコマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="231">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1392,6 +1392,62 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設種別</t>
+    <rPh sb="0" eb="4">
+      <t>シセツシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>エンティティ</t>
+  </si>
+  <si>
+    <t>facilityType</t>
+  </si>
+  <si>
+    <t>施設種別</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facility Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>道の駅　富士吉田の施設種別</t>
+    <rPh sb="9" eb="13">
+      <t>シセツシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>富士吉田市上吉田・歴史民俗博物館の施設種別</t>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>res</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1577,26 +1633,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1904,7 +1941,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>34</v>
@@ -1917,7 +1954,7 @@
       </c>
       <c r="E1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2057,7 +2094,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2073,7 +2110,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2179,7 +2216,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2203,7 +2240,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2219,7 +2256,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2247,7 +2284,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A18" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2289,6 +2326,29 @@
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>insert into M_FACILITY_ATTR_GRP values (3, now(), 1, now(), 1, 'val', 'img', null);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>IF(OR(ISBLANK(C5),C5="null"),"",VLOOKUP(C5,Code!$A:$C,3,FALSE))</f>
+        <v>施設種別</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5" si="2">"insert into M_FACILITY_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
+        <v>insert into M_FACILITY_ATTR_GRP values (4, now(), 1, now(), 1, 'val', 'cd', 10);</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2362,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2327,7 +2387,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2346,7 +2406,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2375,7 +2435,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A7" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -2491,6 +2551,54 @@
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>insert into M_FACILITY_ATTR_GRP_LANG values (6, now(), 1, now(), 1, 'val', 3, 'en', 'Image 1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,施設属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設種別</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" ref="G8:G9" si="2">"insert into M_FACILITY_ATTR_GRP_LANG values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", '"&amp;$D8&amp;"', '"&amp;E8&amp;"');"</f>
+        <v>insert into M_FACILITY_ATTR_GRP_LANG values (7, now(), 1, now(), 1, 'val', 4, 'ja', '施設種別');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,施設属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設種別</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_FACILITY_ATTR_GRP_LANG values (8, now(), 1, now(), 1, 'val', 4, 'en', 'Facility Type');</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2612,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2518,18 +2626,18 @@
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -2548,7 +2656,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2580,7 +2688,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A13" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A15" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -2873,6 +2981,60 @@
       <c r="G13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>insert into M_FACILITY_ATTR_VAL values (12, now(), 1, now(), 1, 'val', 4, 3);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f ca="1">VLOOKUP(B14,施設!$A:$E,5,FALSE)</f>
+        <v>道の駅　富士吉田</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f ca="1">VLOOKUP(D14,施設属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設種別</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
+        <v>insert into M_FACILITY_ATTR_VAL values (13, now(), 1, now(), 1, 'val', 3, 4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f ca="1">VLOOKUP(B15,施設!$A:$E,5,FALSE)</f>
+        <v>富士吉田市上吉田・歴史民俗博物館</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f ca="1">VLOOKUP(D15,施設属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設種別</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" ref="G15" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
+        <v>insert into M_FACILITY_ATTR_VAL values (14, now(), 1, now(), 1, 'val', 4, 4);</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +3048,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2911,7 +3073,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -2930,7 +3092,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2959,7 +3121,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A24" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A26" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -3483,6 +3645,54 @@
       <c r="G24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>insert into M_FACILITY_ATTR_VAL_LANG values (23, now(), 1, now(), 1, 'val', 12, 'common', 'img/fujiYoshidaHistoricalMuseum/image_1_common.png');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f ca="1">VLOOKUP(B25,施設属性値!$A:$F,6,FALSE)</f>
+        <v>道の駅　富士吉田の施設種別</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" ref="G25:G26" si="2">"insert into M_FACILITY_ATTR_VAL_LANG values ("&amp;A25&amp;", now(), 1, now(), 1, 'val', "&amp;$B25&amp;", '"&amp;$D25&amp;"', '"&amp;$E25&amp;"');"</f>
+        <v>insert into M_FACILITY_ATTR_VAL_LANG values (24, now(), 1, now(), 1, 'val', 13, 'common', 'shp');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f ca="1">VLOOKUP(B26,施設属性値!$A:$F,6,FALSE)</f>
+        <v>富士吉田市上吉田・歴史民俗博物館の施設種別</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_FACILITY_ATTR_VAL_LANG values (25, now(), 1, now(), 1, 'val', 14, 'common', 'res');</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3730,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3536,7 +3746,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3581,7 +3791,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F2:F3" si="1">"insert into M_FACILITY_GRP values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", '"&amp;$D3&amp;"');"</f>
+        <f t="shared" ref="F3" si="1">"insert into M_FACILITY_GRP values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", '"&amp;$D3&amp;"');"</f>
         <v>insert into M_FACILITY_GRP values (2, now(), 1, now(), 1, 'val', 2, 'dcls');</v>
       </c>
     </row>
@@ -3620,7 +3830,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3636,7 +3846,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3721,7 +3931,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -3740,7 +3950,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3875,7 +4085,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -3894,7 +4104,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4041,7 +4251,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -4060,7 +4270,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4292,7 +4502,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>138</v>
@@ -4314,7 +4524,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4893,7 +5103,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -4912,7 +5122,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5062,7 +5272,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5078,7 +5288,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5140,7 +5350,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5159,7 +5369,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5246,7 +5456,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5265,7 +5475,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5412,7 +5622,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5431,7 +5641,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5450,7 +5660,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f t="shared" ref="E2:E9" ca="1" si="0">C2</f>
+        <f t="shared" ref="E2:E8" ca="1" si="0">C2</f>
         <v>日光の施設グループ・日光東照宮の補足文</v>
       </c>
       <c r="F2" s="4"/>
@@ -5638,9 +5848,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5869,6 +6081,58 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5910,7 +6174,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -5935,7 +6199,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -5965,13 +6229,13 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$F2&amp;"', '"&amp;$G2&amp;"');"</f>
+        <f t="shared" ref="I2:I7" si="0">"insert into M_SCREEN values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$F2&amp;"', '"&amp;$G2&amp;"');"</f>
         <v>insert into M_SCREEN values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', '日光メニュー');</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A7" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -5996,13 +6260,13 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", "&amp;$D3&amp;", '"&amp;$F3&amp;"', '"&amp;$G3&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN values (2, now(), 1, now(), 1, 'val', 1, 3, 'reg', '日光施設一覧');</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -6027,13 +6291,13 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A4&amp;", now(), 1, now(), 1, 'val', "&amp;$B4&amp;", "&amp;$D4&amp;", '"&amp;$F4&amp;"', '"&amp;$G4&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN values (3, now(), 1, now(), 1, 'val', 1, 5, 'fac', '日光施設詳細');</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -6058,13 +6322,13 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;", '"&amp;$F5&amp;"', '"&amp;$G5&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN values (4, now(), 1, now(), 1, 'val', 2, 2, 'reg', '富士五湖メニュー');</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -6089,13 +6353,13 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;", '"&amp;$F6&amp;"', '"&amp;$G6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN values (5, now(), 1, now(), 1, 'val', 2, 4, 'reg', '富士五湖施設一覧');</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -6120,7 +6384,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="str">
-        <f>"insert into M_SCREEN values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", "&amp;$D7&amp;", '"&amp;$F7&amp;"', '"&amp;$G7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN values (6, now(), 1, now(), 1, 'val', 2, 6, 'fac', '富士五湖施設詳細');</v>
       </c>
     </row>
@@ -6169,7 +6433,7 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>189</v>
@@ -6215,7 +6479,7 @@
       </c>
       <c r="P1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -6271,13 +6535,13 @@
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$H2&amp;"', "&amp;$I2&amp;", "&amp;$L2&amp;", "&amp;M2&amp;");"</f>
+        <f t="shared" ref="P2:P23" si="0">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$H2&amp;"', "&amp;$I2&amp;", "&amp;$L2&amp;", "&amp;M2&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', 4, null, null);</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A23" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A23" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -6328,13 +6592,13 @@
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", "&amp;$D3&amp;", '"&amp;$H3&amp;"', "&amp;$I3&amp;", "&amp;$L3&amp;", "&amp;M3&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (2, now(), 1, now(), 1, 'val', 1, 2, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -6385,13 +6649,13 @@
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A4&amp;", now(), 1, now(), 1, 'val', "&amp;$B4&amp;", "&amp;$D4&amp;", '"&amp;$H4&amp;"', "&amp;$I4&amp;", "&amp;$L4&amp;", "&amp;M4&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (3, now(), 1, now(), 1, 'val', 1, 3, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -6442,13 +6706,13 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;", '"&amp;$H5&amp;"', "&amp;$I5&amp;", "&amp;$L5&amp;", "&amp;M5&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (4, now(), 1, now(), 1, 'val', 1, 4, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -6499,13 +6763,13 @@
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;", '"&amp;$H6&amp;"', "&amp;$I6&amp;", "&amp;$L6&amp;", "&amp;M6&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (5, now(), 1, now(), 1, 'val', 2, 9, 'reg', 2, null, null);</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -6556,13 +6820,13 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", "&amp;$D7&amp;", '"&amp;$H7&amp;"', "&amp;$I7&amp;", "&amp;$L7&amp;", "&amp;M7&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (6, now(), 1, now(), 1, 'val', 2, 10, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="6">
@@ -6613,13 +6877,13 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", "&amp;$D8&amp;", '"&amp;$H8&amp;"', "&amp;$I8&amp;", "&amp;$L8&amp;", "&amp;M8&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (7, now(), 1, now(), 1, 'val', 2, 11, 'fac', 2, null, null);</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="6">
@@ -6670,13 +6934,13 @@
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A9&amp;", now(), 1, now(), 1, 'val', "&amp;$B9&amp;", "&amp;$D9&amp;", '"&amp;$H9&amp;"', "&amp;$I9&amp;", "&amp;$L9&amp;", "&amp;M9&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (8, now(), 1, now(), 1, 'val', 3, 15, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="6">
@@ -6727,13 +6991,13 @@
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A10&amp;", now(), 1, now(), 1, 'val', "&amp;$B10&amp;", "&amp;$D10&amp;", '"&amp;$H10&amp;"', "&amp;$I10&amp;", "&amp;$L10&amp;", "&amp;M10&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (9, now(), 1, now(), 1, 'val', 3, 16, 'fac', 1, null, null);</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="6">
@@ -6784,13 +7048,13 @@
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A11&amp;", now(), 1, now(), 1, 'val', "&amp;$B11&amp;", "&amp;$D11&amp;", '"&amp;$H11&amp;"', "&amp;$I11&amp;", "&amp;$L11&amp;", "&amp;M11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (10, now(), 1, now(), 1, 'val', 3, 17, 'fac', 2, null, null);</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="6">
@@ -6841,13 +7105,13 @@
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A12&amp;", now(), 1, now(), 1, 'val', "&amp;$B12&amp;", "&amp;$D12&amp;", '"&amp;$H12&amp;"', "&amp;$I12&amp;", "&amp;$L12&amp;", "&amp;M12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (11, now(), 1, now(), 1, 'val', 4, 5, 'reg', 4, null, null);</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -6898,13 +7162,13 @@
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A13&amp;", now(), 1, now(), 1, 'val', "&amp;$B13&amp;", "&amp;$D13&amp;", '"&amp;$H13&amp;"', "&amp;$I13&amp;", "&amp;$L13&amp;", "&amp;M13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (12, now(), 1, now(), 1, 'val', 4, 6, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="6">
@@ -6955,13 +7219,13 @@
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;", '"&amp;$H14&amp;"', "&amp;$I14&amp;", "&amp;$L14&amp;", "&amp;M14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (13, now(), 1, now(), 1, 'val', 4, 7, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="6">
@@ -7012,13 +7276,13 @@
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;", '"&amp;$H15&amp;"', "&amp;$I15&amp;", "&amp;$L15&amp;", "&amp;M15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (14, now(), 1, now(), 1, 'val', 4, 8, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="6">
@@ -7069,13 +7333,13 @@
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A16&amp;", now(), 1, now(), 1, 'val', "&amp;$B16&amp;", "&amp;$D16&amp;", '"&amp;$H16&amp;"', "&amp;$I16&amp;", "&amp;$L16&amp;", "&amp;M16&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (15, now(), 1, now(), 1, 'val', 5, 12, 'reg', 2, null, null);</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="6">
@@ -7126,13 +7390,13 @@
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A17&amp;", now(), 1, now(), 1, 'val', "&amp;$B17&amp;", "&amp;$D17&amp;", '"&amp;$H17&amp;"', "&amp;$I17&amp;", "&amp;$L17&amp;", "&amp;M17&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (16, now(), 1, now(), 1, 'val', 5, 13, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="6">
@@ -7183,13 +7447,13 @@
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A18&amp;", now(), 1, now(), 1, 'val', "&amp;$B18&amp;", "&amp;$D18&amp;", '"&amp;$H18&amp;"', "&amp;$I18&amp;", "&amp;$L18&amp;", "&amp;M18&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (17, now(), 1, now(), 1, 'val', 5, 14, 'fac', 1, 1, null);</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="6">
@@ -7240,13 +7504,13 @@
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A19&amp;", now(), 1, now(), 1, 'val', "&amp;$B19&amp;", "&amp;$D19&amp;", '"&amp;$H19&amp;"', "&amp;$I19&amp;", "&amp;$L19&amp;", "&amp;M19&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (18, now(), 1, now(), 1, 'val', 5, 14, 'fac', 2, 2, null);</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="6">
@@ -7297,13 +7561,13 @@
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A20&amp;", now(), 1, now(), 1, 'val', "&amp;$B20&amp;", "&amp;$D20&amp;", '"&amp;$H20&amp;"', "&amp;$I20&amp;", "&amp;$L20&amp;", "&amp;M20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (19, now(), 1, now(), 1, 'val', 6, 18, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="6">
@@ -7354,13 +7618,13 @@
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A21&amp;", now(), 1, now(), 1, 'val', "&amp;$B21&amp;", "&amp;$D21&amp;", '"&amp;$H21&amp;"', "&amp;$I21&amp;", "&amp;$L21&amp;", "&amp;M21&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (20, now(), 1, now(), 1, 'val', 6, 19, 'fac', 1, null, null);</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="6">
@@ -7411,13 +7675,13 @@
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A22&amp;", now(), 1, now(), 1, 'val', "&amp;$B22&amp;", "&amp;$D22&amp;", '"&amp;$H22&amp;"', "&amp;$I22&amp;", "&amp;$L22&amp;", "&amp;M22&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (21, now(), 1, now(), 1, 'val', 6, 20, 'fac', 1, 1, null);</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="6">
@@ -7468,7 +7732,7 @@
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A23&amp;", now(), 1, now(), 1, 'val', "&amp;$B23&amp;", "&amp;$D23&amp;", '"&amp;$H23&amp;"', "&amp;$I23&amp;", "&amp;$L23&amp;", "&amp;M23&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (22, now(), 1, now(), 1, 'val', 6, 20, 'fac', 2, 2, null);</v>
       </c>
     </row>
@@ -7507,7 +7771,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -7523,7 +7787,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7607,7 +7871,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -7623,7 +7887,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7651,7 +7915,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A18" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -7754,7 +8018,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -7773,7 +8037,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8004,7 +8268,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8023,7 +8287,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8278,7 +8542,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>地域_ID</v>
+        <v>コード一覧_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -8297,7 +8561,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 地域（insert文）</v>
+        <v>-- コード一覧（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8591,5 +8855,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\02_SQLコマンド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\02_SQLコマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="238">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -896,42 +896,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧01</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧02</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>詳細01</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>詳細02</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レイアウトID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1449,6 +1413,67 @@
   <si>
     <t>res</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧001</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧002</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細001</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細002</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Detail001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu002</t>
+  </si>
+  <si>
+    <t>List002</t>
+  </si>
+  <si>
+    <t>Detail002</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1943,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1931,132 +1956,153 @@
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-- スクリーン（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5" t="str">
-        <f t="shared" ref="E2:E7" si="0">"insert into M_LAYOUT values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', '"&amp;$B2&amp;"', '"&amp;$C2&amp;"');"</f>
-        <v>insert into M_LAYOUT values (1, now(), 1, now(), 1, 'val', 'メニュー01', 'men');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5" t="str">
+        <f>"insert into M_LAYOUT values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', '"&amp;$B2&amp;"', '"&amp;$C2&amp;"', '"&amp;$D2&amp;"');"</f>
+        <v>insert into M_LAYOUT values (1, now(), 1, now(), 1, 'val', 'Menu001', 'メニュー001', 'men');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A7" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (2, now(), 1, now(), 1, 'val', 'メニュー02', 'men');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F7" si="1">"insert into M_LAYOUT values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', '"&amp;$B3&amp;"', '"&amp;$C3&amp;"', '"&amp;$D3&amp;"');"</f>
+        <v>insert into M_LAYOUT values (2, now(), 1, now(), 1, 'val', 'Menu002', 'メニュー002', 'men');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (3, now(), 1, now(), 1, 'val', '一覧01', 'lst');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_LAYOUT values (3, now(), 1, now(), 1, 'val', 'List001', '一覧001', 'lst');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (4, now(), 1, now(), 1, 'val', '一覧02', 'lst');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_LAYOUT values (4, now(), 1, now(), 1, 'val', 'List002', '一覧002', 'lst');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (5, now(), 1, now(), 1, 'val', '詳細01', 'det');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_LAYOUT values (5, now(), 1, now(), 1, 'val', 'Detail001', '詳細001', 'det');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (6, now(), 1, now(), 1, 'val', '詳細02', 'det');</v>
+        <v>230</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_LAYOUT values (6, now(), 1, now(), 1, 'val', 'Detail002', '詳細002', 'det');</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2140,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2110,7 +2156,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2223,7 +2269,7 @@
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2240,7 +2286,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2256,7 +2302,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2334,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -2344,7 +2390,7 @@
         <v>施設種別</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_FACILITY_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -2369,7 +2415,7 @@
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2387,7 +2433,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2406,7 +2452,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2569,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
@@ -2593,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -2637,7 +2683,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -2656,7 +2702,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3003,7 +3049,7 @@
         <v>施設種別</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
@@ -3030,7 +3076,7 @@
         <v>施設種別</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ref="G15" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
@@ -3073,7 +3119,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -3092,7 +3138,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3183,7 +3229,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="str">
@@ -3327,7 +3373,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="str">
@@ -3471,7 +3517,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="str">
@@ -3615,7 +3661,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="5" t="str">
@@ -3660,10 +3706,10 @@
         <v>道の駅　富士吉田の施設種別</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="5" t="str">
@@ -3687,7 +3733,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5" t="str">
@@ -3730,7 +3776,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3746,7 +3792,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3830,7 +3876,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3846,7 +3892,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3931,7 +3977,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -3950,7 +3996,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4085,7 +4131,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -4104,7 +4150,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4251,7 +4297,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -4270,7 +4316,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4313,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="str">
@@ -4361,7 +4407,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="str">
@@ -4409,7 +4455,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="str">
@@ -4457,7 +4503,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -4502,19 +4548,19 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>6</v>
@@ -4524,7 +4570,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4536,14 +4582,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f ca="1">VLOOKUP(B2,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー01</v>
+        <f ca="1">VLOOKUP(B2,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>56</v>
@@ -4563,17 +4609,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー01</v>
+        <f ca="1">VLOOKUP(B3,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="5" t="str">
@@ -4590,17 +4636,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー01</v>
+        <f ca="1">VLOOKUP(B4,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="5" t="str">
@@ -4617,17 +4663,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー01</v>
+        <f ca="1">VLOOKUP(B5,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5" t="str">
@@ -4644,14 +4690,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー02</v>
+        <f ca="1">VLOOKUP(B6,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>56</v>
@@ -4671,17 +4717,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー02</v>
+        <f ca="1">VLOOKUP(B7,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="5" t="str">
@@ -4698,17 +4744,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー02</v>
+        <f ca="1">VLOOKUP(B8,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="5" t="str">
@@ -4725,17 +4771,17 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー02</v>
+        <f ca="1">VLOOKUP(B9,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5" t="str">
@@ -4752,14 +4798,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧01</v>
+        <f ca="1">VLOOKUP(B10,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>9</v>
@@ -4779,14 +4825,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧01</v>
+        <f ca="1">VLOOKUP(B11,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>56</v>
@@ -4806,14 +4852,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧01</v>
+        <f ca="1">VLOOKUP(B12,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>9</v>
@@ -4833,14 +4879,14 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧02</v>
+        <f ca="1">VLOOKUP(B13,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>9</v>
@@ -4860,14 +4906,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧02</v>
+        <f ca="1">VLOOKUP(B14,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>56</v>
@@ -4887,14 +4933,14 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧02</v>
+        <f ca="1">VLOOKUP(B15,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>9</v>
@@ -4914,14 +4960,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細01</v>
+        <f ca="1">VLOOKUP(B16,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細001</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>56</v>
@@ -4941,14 +4987,14 @@
         <v>5</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細01</v>
+        <f ca="1">VLOOKUP(B17,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細001</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>9</v>
@@ -4968,14 +5014,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f ca="1">VLOOKUP(B18,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細01</v>
+        <f ca="1">VLOOKUP(B18,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細001</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>9</v>
@@ -4995,14 +5041,14 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f ca="1">VLOOKUP(B19,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細02</v>
+        <f ca="1">VLOOKUP(B19,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細002</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>56</v>
@@ -5022,14 +5068,14 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f ca="1">VLOOKUP(B20,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細02</v>
+        <f ca="1">VLOOKUP(B20,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細002</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>9</v>
@@ -5049,14 +5095,14 @@
         <v>6</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f ca="1">VLOOKUP(B21,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細02</v>
+        <f ca="1">VLOOKUP(B21,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細002</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>9</v>
@@ -5103,7 +5149,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5122,7 +5168,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5272,7 +5318,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5288,7 +5334,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5350,7 +5396,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5369,7 +5415,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5456,7 +5502,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5475,7 +5521,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5622,7 +5668,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5641,7 +5687,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6037,10 +6083,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6073,10 +6119,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6089,10 +6135,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6115,10 +6161,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6174,7 +6220,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6183,13 +6229,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>34</v>
@@ -6199,7 +6245,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6218,14 +6264,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー01</v>
+        <f ca="1">VLOOKUP(D2,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="str">
@@ -6249,14 +6295,14 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧01</v>
+        <f ca="1">VLOOKUP(D3,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="str">
@@ -6280,14 +6326,14 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細01</v>
+        <f ca="1">VLOOKUP(D4,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細001</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="str">
@@ -6311,14 +6357,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウト!$A:$B,2,FALSE)</f>
-        <v>メニュー02</v>
+        <f ca="1">VLOOKUP(D5,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="str">
@@ -6342,14 +6388,14 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウト!$A:$B,2,FALSE)</f>
-        <v>一覧02</v>
+        <f ca="1">VLOOKUP(D6,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="str">
@@ -6373,14 +6419,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウト!$A:$B,2,FALSE)</f>
-        <v>詳細02</v>
+        <f ca="1">VLOOKUP(D7,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細002</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="str">
@@ -6433,53 +6479,53 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -6510,7 +6556,7 @@
         <v>img</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I2" s="6">
         <v>4</v>
@@ -6567,7 +6613,7 @@
         <v>button</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -6581,7 +6627,7 @@
         <v>txt</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M3" s="7">
         <v>2</v>
@@ -6624,7 +6670,7 @@
         <v>button</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -6681,7 +6727,7 @@
         <v>button</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -6695,7 +6741,7 @@
         <v>txt</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6738,7 +6784,7 @@
         <v>txt</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
@@ -6752,7 +6798,7 @@
         <v>txt</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>11</v>
@@ -6795,7 +6841,7 @@
         <v>img</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
@@ -6809,7 +6855,7 @@
         <v>img</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>11</v>
@@ -6852,7 +6898,7 @@
         <v>txt</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -6866,10 +6912,10 @@
         <v>txt</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N8" s="5" t="str">
         <f>IF(ISNUMBER(M8),VLOOKUP(M8,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -6909,7 +6955,7 @@
         <v>img</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
@@ -6926,7 +6972,7 @@
         <v>11</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N9" s="5" t="str">
         <f>IF(ISNUMBER(M9),VLOOKUP(M9,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -6966,7 +7012,7 @@
         <v>txt</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -6980,10 +7026,10 @@
         <v>txt</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N10" s="5" t="str">
         <f>IF(ISNUMBER(M10),VLOOKUP(M10,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -7023,7 +7069,7 @@
         <v>txt</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I11" s="6">
         <v>2</v>
@@ -7037,7 +7083,7 @@
         <v>txt</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>11</v>
@@ -7080,7 +7126,7 @@
         <v>img</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
@@ -7097,7 +7143,7 @@
         <v>11</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N12" s="5" t="str">
         <f>IF(ISNUMBER(M12),VLOOKUP(M12,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -7137,7 +7183,7 @@
         <v>button</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -7194,7 +7240,7 @@
         <v>button</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -7251,7 +7297,7 @@
         <v>button</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -7265,7 +7311,7 @@
         <v>txt</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -7308,7 +7354,7 @@
         <v>txt</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
@@ -7322,7 +7368,7 @@
         <v>txt</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>11</v>
@@ -7365,7 +7411,7 @@
         <v>img</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I17" s="6">
         <v>3</v>
@@ -7379,10 +7425,10 @@
         <v>img</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N17" s="5" t="str">
         <f>IF(ISNUMBER(M17),VLOOKUP(M17,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -7422,7 +7468,7 @@
         <v>txt</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -7479,7 +7525,7 @@
         <v>txt</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I19" s="6">
         <v>2</v>
@@ -7536,7 +7582,7 @@
         <v>img</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
@@ -7593,7 +7639,7 @@
         <v>txt</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -7607,7 +7653,7 @@
         <v>txt</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>11</v>
@@ -7650,7 +7696,7 @@
         <v>txt</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -7707,7 +7753,7 @@
         <v>txt</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I23" s="6">
         <v>2</v>
@@ -7724,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N23" s="5" t="str">
         <f>IF(ISNUMBER(M23),VLOOKUP(M23,スクリーン!$A:$G,7,FALSE),"")</f>
@@ -7771,7 +7817,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -7787,7 +7833,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7871,7 +7917,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -7887,7 +7933,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7975,7 +8021,7 @@
         <v/>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_REGION_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -8018,7 +8064,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -8037,7 +8083,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8224,7 +8270,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -8268,7 +8314,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8287,7 +8333,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8364,7 +8410,7 @@
         <v>空港有無</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8391,7 +8437,7 @@
         <v>画像</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ref="G5" si="2">"insert into M_REGION_ATTR_VAL values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;");"</f>
@@ -8418,7 +8464,7 @@
         <v>地域名</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G9" si="3">"insert into M_REGION_ATTR_VAL values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;");"</f>
@@ -8445,7 +8491,7 @@
         <v>説明文</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8472,7 +8518,7 @@
         <v>空港有無</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8499,7 +8545,7 @@
         <v>画像</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8542,7 +8588,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -8561,7 +8607,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8652,7 +8698,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="str">
@@ -8700,7 +8746,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="str">
@@ -8748,7 +8794,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -8772,7 +8818,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="str">
@@ -8796,7 +8842,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="str">
@@ -8820,7 +8866,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="str">
@@ -8844,7 +8890,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="str">

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="239">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1474,6 +1474,10 @@
   </si>
   <si>
     <t>Detail002</t>
+  </si>
+  <si>
+    <t>imgp</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1966,7 +1970,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>231</v>
@@ -1982,7 +1986,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2140,7 +2144,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2156,7 +2160,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2269,7 +2273,7 @@
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2286,7 +2290,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2302,7 +2306,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2357,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2371,7 +2375,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_ATTR_GRP values (3, now(), 1, now(), 1, 'val', 'img', null);</v>
+        <v>insert into M_FACILITY_ATTR_GRP values (3, now(), 1, now(), 1, 'val', 'imgp', null);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2415,7 +2419,7 @@
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2433,7 +2437,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2452,7 +2456,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2683,7 +2687,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -2702,7 +2706,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3119,7 +3123,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -3138,7 +3142,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3776,7 +3780,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3792,7 +3796,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3876,7 +3880,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3892,7 +3896,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3977,7 +3981,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -3996,7 +4000,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4131,7 +4135,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -4150,7 +4154,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4297,7 +4301,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -4316,7 +4320,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4548,7 +4552,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>132</v>
@@ -4570,7 +4574,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -5149,7 +5153,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5168,7 +5172,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5318,7 +5322,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5334,7 +5338,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5378,7 +5382,7 @@
       <selection activeCell="E20" sqref="E20"/>
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5396,7 +5400,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5415,7 +5419,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5502,7 +5506,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5521,7 +5525,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5668,7 +5672,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5687,7 +5691,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5896,9 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -6220,7 +6222,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6245,7 +6247,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6479,7 +6481,7 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>183</v>
@@ -6525,7 +6527,7 @@
       </c>
       <c r="P1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -6567,7 +6569,7 @@
       </c>
       <c r="K2" s="5" t="str">
         <f ca="1">IF($H2="reg",VLOOKUP(I2,地域属性グループ!$A:$E,2,FALSE),IF($H2="fac",VLOOKUP(I2,施設属性グループ!$A:$E,2,FALSE),IF($H2="facgrp",VLOOKUP(I2,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I2,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>11</v>
@@ -6852,7 +6854,7 @@
       </c>
       <c r="K7" s="5" t="str">
         <f ca="1">IF($H7="reg",VLOOKUP(I7,地域属性グループ!$A:$E,2,FALSE),IF($H7="fac",VLOOKUP(I7,施設属性グループ!$A:$E,2,FALSE),IF($H7="facgrp",VLOOKUP(I7,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I7,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>208</v>
@@ -6966,7 +6968,7 @@
       </c>
       <c r="K9" s="5" t="str">
         <f ca="1">IF($H9="reg",VLOOKUP(I9,地域属性グループ!$A:$E,2,FALSE),IF($H9="fac",VLOOKUP(I9,施設属性グループ!$A:$E,2,FALSE),IF($H9="facgrp",VLOOKUP(I9,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I9,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>11</v>
@@ -7137,7 +7139,7 @@
       </c>
       <c r="K12" s="5" t="str">
         <f ca="1">IF($H12="reg",VLOOKUP(I12,地域属性グループ!$A:$E,2,FALSE),IF($H12="fac",VLOOKUP(I12,施設属性グループ!$A:$E,2,FALSE),IF($H12="facgrp",VLOOKUP(I12,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I12,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>11</v>
@@ -7422,7 +7424,7 @@
       </c>
       <c r="K17" s="5" t="str">
         <f ca="1">IF($H17="reg",VLOOKUP(I17,地域属性グループ!$A:$E,2,FALSE),IF($H17="fac",VLOOKUP(I17,施設属性グループ!$A:$E,2,FALSE),IF($H17="facgrp",VLOOKUP(I17,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I17,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>209</v>
@@ -7593,7 +7595,7 @@
       </c>
       <c r="K20" s="5" t="str">
         <f ca="1">IF($H20="reg",VLOOKUP(I20,地域属性グループ!$A:$E,2,FALSE),IF($H20="fac",VLOOKUP(I20,施設属性グループ!$A:$E,2,FALSE),IF($H20="facgrp",VLOOKUP(I20,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I20,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>img</v>
+        <v>imgp</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>11</v>
@@ -7817,7 +7819,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -7833,7 +7835,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7917,7 +7919,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -7933,7 +7935,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8011,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -8025,7 +8027,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_REGION_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
-        <v>insert into M_REGION_ATTR_GRP values (4, now(), 1, now(), 1, 'val', 'img', null);</v>
+        <v>insert into M_REGION_ATTR_GRP values (4, now(), 1, now(), 1, 'val', 'imgp', null);</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -8083,7 +8085,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8314,7 +8316,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8333,7 +8335,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8588,7 +8590,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーン_ID</v>
+        <v>施設属性グループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -8607,7 +8609,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーン（insert文）</v>
+        <v>-- 施設属性グループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\02_SQLコマンド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\02_SQLコマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,30 +13,31 @@
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="23" r:id="rId1"/>
-    <sheet name="レイアウトオブジェクト" sheetId="24" r:id="rId2"/>
-    <sheet name="スクリーン" sheetId="25" r:id="rId3"/>
-    <sheet name="スクリーンオブジェクト" sheetId="26" r:id="rId4"/>
-    <sheet name="地域" sheetId="1" r:id="rId5"/>
-    <sheet name="地域属性グループ" sheetId="2" r:id="rId6"/>
-    <sheet name="地域属性グループ_多言語" sheetId="4" r:id="rId7"/>
-    <sheet name="地域属性値" sheetId="5" r:id="rId8"/>
-    <sheet name="地域属性値_多言語" sheetId="6" r:id="rId9"/>
-    <sheet name="施設" sheetId="7" r:id="rId10"/>
-    <sheet name="施設属性グループ" sheetId="8" r:id="rId11"/>
-    <sheet name="施設属性グループ_多言語" sheetId="9" r:id="rId12"/>
-    <sheet name="施設属性値" sheetId="10" r:id="rId13"/>
-    <sheet name="施設属性値_多言語" sheetId="11" r:id="rId14"/>
-    <sheet name="施設グループ" sheetId="12" r:id="rId15"/>
-    <sheet name="施設グループ属性グループ" sheetId="13" r:id="rId16"/>
-    <sheet name="施設グループ属性グループ_多言語" sheetId="14" r:id="rId17"/>
-    <sheet name="施設グループ属性値" sheetId="15" r:id="rId18"/>
-    <sheet name="施設グループ属性値_多言語" sheetId="16" r:id="rId19"/>
-    <sheet name="施設_施設グループ_リンク" sheetId="17" r:id="rId20"/>
-    <sheet name="施設_施設グループリンク属性グループ" sheetId="18" r:id="rId21"/>
-    <sheet name="施設_施設グループリンク属性グループ_多言語" sheetId="19" r:id="rId22"/>
-    <sheet name="施設_施設グループリンク属性値" sheetId="20" r:id="rId23"/>
-    <sheet name="施設_施設グループリンク属性値_多言語" sheetId="21" r:id="rId24"/>
-    <sheet name="Code" sheetId="3" r:id="rId25"/>
+    <sheet name="レイアウトオブジェクトグループ" sheetId="27" r:id="rId2"/>
+    <sheet name="レイアウトオブジェクト" sheetId="24" r:id="rId3"/>
+    <sheet name="スクリーン" sheetId="25" r:id="rId4"/>
+    <sheet name="スクリーンオブジェクト" sheetId="26" r:id="rId5"/>
+    <sheet name="地域" sheetId="1" r:id="rId6"/>
+    <sheet name="地域属性グループ" sheetId="2" r:id="rId7"/>
+    <sheet name="地域属性グループ_多言語" sheetId="4" r:id="rId8"/>
+    <sheet name="地域属性値" sheetId="5" r:id="rId9"/>
+    <sheet name="地域属性値_多言語" sheetId="6" r:id="rId10"/>
+    <sheet name="施設" sheetId="7" r:id="rId11"/>
+    <sheet name="施設属性グループ" sheetId="8" r:id="rId12"/>
+    <sheet name="施設属性グループ_多言語" sheetId="9" r:id="rId13"/>
+    <sheet name="施設属性値" sheetId="10" r:id="rId14"/>
+    <sheet name="施設属性値_多言語" sheetId="11" r:id="rId15"/>
+    <sheet name="施設グループ" sheetId="12" r:id="rId16"/>
+    <sheet name="施設グループ属性グループ" sheetId="13" r:id="rId17"/>
+    <sheet name="施設グループ属性グループ_多言語" sheetId="14" r:id="rId18"/>
+    <sheet name="施設グループ属性値" sheetId="15" r:id="rId19"/>
+    <sheet name="施設グループ属性値_多言語" sheetId="16" r:id="rId20"/>
+    <sheet name="施設_施設グループ_リンク" sheetId="17" r:id="rId21"/>
+    <sheet name="施設_施設グループリンク属性グループ" sheetId="18" r:id="rId22"/>
+    <sheet name="施設_施設グループリンク属性グループ_多言語" sheetId="19" r:id="rId23"/>
+    <sheet name="施設_施設グループリンク属性値" sheetId="20" r:id="rId24"/>
+    <sheet name="施設_施設グループリンク属性値_多言語" sheetId="21" r:id="rId25"/>
+    <sheet name="Code" sheetId="3" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="247">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1059,30 +1060,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>multi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>button</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1477,6 +1454,57 @@
   </si>
   <si>
     <t>imgp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトグループID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー001のグループ</t>
+  </si>
+  <si>
+    <t>メニュー002のグループ</t>
+  </si>
+  <si>
+    <t>一覧001のグループ</t>
+  </si>
+  <si>
+    <t>一覧001のリストグループ</t>
+  </si>
+  <si>
+    <t>一覧002のグループ</t>
+  </si>
+  <si>
+    <t>一覧002のリストグループ</t>
+  </si>
+  <si>
+    <t>詳細001のグループ</t>
+  </si>
+  <si>
+    <t>詳細002のグループ</t>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトグループ名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1960,20 +1988,21 @@
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>34</v>
@@ -1986,7 +2015,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1995,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>161</v>
@@ -2015,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>161</v>
@@ -2035,10 +2064,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>162</v>
@@ -2055,10 +2084,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>162</v>
@@ -2075,10 +2104,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>163</v>
@@ -2095,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>163</v>
@@ -2116,6 +2145,353 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>レイアウト_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- レイアウト（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">VLOOKUP(B2,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G6" si="0">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"');"</f>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '日光');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A13" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Nikko');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光の説明文</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '日光の説明文');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光の説明文</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Nikkos description');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光の空港有無</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (5, now(), 1, now(), 1, 'val', 3, 'common', 'has');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f ca="1">VLOOKUP(B7,地域属性値!$A:$F,6,FALSE)</f>
+        <v>日光の画像</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="str">
+        <f t="shared" ref="G7:G12" si="2">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", '"&amp;$D7&amp;"', '"&amp;$E7&amp;"');"</f>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (6, now(), 1, now(), 1, 'val', 4, 'common', 'img/nikko/image1.png');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (7, now(), 1, now(), 1, 'val', 5, 'ja', '富士五湖');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (8, now(), 1, now(), 1, 'val', 5, 'en', 'Fuji Goko');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f ca="1">VLOOKUP(B10,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖の説明文</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (9, now(), 1, now(), 1, 'val', 6, 'ja', '富士五湖の説明文');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f ca="1">VLOOKUP(B11,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖の説明文</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (10, now(), 1, now(), 1, 'val', 6, 'en', 'Fuji Gokos description');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f ca="1">VLOOKUP(B12,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖の空港有無</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (11, now(), 1, now(), 1, 'val', 7, 'common', 'nohas');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f ca="1">VLOOKUP(B13,地域属性値!$A:$F,6,FALSE)</f>
+        <v>富士五湖の画像</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" ref="G13" si="3">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A13&amp;", now(), 1, now(), 1, 'val', "&amp;$B13&amp;", '"&amp;$D13&amp;"', '"&amp;$E13&amp;"');"</f>
+        <v>insert into M_REGION_ATTR_VAL_LANG values (12, now(), 1, now(), 1, 'val', 8, 'common', 'img/fujiGoko/image1.png');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2144,7 +2520,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2160,7 +2536,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2261,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2290,7 +2666,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2306,7 +2682,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2361,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2384,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -2394,7 +2770,7 @@
         <v>施設種別</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_FACILITY_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -2407,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2437,7 +2813,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2456,7 +2832,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2619,7 +2995,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
@@ -2643,7 +3019,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -2657,7 +3033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2687,7 +3063,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -2706,7 +3082,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3053,7 +3429,7 @@
         <v>施設種別</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
@@ -3080,7 +3456,7 @@
         <v>施設種別</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ref="G15" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
@@ -3093,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3123,7 +3499,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -3142,7 +3518,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3710,10 +4086,10 @@
         <v>道の駅　富士吉田の施設種別</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="5" t="str">
@@ -3737,7 +4113,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5" t="str">
@@ -3751,7 +4127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3780,7 +4156,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3796,7 +4172,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3851,7 +4227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3880,7 +4256,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3896,7 +4272,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3951,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3981,7 +4357,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -4000,7 +4376,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4105,7 +4481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4135,7 +4511,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -4154,7 +4530,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4271,7 +4647,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>レイアウト_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- レイアウト（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f ca="1">VLOOKUP(B2,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー001</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f t="shared" ref="F2:F9" si="0">"insert into M_LAYOUT values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"');"</f>
+        <v>insert into M_LAYOUT values (1, now(), 1, now(), 1, 'val', 1, 'sin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,レイアウト!$A:$C,3,FALSE)</f>
+        <v>メニュー002</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (2, now(), 1, now(), 1, 'val', 2, 'sin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (3, now(), 1, now(), 1, 'val', 3, 'sin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (4, now(), 1, now(), 1, 'val', 3, 'multi');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (5, now(), 1, now(), 1, 'val', 4, 'sin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,レイアウト!$A:$C,3,FALSE)</f>
+        <v>一覧002</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (6, now(), 1, now(), 1, 'val', 4, 'multi');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (7, now(), 1, now(), 1, 'val', 5, 'sin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,レイアウト!$A:$C,3,FALSE)</f>
+        <v>詳細002</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT values (8, now(), 1, now(), 1, 'val', 6, 'sin');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4301,7 +4915,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -4320,7 +4934,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4521,609 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f ca="1">VLOOKUP(B2,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー001</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="str">
-        <f t="shared" ref="H2:H21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$E2&amp;"', '"&amp;$D2&amp;"','"&amp;$F2&amp;"');"</f>
-        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1, 'sin', 'トップ画像','img');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A21" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー001</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1, 'sin', 'メニューボタン1','button');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー001</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1, 'sin', 'メニューボタン2','button');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1, 'sin', 'メニューボタン3','button');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー002</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2, 'sin', 'トップ画像','img');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー002</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2, 'sin', 'メニューボタン1','button');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー002</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2, 'sin', 'メニューボタン2','button');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,レイアウト!$A:$C,3,FALSE)</f>
-        <v>メニュー002</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2, 'sin', 'メニューボタン3','button');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧001</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3, 'sin', '親説明文','txt');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧001</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 3, 'sin', '説明画像','img');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧001</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 3, 'sin', '説明文','txt');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧002</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 4, 'sin', '親説明文','txt');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧002</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 4, 'sin', '説明画像','img');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,レイアウト!$A:$C,3,FALSE)</f>
-        <v>一覧002</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 4, 'multi', '説明文','txt');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細001</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 5, 'sin', '画像01','img');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細001</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 5, 'sin', '説明文（メイン）','txt');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="str">
-        <f ca="1">VLOOKUP(B18,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細001</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 5, 'sin', '説明文（補足）','txt');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="str">
-        <f ca="1">VLOOKUP(B19,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細002</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 6, 'sin', '画像01','img');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f ca="1">VLOOKUP(B20,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細002</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 6, 'sin', '説明文（メイン）','txt');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="str">
-        <f ca="1">VLOOKUP(B21,レイアウト!$A:$C,3,FALSE)</f>
-        <v>詳細002</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 6, 'multi', '説明文（補足）','txt');</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5153,7 +5165,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5172,7 +5184,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5293,7 +5305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5322,7 +5334,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5338,7 +5350,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5370,7 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5400,7 +5412,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5419,7 +5431,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5476,7 +5488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5506,7 +5518,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5525,7 +5537,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5642,7 +5654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5672,7 +5684,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5691,7 +5703,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5896,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -6137,10 +6149,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6163,10 +6175,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6191,6 +6203,544 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>レイアウト_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- レイアウト（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f ca="1">VLOOKUP(B2,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー001のグループ</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;"', '"&amp;$D2&amp;"','"&amp;$E2&amp;"');"</f>
+        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1', 'トップ画像','img');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A21" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー001のグループ</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1', 'メニューボタン1','button');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー001のグループ</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1', 'メニューボタン2','button');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー001のグループ</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1', 'メニューボタン3','button');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー002のグループ</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2', 'トップ画像','img');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー002のグループ</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2', 'メニューボタン1','button');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー002のグループ</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2', 'メニューボタン2','button');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>メニュー002のグループ</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2', 'メニューボタン3','button');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f ca="1">VLOOKUP(B10,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧001のグループ</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3', '親説明文','txt');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f ca="1">VLOOKUP(B11,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧001のリストグループ</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 4', '説明画像','img');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f ca="1">VLOOKUP(B12,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧001のリストグループ</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 4', '説明文','txt');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f ca="1">VLOOKUP(B13,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧002のグループ</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 5', '親説明文','txt');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f ca="1">VLOOKUP(B14,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧002のリストグループ</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 6', '説明画像','img');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f ca="1">VLOOKUP(B15,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>一覧002のリストグループ</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 6', '説明文','list');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f ca="1">VLOOKUP(B16,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細001のグループ</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 7', '画像01','img');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f ca="1">VLOOKUP(B17,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細001のグループ</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 7', '説明文（メイン）','txt');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f ca="1">VLOOKUP(B18,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細001のグループ</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 7', '説明文（補足）','txt');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f ca="1">VLOOKUP(B19,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細002のグループ</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 8', '画像01','img');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f ca="1">VLOOKUP(B20,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細002のグループ</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 8', '説明文（メイン）','txt');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f ca="1">VLOOKUP(B21,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
+        <v>詳細002のグループ</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 8', '説明文（補足）','list');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -6222,7 +6772,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6237,7 +6787,7 @@
         <v>133</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>34</v>
@@ -6247,7 +6797,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6270,10 +6820,10 @@
         <v>メニュー001</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="str">
@@ -6301,10 +6851,10 @@
         <v>一覧001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="str">
@@ -6332,10 +6882,10 @@
         <v>詳細001</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="str">
@@ -6363,10 +6913,10 @@
         <v>メニュー002</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="str">
@@ -6394,10 +6944,10 @@
         <v>一覧002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="str">
@@ -6425,10 +6975,10 @@
         <v>詳細002</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="str">
@@ -6442,12 +6992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6464,73 +7014,69 @@
     <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="8" t="str">
+      <c r="O1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-- レイアウト（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -6551,45 +7097,41 @@
       </c>
       <c r="F2" s="5" t="str">
         <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="G2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="6">
         <v>4</v>
       </c>
+      <c r="I2" s="5" t="str">
+        <f ca="1">IF($G2="reg",VLOOKUP(H2,地域属性グループ!$A:$E,5,FALSE),IF($G2="fac",VLOOKUP(H2,施設属性グループ!$A:$E,5,FALSE),IF($G2="facgrp",VLOOKUP(H2,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H2,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像</v>
+      </c>
       <c r="J2" s="5" t="str">
-        <f ca="1">IF($H2="reg",VLOOKUP(I2,地域属性グループ!$A:$E,5,FALSE),IF($H2="fac",VLOOKUP(I2,施設属性グループ!$A:$E,5,FALSE),IF($H2="facgrp",VLOOKUP(I2,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I2,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f ca="1">IF($H2="reg",VLOOKUP(I2,地域属性グループ!$A:$E,2,FALSE),IF($H2="fac",VLOOKUP(I2,施設属性グループ!$A:$E,2,FALSE),IF($H2="facgrp",VLOOKUP(I2,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I2,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G2="reg",VLOOKUP(H2,地域属性グループ!$A:$E,2,FALSE),IF($G2="fac",VLOOKUP(H2,施設属性グループ!$A:$E,2,FALSE),IF($G2="facgrp",VLOOKUP(H2,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H2,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="5" t="str">
-        <f>IF(ISNUMBER(M2),VLOOKUP(M2,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M2" s="5" t="str">
+        <f>IF(ISNUMBER(L2),VLOOKUP(L2,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5" t="str">
-        <f t="shared" ref="P2:P23" si="0">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$H2&amp;"', "&amp;$I2&amp;", "&amp;$L2&amp;", "&amp;M2&amp;");"</f>
+      <c r="N2" s="7"/>
+      <c r="O2" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$G2&amp;"', "&amp;$H2&amp;", "&amp;$K2&amp;", "&amp;L2&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', 4, null, null);</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A23" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A23" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -6608,45 +7150,41 @@
       </c>
       <c r="F3" s="5" t="str">
         <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
+      <c r="G3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f ca="1">IF($G3="reg",VLOOKUP(H3,地域属性グループ!$A:$E,5,FALSE),IF($G3="fac",VLOOKUP(H3,施設属性グループ!$A:$E,5,FALSE),IF($G3="facgrp",VLOOKUP(H3,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H3,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J3" s="5" t="str">
-        <f ca="1">IF($H3="reg",VLOOKUP(I3,地域属性グループ!$A:$E,5,FALSE),IF($H3="fac",VLOOKUP(I3,施設属性グループ!$A:$E,5,FALSE),IF($H3="facgrp",VLOOKUP(I3,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I3,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f ca="1">IF($H3="reg",VLOOKUP(I3,地域属性グループ!$A:$E,2,FALSE),IF($H3="fac",VLOOKUP(I3,施設属性グループ!$A:$E,2,FALSE),IF($H3="facgrp",VLOOKUP(I3,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I3,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G3="reg",VLOOKUP(H3,地域属性グループ!$A:$E,2,FALSE),IF($G3="fac",VLOOKUP(H3,施設属性グループ!$A:$E,2,FALSE),IF($G3="facgrp",VLOOKUP(H3,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H3,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="K3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="7">
         <v>2</v>
       </c>
-      <c r="N3" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M3),VLOOKUP(M3,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M3" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L3),VLOOKUP(L3,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>日光施設一覧</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", "&amp;$D3&amp;", '"&amp;$G3&amp;"', "&amp;$H3&amp;", "&amp;$K3&amp;", "&amp;L3&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (2, now(), 1, now(), 1, 'val', 1, 2, 'reg', 1, null, 2);</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -6665,45 +7203,41 @@
       </c>
       <c r="F4" s="5" t="str">
         <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
+      <c r="G4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f ca="1">IF($G4="reg",VLOOKUP(H4,地域属性グループ!$A:$E,5,FALSE),IF($G4="fac",VLOOKUP(H4,施設属性グループ!$A:$E,5,FALSE),IF($G4="facgrp",VLOOKUP(H4,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H4,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f ca="1">IF($H4="reg",VLOOKUP(I4,地域属性グループ!$A:$E,5,FALSE),IF($H4="fac",VLOOKUP(I4,施設属性グループ!$A:$E,5,FALSE),IF($H4="facgrp",VLOOKUP(I4,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I4,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f ca="1">IF($H4="reg",VLOOKUP(I4,地域属性グループ!$A:$E,2,FALSE),IF($H4="fac",VLOOKUP(I4,施設属性グループ!$A:$E,2,FALSE),IF($H4="facgrp",VLOOKUP(I4,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I4,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G4="reg",VLOOKUP(H4,地域属性グループ!$A:$E,2,FALSE),IF($G4="fac",VLOOKUP(H4,施設属性グループ!$A:$E,2,FALSE),IF($G4="facgrp",VLOOKUP(H4,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H4,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M4),VLOOKUP(M4,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M4" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L4),VLOOKUP(L4,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>日光施設一覧</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A4&amp;", now(), 1, now(), 1, 'val', "&amp;$B4&amp;", "&amp;$D4&amp;", '"&amp;$G4&amp;"', "&amp;$H4&amp;", "&amp;$K4&amp;", "&amp;L4&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (3, now(), 1, now(), 1, 'val', 1, 3, 'reg', 1, null, 2);</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -6722,45 +7256,41 @@
       </c>
       <c r="F5" s="5" t="str">
         <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
+      <c r="G5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f ca="1">IF($G5="reg",VLOOKUP(H5,地域属性グループ!$A:$E,5,FALSE),IF($G5="fac",VLOOKUP(H5,施設属性グループ!$A:$E,5,FALSE),IF($G5="facgrp",VLOOKUP(H5,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H5,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f ca="1">IF($H5="reg",VLOOKUP(I5,地域属性グループ!$A:$E,5,FALSE),IF($H5="fac",VLOOKUP(I5,施設属性グループ!$A:$E,5,FALSE),IF($H5="facgrp",VLOOKUP(I5,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I5,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f ca="1">IF($H5="reg",VLOOKUP(I5,地域属性グループ!$A:$E,2,FALSE),IF($H5="fac",VLOOKUP(I5,施設属性グループ!$A:$E,2,FALSE),IF($H5="facgrp",VLOOKUP(I5,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I5,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G5="reg",VLOOKUP(H5,地域属性グループ!$A:$E,2,FALSE),IF($G5="fac",VLOOKUP(H5,施設属性グループ!$A:$E,2,FALSE),IF($G5="facgrp",VLOOKUP(H5,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H5,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="K5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="N5" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M5),VLOOKUP(M5,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M5" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L5),VLOOKUP(L5,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>日光施設一覧</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;", '"&amp;$G5&amp;"', "&amp;$H5&amp;", "&amp;$K5&amp;", "&amp;L5&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (4, now(), 1, now(), 1, 'val', 1, 4, 'reg', 1, null, 2);</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -6779,45 +7309,41 @@
       </c>
       <c r="F6" s="5" t="str">
         <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="G6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="6">
         <v>2</v>
       </c>
+      <c r="I6" s="5" t="str">
+        <f ca="1">IF($G6="reg",VLOOKUP(H6,地域属性グループ!$A:$E,5,FALSE),IF($G6="fac",VLOOKUP(H6,施設属性グループ!$A:$E,5,FALSE),IF($G6="facgrp",VLOOKUP(H6,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H6,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>説明文</v>
+      </c>
       <c r="J6" s="5" t="str">
-        <f ca="1">IF($H6="reg",VLOOKUP(I6,地域属性グループ!$A:$E,5,FALSE),IF($H6="fac",VLOOKUP(I6,施設属性グループ!$A:$E,5,FALSE),IF($H6="facgrp",VLOOKUP(I6,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I6,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>説明文</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f ca="1">IF($H6="reg",VLOOKUP(I6,地域属性グループ!$A:$E,2,FALSE),IF($H6="fac",VLOOKUP(I6,施設属性グループ!$A:$E,2,FALSE),IF($H6="facgrp",VLOOKUP(I6,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I6,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G6="reg",VLOOKUP(H6,地域属性グループ!$A:$E,2,FALSE),IF($G6="fac",VLOOKUP(H6,施設属性グループ!$A:$E,2,FALSE),IF($G6="facgrp",VLOOKUP(H6,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H6,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K6" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="5" t="str">
-        <f>IF(ISNUMBER(M6),VLOOKUP(M6,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M6" s="5" t="str">
+        <f>IF(ISNUMBER(L6),VLOOKUP(L6,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;", '"&amp;$G6&amp;"', "&amp;$H6&amp;", "&amp;$K6&amp;", "&amp;L6&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (5, now(), 1, now(), 1, 'val', 2, 9, 'reg', 2, null, null);</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -6836,45 +7362,41 @@
       </c>
       <c r="F7" s="5" t="str">
         <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="6">
         <v>3</v>
       </c>
+      <c r="I7" s="5" t="str">
+        <f ca="1">IF($G7="reg",VLOOKUP(H7,地域属性グループ!$A:$E,5,FALSE),IF($G7="fac",VLOOKUP(H7,施設属性グループ!$A:$E,5,FALSE),IF($G7="facgrp",VLOOKUP(H7,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H7,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
       <c r="J7" s="5" t="str">
-        <f ca="1">IF($H7="reg",VLOOKUP(I7,地域属性グループ!$A:$E,5,FALSE),IF($H7="fac",VLOOKUP(I7,施設属性グループ!$A:$E,5,FALSE),IF($H7="facgrp",VLOOKUP(I7,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I7,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="K7" s="5" t="str">
-        <f ca="1">IF($H7="reg",VLOOKUP(I7,地域属性グループ!$A:$E,2,FALSE),IF($H7="fac",VLOOKUP(I7,施設属性グループ!$A:$E,2,FALSE),IF($H7="facgrp",VLOOKUP(I7,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I7,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G7="reg",VLOOKUP(H7,地域属性グループ!$A:$E,2,FALSE),IF($G7="fac",VLOOKUP(H7,施設属性グループ!$A:$E,2,FALSE),IF($G7="facgrp",VLOOKUP(H7,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H7,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="5" t="str">
-        <f>IF(ISNUMBER(M7),VLOOKUP(M7,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M7" s="5" t="str">
+        <f>IF(ISNUMBER(L7),VLOOKUP(L7,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", "&amp;$D7&amp;", '"&amp;$G7&amp;"', "&amp;$H7&amp;", "&amp;$K7&amp;", "&amp;L7&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (6, now(), 1, now(), 1, 'val', 2, 10, 'fac', 3, null, null);</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="6">
@@ -6893,45 +7415,41 @@
       </c>
       <c r="F8" s="5" t="str">
         <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="6">
         <v>2</v>
       </c>
+      <c r="I8" s="5" t="str">
+        <f ca="1">IF($G8="reg",VLOOKUP(H8,地域属性グループ!$A:$E,5,FALSE),IF($G8="fac",VLOOKUP(H8,施設属性グループ!$A:$E,5,FALSE),IF($G8="facgrp",VLOOKUP(H8,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H8,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
       <c r="J8" s="5" t="str">
-        <f ca="1">IF($H8="reg",VLOOKUP(I8,地域属性グループ!$A:$E,5,FALSE),IF($H8="fac",VLOOKUP(I8,施設属性グループ!$A:$E,5,FALSE),IF($H8="facgrp",VLOOKUP(I8,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I8,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f ca="1">IF($H8="reg",VLOOKUP(I8,地域属性グループ!$A:$E,2,FALSE),IF($H8="fac",VLOOKUP(I8,施設属性グループ!$A:$E,2,FALSE),IF($H8="facgrp",VLOOKUP(I8,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I8,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G8="reg",VLOOKUP(H8,地域属性グループ!$A:$E,2,FALSE),IF($G8="fac",VLOOKUP(H8,施設属性グループ!$A:$E,2,FALSE),IF($G8="facgrp",VLOOKUP(H8,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H8,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N8" s="5" t="str">
-        <f>IF(ISNUMBER(M8),VLOOKUP(M8,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>204</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>IF(ISNUMBER(L8),VLOOKUP(L8,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", "&amp;$D8&amp;", '"&amp;$G8&amp;"', "&amp;$H8&amp;", "&amp;$K8&amp;", "&amp;L8&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (7, now(), 1, now(), 1, 'val', 2, 11, 'fac', 2, null, null);</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="6">
@@ -6950,45 +7468,41 @@
       </c>
       <c r="F9" s="5" t="str">
         <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="6">
         <v>3</v>
       </c>
+      <c r="I9" s="5" t="str">
+        <f ca="1">IF($G9="reg",VLOOKUP(H9,地域属性グループ!$A:$E,5,FALSE),IF($G9="fac",VLOOKUP(H9,施設属性グループ!$A:$E,5,FALSE),IF($G9="facgrp",VLOOKUP(H9,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H9,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
       <c r="J9" s="5" t="str">
-        <f ca="1">IF($H9="reg",VLOOKUP(I9,地域属性グループ!$A:$E,5,FALSE),IF($H9="fac",VLOOKUP(I9,施設属性グループ!$A:$E,5,FALSE),IF($H9="facgrp",VLOOKUP(I9,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I9,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="K9" s="5" t="str">
-        <f ca="1">IF($H9="reg",VLOOKUP(I9,地域属性グループ!$A:$E,2,FALSE),IF($H9="fac",VLOOKUP(I9,施設属性グループ!$A:$E,2,FALSE),IF($H9="facgrp",VLOOKUP(I9,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I9,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G9="reg",VLOOKUP(H9,地域属性グループ!$A:$E,2,FALSE),IF($G9="fac",VLOOKUP(H9,施設属性グループ!$A:$E,2,FALSE),IF($G9="facgrp",VLOOKUP(H9,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H9,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
       </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" s="5" t="str">
-        <f>IF(ISNUMBER(M9),VLOOKUP(M9,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>204</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f>IF(ISNUMBER(L9),VLOOKUP(L9,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A9&amp;", now(), 1, now(), 1, 'val', "&amp;$B9&amp;", "&amp;$D9&amp;", '"&amp;$G9&amp;"', "&amp;$H9&amp;", "&amp;$K9&amp;", "&amp;L9&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (8, now(), 1, now(), 1, 'val', 3, 15, 'fac', 3, null, null);</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="6">
@@ -7007,45 +7521,41 @@
       </c>
       <c r="F10" s="5" t="str">
         <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G10" s="5" t="str">
-        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
+      <c r="G10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f ca="1">IF($G10="reg",VLOOKUP(H10,地域属性グループ!$A:$E,5,FALSE),IF($G10="fac",VLOOKUP(H10,施設属性グループ!$A:$E,5,FALSE),IF($G10="facgrp",VLOOKUP(H10,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H10,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f ca="1">IF($H10="reg",VLOOKUP(I10,地域属性グループ!$A:$E,5,FALSE),IF($H10="fac",VLOOKUP(I10,施設属性グループ!$A:$E,5,FALSE),IF($H10="facgrp",VLOOKUP(I10,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I10,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f ca="1">IF($H10="reg",VLOOKUP(I10,地域属性グループ!$A:$E,2,FALSE),IF($H10="fac",VLOOKUP(I10,施設属性グループ!$A:$E,2,FALSE),IF($H10="facgrp",VLOOKUP(I10,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I10,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G10="reg",VLOOKUP(H10,地域属性グループ!$A:$E,2,FALSE),IF($G10="fac",VLOOKUP(H10,施設属性グループ!$A:$E,2,FALSE),IF($G10="facgrp",VLOOKUP(H10,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H10,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="N10" s="5" t="str">
-        <f>IF(ISNUMBER(M10),VLOOKUP(M10,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>205</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f>IF(ISNUMBER(L10),VLOOKUP(L10,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A10&amp;", now(), 1, now(), 1, 'val', "&amp;$B10&amp;", "&amp;$D10&amp;", '"&amp;$G10&amp;"', "&amp;$H10&amp;", "&amp;$K10&amp;", "&amp;L10&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (9, now(), 1, now(), 1, 'val', 3, 16, 'fac', 1, null, null);</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="6">
@@ -7064,45 +7574,41 @@
       </c>
       <c r="F11" s="5" t="str">
         <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="G11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="6">
         <v>2</v>
       </c>
+      <c r="I11" s="5" t="str">
+        <f ca="1">IF($G11="reg",VLOOKUP(H11,地域属性グループ!$A:$E,5,FALSE),IF($G11="fac",VLOOKUP(H11,施設属性グループ!$A:$E,5,FALSE),IF($G11="facgrp",VLOOKUP(H11,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H11,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
       <c r="J11" s="5" t="str">
-        <f ca="1">IF($H11="reg",VLOOKUP(I11,地域属性グループ!$A:$E,5,FALSE),IF($H11="fac",VLOOKUP(I11,施設属性グループ!$A:$E,5,FALSE),IF($H11="facgrp",VLOOKUP(I11,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I11,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f ca="1">IF($H11="reg",VLOOKUP(I11,地域属性グループ!$A:$E,2,FALSE),IF($H11="fac",VLOOKUP(I11,施設属性グループ!$A:$E,2,FALSE),IF($H11="facgrp",VLOOKUP(I11,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I11,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G11="reg",VLOOKUP(H11,地域属性グループ!$A:$E,2,FALSE),IF($G11="fac",VLOOKUP(H11,施設属性グループ!$A:$E,2,FALSE),IF($G11="facgrp",VLOOKUP(H11,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H11,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K11" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="5" t="str">
-        <f>IF(ISNUMBER(M11),VLOOKUP(M11,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M11" s="5" t="str">
+        <f>IF(ISNUMBER(L11),VLOOKUP(L11,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A11&amp;", now(), 1, now(), 1, 'val', "&amp;$B11&amp;", "&amp;$D11&amp;", '"&amp;$G11&amp;"', "&amp;$H11&amp;", "&amp;$K11&amp;", "&amp;L11&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (10, now(), 1, now(), 1, 'val', 3, 17, 'fac', 2, null, null);</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="6">
@@ -7121,45 +7627,41 @@
       </c>
       <c r="F12" s="5" t="str">
         <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G12" s="5" t="str">
-        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="G12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="6">
         <v>4</v>
       </c>
+      <c r="I12" s="5" t="str">
+        <f ca="1">IF($G12="reg",VLOOKUP(H12,地域属性グループ!$A:$E,5,FALSE),IF($G12="fac",VLOOKUP(H12,施設属性グループ!$A:$E,5,FALSE),IF($G12="facgrp",VLOOKUP(H12,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H12,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像</v>
+      </c>
       <c r="J12" s="5" t="str">
-        <f ca="1">IF($H12="reg",VLOOKUP(I12,地域属性グループ!$A:$E,5,FALSE),IF($H12="fac",VLOOKUP(I12,施設属性グループ!$A:$E,5,FALSE),IF($H12="facgrp",VLOOKUP(I12,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I12,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f ca="1">IF($H12="reg",VLOOKUP(I12,地域属性グループ!$A:$E,2,FALSE),IF($H12="fac",VLOOKUP(I12,施設属性グループ!$A:$E,2,FALSE),IF($H12="facgrp",VLOOKUP(I12,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I12,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G12="reg",VLOOKUP(H12,地域属性グループ!$A:$E,2,FALSE),IF($G12="fac",VLOOKUP(H12,施設属性グループ!$A:$E,2,FALSE),IF($G12="facgrp",VLOOKUP(H12,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H12,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
       </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N12" s="5" t="str">
-        <f>IF(ISNUMBER(M12),VLOOKUP(M12,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>206</v>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f>IF(ISNUMBER(L12),VLOOKUP(L12,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A12&amp;", now(), 1, now(), 1, 'val', "&amp;$B12&amp;", "&amp;$D12&amp;", '"&amp;$G12&amp;"', "&amp;$H12&amp;", "&amp;$K12&amp;", "&amp;L12&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (11, now(), 1, now(), 1, 'val', 4, 5, 'reg', 4, null, null);</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -7178,45 +7680,41 @@
       </c>
       <c r="F13" s="5" t="str">
         <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
+      <c r="G13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f ca="1">IF($G13="reg",VLOOKUP(H13,地域属性グループ!$A:$E,5,FALSE),IF($G13="fac",VLOOKUP(H13,施設属性グループ!$A:$E,5,FALSE),IF($G13="facgrp",VLOOKUP(H13,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H13,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f ca="1">IF($H13="reg",VLOOKUP(I13,地域属性グループ!$A:$E,5,FALSE),IF($H13="fac",VLOOKUP(I13,施設属性グループ!$A:$E,5,FALSE),IF($H13="facgrp",VLOOKUP(I13,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I13,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f ca="1">IF($H13="reg",VLOOKUP(I13,地域属性グループ!$A:$E,2,FALSE),IF($H13="fac",VLOOKUP(I13,施設属性グループ!$A:$E,2,FALSE),IF($H13="facgrp",VLOOKUP(I13,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I13,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G13="reg",VLOOKUP(H13,地域属性グループ!$A:$E,2,FALSE),IF($G13="fac",VLOOKUP(H13,施設属性グループ!$A:$E,2,FALSE),IF($G13="facgrp",VLOOKUP(H13,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H13,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
+      <c r="L13" s="7">
         <v>4</v>
       </c>
-      <c r="N13" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M13),VLOOKUP(M13,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M13" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L13),VLOOKUP(L13,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>富士五湖メニュー</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A13&amp;", now(), 1, now(), 1, 'val', "&amp;$B13&amp;", "&amp;$D13&amp;", '"&amp;$G13&amp;"', "&amp;$H13&amp;", "&amp;$K13&amp;", "&amp;L13&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (12, now(), 1, now(), 1, 'val', 4, 6, 'reg', 1, null, 4);</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="6">
@@ -7235,45 +7733,41 @@
       </c>
       <c r="F14" s="5" t="str">
         <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G14" s="5" t="str">
-        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
+      <c r="G14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f ca="1">IF($G14="reg",VLOOKUP(H14,地域属性グループ!$A:$E,5,FALSE),IF($G14="fac",VLOOKUP(H14,施設属性グループ!$A:$E,5,FALSE),IF($G14="facgrp",VLOOKUP(H14,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H14,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f ca="1">IF($H14="reg",VLOOKUP(I14,地域属性グループ!$A:$E,5,FALSE),IF($H14="fac",VLOOKUP(I14,施設属性グループ!$A:$E,5,FALSE),IF($H14="facgrp",VLOOKUP(I14,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I14,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f ca="1">IF($H14="reg",VLOOKUP(I14,地域属性グループ!$A:$E,2,FALSE),IF($H14="fac",VLOOKUP(I14,施設属性グループ!$A:$E,2,FALSE),IF($H14="facgrp",VLOOKUP(I14,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I14,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G14="reg",VLOOKUP(H14,地域属性グループ!$A:$E,2,FALSE),IF($G14="fac",VLOOKUP(H14,施設属性グループ!$A:$E,2,FALSE),IF($G14="facgrp",VLOOKUP(H14,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H14,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="7">
+      <c r="L14" s="7">
         <v>4</v>
       </c>
-      <c r="N14" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M14),VLOOKUP(M14,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M14" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L14),VLOOKUP(L14,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>富士五湖メニュー</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;", '"&amp;$G14&amp;"', "&amp;$H14&amp;", "&amp;$K14&amp;", "&amp;L14&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (13, now(), 1, now(), 1, 'val', 4, 7, 'reg', 1, null, 4);</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="6">
@@ -7292,45 +7786,41 @@
       </c>
       <c r="F15" s="5" t="str">
         <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>button</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
+      <c r="G15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f ca="1">IF($G15="reg",VLOOKUP(H15,地域属性グループ!$A:$E,5,FALSE),IF($G15="fac",VLOOKUP(H15,施設属性グループ!$A:$E,5,FALSE),IF($G15="facgrp",VLOOKUP(H15,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H15,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f ca="1">IF($H15="reg",VLOOKUP(I15,地域属性グループ!$A:$E,5,FALSE),IF($H15="fac",VLOOKUP(I15,施設属性グループ!$A:$E,5,FALSE),IF($H15="facgrp",VLOOKUP(I15,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I15,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f ca="1">IF($H15="reg",VLOOKUP(I15,地域属性グループ!$A:$E,2,FALSE),IF($H15="fac",VLOOKUP(I15,施設属性グループ!$A:$E,2,FALSE),IF($H15="facgrp",VLOOKUP(I15,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I15,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G15="reg",VLOOKUP(H15,地域属性グループ!$A:$E,2,FALSE),IF($G15="fac",VLOOKUP(H15,施設属性グループ!$A:$E,2,FALSE),IF($G15="facgrp",VLOOKUP(H15,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H15,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="K15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="7">
         <v>4</v>
       </c>
-      <c r="N15" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(M15),VLOOKUP(M15,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M15" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(L15),VLOOKUP(L15,スクリーン!$A:$G,7,FALSE),"")</f>
         <v>富士五湖メニュー</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;", '"&amp;$G15&amp;"', "&amp;$H15&amp;", "&amp;$K15&amp;", "&amp;L15&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (14, now(), 1, now(), 1, 'val', 4, 8, 'reg', 1, null, 4);</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="6">
@@ -7349,45 +7839,41 @@
       </c>
       <c r="F16" s="5" t="str">
         <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="6">
         <v>2</v>
       </c>
+      <c r="I16" s="5" t="str">
+        <f ca="1">IF($G16="reg",VLOOKUP(H16,地域属性グループ!$A:$E,5,FALSE),IF($G16="fac",VLOOKUP(H16,施設属性グループ!$A:$E,5,FALSE),IF($G16="facgrp",VLOOKUP(H16,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H16,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>説明文</v>
+      </c>
       <c r="J16" s="5" t="str">
-        <f ca="1">IF($H16="reg",VLOOKUP(I16,地域属性グループ!$A:$E,5,FALSE),IF($H16="fac",VLOOKUP(I16,施設属性グループ!$A:$E,5,FALSE),IF($H16="facgrp",VLOOKUP(I16,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I16,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>説明文</v>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f ca="1">IF($H16="reg",VLOOKUP(I16,地域属性グループ!$A:$E,2,FALSE),IF($H16="fac",VLOOKUP(I16,施設属性グループ!$A:$E,2,FALSE),IF($H16="facgrp",VLOOKUP(I16,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I16,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G16="reg",VLOOKUP(H16,地域属性グループ!$A:$E,2,FALSE),IF($G16="fac",VLOOKUP(H16,施設属性グループ!$A:$E,2,FALSE),IF($G16="facgrp",VLOOKUP(H16,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H16,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="5" t="str">
-        <f>IF(ISNUMBER(M16),VLOOKUP(M16,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M16" s="5" t="str">
+        <f>IF(ISNUMBER(L16),VLOOKUP(L16,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A16&amp;", now(), 1, now(), 1, 'val', "&amp;$B16&amp;", "&amp;$D16&amp;", '"&amp;$G16&amp;"', "&amp;$H16&amp;", "&amp;$K16&amp;", "&amp;L16&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (15, now(), 1, now(), 1, 'val', 5, 12, 'reg', 2, null, null);</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="6">
@@ -7406,45 +7892,41 @@
       </c>
       <c r="F17" s="5" t="str">
         <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="6">
         <v>3</v>
       </c>
+      <c r="I17" s="5" t="str">
+        <f ca="1">IF($G17="reg",VLOOKUP(H17,地域属性グループ!$A:$E,5,FALSE),IF($G17="fac",VLOOKUP(H17,施設属性グループ!$A:$E,5,FALSE),IF($G17="facgrp",VLOOKUP(H17,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H17,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
       <c r="J17" s="5" t="str">
-        <f ca="1">IF($H17="reg",VLOOKUP(I17,地域属性グループ!$A:$E,5,FALSE),IF($H17="fac",VLOOKUP(I17,施設属性グループ!$A:$E,5,FALSE),IF($H17="facgrp",VLOOKUP(I17,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I17,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f ca="1">IF($H17="reg",VLOOKUP(I17,地域属性グループ!$A:$E,2,FALSE),IF($H17="fac",VLOOKUP(I17,施設属性グループ!$A:$E,2,FALSE),IF($H17="facgrp",VLOOKUP(I17,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I17,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G17="reg",VLOOKUP(H17,地域属性グループ!$A:$E,2,FALSE),IF($G17="fac",VLOOKUP(H17,施設属性グループ!$A:$E,2,FALSE),IF($G17="facgrp",VLOOKUP(H17,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H17,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
       </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N17" s="5" t="str">
-        <f>IF(ISNUMBER(M17),VLOOKUP(M17,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>204</v>
+      </c>
+      <c r="M17" s="5" t="str">
+        <f>IF(ISNUMBER(L17),VLOOKUP(L17,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A17&amp;", now(), 1, now(), 1, 'val', "&amp;$B17&amp;", "&amp;$D17&amp;", '"&amp;$G17&amp;"', "&amp;$H17&amp;", "&amp;$K17&amp;", "&amp;L17&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (16, now(), 1, now(), 1, 'val', 5, 13, 'fac', 3, null, null);</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="6">
@@ -7463,45 +7945,41 @@
       </c>
       <c r="F18" s="5" t="str">
         <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>multi</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f ca="1">IF($G18="reg",VLOOKUP(H18,地域属性グループ!$A:$E,5,FALSE),IF($G18="fac",VLOOKUP(H18,施設属性グループ!$A:$E,5,FALSE),IF($G18="facgrp",VLOOKUP(H18,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H18,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f ca="1">IF($G18="reg",VLOOKUP(H18,地域属性グループ!$A:$E,2,FALSE),IF($G18="fac",VLOOKUP(H18,施設属性グループ!$A:$E,2,FALSE),IF($G18="facgrp",VLOOKUP(H18,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H18,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f ca="1">IF($H18="reg",VLOOKUP(I18,地域属性グループ!$A:$E,5,FALSE),IF($H18="fac",VLOOKUP(I18,施設属性グループ!$A:$E,5,FALSE),IF($H18="facgrp",VLOOKUP(I18,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I18,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f ca="1">IF($H18="reg",VLOOKUP(I18,地域属性グループ!$A:$E,2,FALSE),IF($H18="fac",VLOOKUP(I18,施設属性グループ!$A:$E,2,FALSE),IF($H18="facgrp",VLOOKUP(I18,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I18,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="5" t="str">
-        <f>IF(ISNUMBER(M18),VLOOKUP(M18,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M18" s="5" t="str">
+        <f>IF(ISNUMBER(L18),VLOOKUP(L18,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A18&amp;", now(), 1, now(), 1, 'val', "&amp;$B18&amp;", "&amp;$D18&amp;", '"&amp;$G18&amp;"', "&amp;$H18&amp;", "&amp;$K18&amp;", "&amp;L18&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (17, now(), 1, now(), 1, 'val', 5, 14, 'fac', 1, 1, null);</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="6">
@@ -7520,45 +7998,41 @@
       </c>
       <c r="F19" s="5" t="str">
         <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>multi</v>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f ca="1">IF($G19="reg",VLOOKUP(H19,地域属性グループ!$A:$E,5,FALSE),IF($G19="fac",VLOOKUP(H19,施設属性グループ!$A:$E,5,FALSE),IF($G19="facgrp",VLOOKUP(H19,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H19,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f ca="1">IF($G19="reg",VLOOKUP(H19,地域属性グループ!$A:$E,2,FALSE),IF($G19="fac",VLOOKUP(H19,施設属性グループ!$A:$E,2,FALSE),IF($G19="facgrp",VLOOKUP(H19,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H19,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="K19" s="7">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="str">
-        <f ca="1">IF($H19="reg",VLOOKUP(I19,地域属性グループ!$A:$E,5,FALSE),IF($H19="fac",VLOOKUP(I19,施設属性グループ!$A:$E,5,FALSE),IF($H19="facgrp",VLOOKUP(I19,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I19,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f ca="1">IF($H19="reg",VLOOKUP(I19,地域属性グループ!$A:$E,2,FALSE),IF($H19="fac",VLOOKUP(I19,施設属性グループ!$A:$E,2,FALSE),IF($H19="facgrp",VLOOKUP(I19,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I19,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="L19" s="7">
-        <v>2</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="5" t="str">
-        <f>IF(ISNUMBER(M19),VLOOKUP(M19,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M19" s="5" t="str">
+        <f>IF(ISNUMBER(L19),VLOOKUP(L19,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A19&amp;", now(), 1, now(), 1, 'val', "&amp;$B19&amp;", "&amp;$D19&amp;", '"&amp;$G19&amp;"', "&amp;$H19&amp;", "&amp;$K19&amp;", "&amp;L19&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (18, now(), 1, now(), 1, 'val', 5, 14, 'fac', 2, 2, null);</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="6">
@@ -7577,45 +8051,41 @@
       </c>
       <c r="F20" s="5" t="str">
         <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G20" s="5" t="str">
-        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>img</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="G20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="6">
         <v>3</v>
       </c>
+      <c r="I20" s="5" t="str">
+        <f ca="1">IF($G20="reg",VLOOKUP(H20,地域属性グループ!$A:$E,5,FALSE),IF($G20="fac",VLOOKUP(H20,施設属性グループ!$A:$E,5,FALSE),IF($G20="facgrp",VLOOKUP(H20,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H20,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
       <c r="J20" s="5" t="str">
-        <f ca="1">IF($H20="reg",VLOOKUP(I20,地域属性グループ!$A:$E,5,FALSE),IF($H20="fac",VLOOKUP(I20,施設属性グループ!$A:$E,5,FALSE),IF($H20="facgrp",VLOOKUP(I20,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I20,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f ca="1">IF($H20="reg",VLOOKUP(I20,地域属性グループ!$A:$E,2,FALSE),IF($H20="fac",VLOOKUP(I20,施設属性グループ!$A:$E,2,FALSE),IF($H20="facgrp",VLOOKUP(I20,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I20,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G20="reg",VLOOKUP(H20,地域属性グループ!$A:$E,2,FALSE),IF($G20="fac",VLOOKUP(H20,施設属性グループ!$A:$E,2,FALSE),IF($G20="facgrp",VLOOKUP(H20,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H20,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>imgp</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="5" t="str">
-        <f>IF(ISNUMBER(M20),VLOOKUP(M20,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M20" s="5" t="str">
+        <f>IF(ISNUMBER(L20),VLOOKUP(L20,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A20&amp;", now(), 1, now(), 1, 'val', "&amp;$B20&amp;", "&amp;$D20&amp;", '"&amp;$G20&amp;"', "&amp;$H20&amp;", "&amp;$K20&amp;", "&amp;L20&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (19, now(), 1, now(), 1, 'val', 6, 18, 'fac', 3, null, null);</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="6">
@@ -7634,45 +8104,41 @@
       </c>
       <c r="F21" s="5" t="str">
         <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>sin</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
         <v>txt</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
+      <c r="G21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f ca="1">IF($G21="reg",VLOOKUP(H21,地域属性グループ!$A:$E,5,FALSE),IF($G21="fac",VLOOKUP(H21,施設属性グループ!$A:$E,5,FALSE),IF($G21="facgrp",VLOOKUP(H21,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H21,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f ca="1">IF($H21="reg",VLOOKUP(I21,地域属性グループ!$A:$E,5,FALSE),IF($H21="fac",VLOOKUP(I21,施設属性グループ!$A:$E,5,FALSE),IF($H21="facgrp",VLOOKUP(I21,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I21,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f ca="1">IF($H21="reg",VLOOKUP(I21,地域属性グループ!$A:$E,2,FALSE),IF($H21="fac",VLOOKUP(I21,施設属性グループ!$A:$E,2,FALSE),IF($H21="facgrp",VLOOKUP(I21,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I21,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <f ca="1">IF($G21="reg",VLOOKUP(H21,地域属性グループ!$A:$E,2,FALSE),IF($G21="fac",VLOOKUP(H21,施設属性グループ!$A:$E,2,FALSE),IF($G21="facgrp",VLOOKUP(H21,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H21,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
+      <c r="K21" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="L21" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="5" t="str">
-        <f>IF(ISNUMBER(M21),VLOOKUP(M21,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M21" s="5" t="str">
+        <f>IF(ISNUMBER(L21),VLOOKUP(L21,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A21&amp;", now(), 1, now(), 1, 'val', "&amp;$B21&amp;", "&amp;$D21&amp;", '"&amp;$G21&amp;"', "&amp;$H21&amp;", "&amp;$K21&amp;", "&amp;L21&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (20, now(), 1, now(), 1, 'val', 6, 19, 'fac', 1, null, null);</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="6">
@@ -7691,45 +8157,41 @@
       </c>
       <c r="F22" s="5" t="str">
         <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>multi</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f ca="1">IF($G22="reg",VLOOKUP(H22,地域属性グループ!$A:$E,5,FALSE),IF($G22="fac",VLOOKUP(H22,施設属性グループ!$A:$E,5,FALSE),IF($G22="facgrp",VLOOKUP(H22,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H22,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f ca="1">IF($G22="reg",VLOOKUP(H22,地域属性グループ!$A:$E,2,FALSE),IF($G22="fac",VLOOKUP(H22,施設属性グループ!$A:$E,2,FALSE),IF($G22="facgrp",VLOOKUP(H22,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H22,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="str">
-        <f ca="1">IF($H22="reg",VLOOKUP(I22,地域属性グループ!$A:$E,5,FALSE),IF($H22="fac",VLOOKUP(I22,施設属性グループ!$A:$E,5,FALSE),IF($H22="facgrp",VLOOKUP(I22,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I22,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f ca="1">IF($H22="reg",VLOOKUP(I22,地域属性グループ!$A:$E,2,FALSE),IF($H22="fac",VLOOKUP(I22,施設属性グループ!$A:$E,2,FALSE),IF($H22="facgrp",VLOOKUP(I22,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I22,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="L22" s="7">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="5" t="str">
-        <f>IF(ISNUMBER(M22),VLOOKUP(M22,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="M22" s="5" t="str">
+        <f>IF(ISNUMBER(L22),VLOOKUP(L22,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A22&amp;", now(), 1, now(), 1, 'val', "&amp;$B22&amp;", "&amp;$D22&amp;", '"&amp;$G22&amp;"', "&amp;$H22&amp;", "&amp;$K22&amp;", "&amp;L22&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (21, now(), 1, now(), 1, 'val', 6, 20, 'fac', 1, 1, null);</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="6">
@@ -7748,39 +8210,35 @@
       </c>
       <c r="F23" s="5" t="str">
         <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>multi</v>
-      </c>
-      <c r="G23" s="5" t="str">
-        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f ca="1">IF($G23="reg",VLOOKUP(H23,地域属性グループ!$A:$E,5,FALSE),IF($G23="fac",VLOOKUP(H23,施設属性グループ!$A:$E,5,FALSE),IF($G23="facgrp",VLOOKUP(H23,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H23,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f ca="1">IF($G23="reg",VLOOKUP(H23,地域属性グループ!$A:$E,2,FALSE),IF($G23="fac",VLOOKUP(H23,施設属性グループ!$A:$E,2,FALSE),IF($G23="facgrp",VLOOKUP(H23,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H23,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
         <v>txt</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="K23" s="7">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="str">
-        <f ca="1">IF($H23="reg",VLOOKUP(I23,地域属性グループ!$A:$E,5,FALSE),IF($H23="fac",VLOOKUP(I23,施設属性グループ!$A:$E,5,FALSE),IF($H23="facgrp",VLOOKUP(I23,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(I23,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f ca="1">IF($H23="reg",VLOOKUP(I23,地域属性グループ!$A:$E,2,FALSE),IF($H23="fac",VLOOKUP(I23,施設属性グループ!$A:$E,2,FALSE),IF($H23="facgrp",VLOOKUP(I23,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(I23,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>IF(ISNUMBER(M23),VLOOKUP(M23,スクリーン!$A:$G,7,FALSE),"")</f>
+      <c r="L23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>IF(ISNUMBER(L23),VLOOKUP(L23,スクリーン!$A:$G,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="5" t="str">
+        <f>"insert into M_SCREEN_OBJ values ("&amp;A23&amp;", now(), 1, now(), 1, 'val', "&amp;$B23&amp;", "&amp;$D23&amp;", '"&amp;$G23&amp;"', "&amp;$H23&amp;", "&amp;$K23&amp;", "&amp;L23&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (22, now(), 1, now(), 1, 'val', 6, 20, 'fac', 2, 2, null);</v>
       </c>
     </row>
@@ -7790,7 +8248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7819,7 +8277,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -7835,7 +8293,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7890,7 +8348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7919,7 +8377,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -7935,7 +8393,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8013,7 +8471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -8023,7 +8481,7 @@
         <v/>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_REGION_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -8036,7 +8494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8066,7 +8524,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -8085,7 +8543,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8272,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -8286,7 +8744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8316,7 +8774,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
+        <v>レイアウト_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8335,7 +8793,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
+        <v>-- レイアウト（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8412,7 +8870,7 @@
         <v>空港有無</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8439,7 +8897,7 @@
         <v>画像</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ref="G5" si="2">"insert into M_REGION_ATTR_VAL values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;");"</f>
@@ -8466,7 +8924,7 @@
         <v>地域名</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G9" si="3">"insert into M_REGION_ATTR_VAL values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;");"</f>
@@ -8493,7 +8951,7 @@
         <v>説明文</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8520,7 +8978,7 @@
         <v>空港有無</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8547,7 +9005,7 @@
         <v>画像</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -8558,351 +9016,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>施設属性グループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- 施設属性グループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G6" si="0">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"');"</f>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '日光');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A13" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Nikko');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光の説明文</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '日光の説明文');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光の説明文</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Nikkos description');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光の空港有無</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (5, now(), 1, now(), 1, 'val', 3, 'common', 'has');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="str">
-        <f ca="1">VLOOKUP(B7,地域属性値!$A:$F,6,FALSE)</f>
-        <v>日光の画像</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11" t="str">
-        <f t="shared" ref="G7:G12" si="2">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", '"&amp;$D7&amp;"', '"&amp;$E7&amp;"');"</f>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (6, now(), 1, now(), 1, 'val', 4, 'common', 'img/nikko/image1.png');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <f>ROW()-1</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (7, now(), 1, now(), 1, 'val', 5, 'ja', '富士五湖');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (8, now(), 1, now(), 1, 'val', 5, 'en', 'Fuji Goko');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖の説明文</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (9, now(), 1, now(), 1, 'val', 6, 'ja', '富士五湖の説明文');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖の説明文</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (10, now(), 1, now(), 1, 'val', 6, 'en', 'Fuji Gokos description');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖の空港有無</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (11, now(), 1, now(), 1, 'val', 7, 'common', 'nohas');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,地域属性値!$A:$F,6,FALSE)</f>
-        <v>富士五湖の画像</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" ref="G13" si="3">"insert into M_REGION_ATTR_VAL_LANG values ("&amp;A13&amp;", now(), 1, now(), 1, 'val', "&amp;$B13&amp;", '"&amp;$D13&amp;"', '"&amp;$E13&amp;"');"</f>
-        <v>insert into M_REGION_ATTR_VAL_LANG values (12, now(), 1, now(), 1, 'val', 8, 'common', 'img/fujiGoko/image1.png');</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -4669,7 +4669,7 @@
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4714,8 +4714,8 @@
         <v>237</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f t="shared" ref="F2:F9" si="0">"insert into M_LAYOUT values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"');"</f>
-        <v>insert into M_LAYOUT values (1, now(), 1, now(), 1, 'val', 1, 'sin');</v>
+        <f t="shared" ref="F2:F9" si="0">"insert into M_LAYOUT_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"');"</f>
+        <v>insert into M_LAYOUT_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 'sin');</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (2, now(), 1, now(), 1, 'val', 2, 'sin');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 'sin');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (3, now(), 1, now(), 1, 'val', 3, 'sin');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 3, 'sin');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (4, now(), 1, now(), 1, 'val', 3, 'multi');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 'multi');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (5, now(), 1, now(), 1, 'val', 4, 'sin');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 'sin');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (6, now(), 1, now(), 1, 'val', 4, 'multi');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 4, 'multi');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (7, now(), 1, now(), 1, 'val', 5, 'sin');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 'sin');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT values (8, now(), 1, now(), 1, 'val', 6, 'sin');</v>
+        <v>insert into M_LAYOUT_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 'sin');</v>
       </c>
     </row>
   </sheetData>
@@ -6274,8 +6274,8 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;"', '"&amp;$D2&amp;"','"&amp;$E2&amp;"');"</f>
-        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1', 'トップ画像','img');</v>
+        <f t="shared" ref="G2:G21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"','"&amp;$E2&amp;"');"</f>
+        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1, 'トップ画像','img');</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -6299,7 +6299,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1', 'メニューボタン1','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1, 'メニューボタン1','button');</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -6323,7 +6323,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1', 'メニューボタン2','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1, 'メニューボタン2','button');</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -6347,7 +6347,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1', 'メニューボタン3','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1, 'メニューボタン3','button');</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -6371,7 +6371,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2', 'トップ画像','img');</v>
+        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2, 'トップ画像','img');</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -6395,7 +6395,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2', 'メニューボタン1','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2, 'メニューボタン1','button');</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -6419,7 +6419,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2', 'メニューボタン2','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2, 'メニューボタン2','button');</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -6443,7 +6443,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2', 'メニューボタン3','button');</v>
+        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2, 'メニューボタン3','button');</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -6467,7 +6467,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3', '親説明文','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3, '親説明文','txt');</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -6491,7 +6491,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 4', '説明画像','img');</v>
+        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 4, '説明画像','img');</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -6515,7 +6515,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 4', '説明文','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 4, '説明文','txt');</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -6539,7 +6539,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 5', '親説明文','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 5, '親説明文','txt');</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6563,7 +6563,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 6', '説明画像','img');</v>
+        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 6, '説明画像','img');</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -6587,7 +6587,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 6', '説明文','list');</v>
+        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 6, '説明文','list');</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -6611,7 +6611,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 7', '画像01','img');</v>
+        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 7, '画像01','img');</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -6635,7 +6635,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 7', '説明文（メイン）','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 7, '説明文（メイン）','txt');</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -6659,7 +6659,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 7', '説明文（補足）','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 7, '説明文（補足）','txt');</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -6683,7 +6683,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 8', '画像01','img');</v>
+        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 8, '画像01','img');</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -6707,7 +6707,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 8', '説明文（メイン）','txt');</v>
+        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 8, '説明文（メイン）','txt');</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -6731,7 +6731,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 8', '説明文（補足）','list');</v>
+        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 8, '説明文（補足）','list');</v>
       </c>
     </row>
   </sheetData>
@@ -7125,13 +7125,13 @@
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$G2&amp;"', "&amp;$H2&amp;", "&amp;$K2&amp;", "&amp;L2&amp;");"</f>
+        <f t="shared" ref="O2:O23" si="0">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$G2&amp;"', "&amp;$H2&amp;", "&amp;$K2&amp;", "&amp;L2&amp;");"</f>
         <v>insert into M_SCREEN_OBJ values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', 4, null, null);</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A23" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A23" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -7178,13 +7178,13 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", "&amp;$D3&amp;", '"&amp;$G3&amp;"', "&amp;$H3&amp;", "&amp;$K3&amp;", "&amp;L3&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (2, now(), 1, now(), 1, 'val', 1, 2, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -7231,13 +7231,13 @@
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A4&amp;", now(), 1, now(), 1, 'val', "&amp;$B4&amp;", "&amp;$D4&amp;", '"&amp;$G4&amp;"', "&amp;$H4&amp;", "&amp;$K4&amp;", "&amp;L4&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (3, now(), 1, now(), 1, 'val', 1, 3, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -7284,13 +7284,13 @@
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;", '"&amp;$G5&amp;"', "&amp;$H5&amp;", "&amp;$K5&amp;", "&amp;L5&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (4, now(), 1, now(), 1, 'val', 1, 4, 'reg', 1, null, 2);</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -7337,13 +7337,13 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;", '"&amp;$G6&amp;"', "&amp;$H6&amp;", "&amp;$K6&amp;", "&amp;L6&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (5, now(), 1, now(), 1, 'val', 2, 9, 'reg', 2, null, null);</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -7390,13 +7390,13 @@
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A7&amp;", now(), 1, now(), 1, 'val', "&amp;$B7&amp;", "&amp;$D7&amp;", '"&amp;$G7&amp;"', "&amp;$H7&amp;", "&amp;$K7&amp;", "&amp;L7&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (6, now(), 1, now(), 1, 'val', 2, 10, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="6">
@@ -7443,13 +7443,13 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", "&amp;$D8&amp;", '"&amp;$G8&amp;"', "&amp;$H8&amp;", "&amp;$K8&amp;", "&amp;L8&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (7, now(), 1, now(), 1, 'val', 2, 11, 'fac', 2, null, null);</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="6">
@@ -7496,13 +7496,13 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A9&amp;", now(), 1, now(), 1, 'val', "&amp;$B9&amp;", "&amp;$D9&amp;", '"&amp;$G9&amp;"', "&amp;$H9&amp;", "&amp;$K9&amp;", "&amp;L9&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (8, now(), 1, now(), 1, 'val', 3, 15, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="6">
@@ -7549,13 +7549,13 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A10&amp;", now(), 1, now(), 1, 'val', "&amp;$B10&amp;", "&amp;$D10&amp;", '"&amp;$G10&amp;"', "&amp;$H10&amp;", "&amp;$K10&amp;", "&amp;L10&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (9, now(), 1, now(), 1, 'val', 3, 16, 'fac', 1, null, null);</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="6">
@@ -7602,13 +7602,13 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A11&amp;", now(), 1, now(), 1, 'val', "&amp;$B11&amp;", "&amp;$D11&amp;", '"&amp;$G11&amp;"', "&amp;$H11&amp;", "&amp;$K11&amp;", "&amp;L11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (10, now(), 1, now(), 1, 'val', 3, 17, 'fac', 2, null, null);</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="6">
@@ -7655,13 +7655,13 @@
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A12&amp;", now(), 1, now(), 1, 'val', "&amp;$B12&amp;", "&amp;$D12&amp;", '"&amp;$G12&amp;"', "&amp;$H12&amp;", "&amp;$K12&amp;", "&amp;L12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (11, now(), 1, now(), 1, 'val', 4, 5, 'reg', 4, null, null);</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -7708,13 +7708,13 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A13&amp;", now(), 1, now(), 1, 'val', "&amp;$B13&amp;", "&amp;$D13&amp;", '"&amp;$G13&amp;"', "&amp;$H13&amp;", "&amp;$K13&amp;", "&amp;L13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (12, now(), 1, now(), 1, 'val', 4, 6, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="6">
@@ -7761,13 +7761,13 @@
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;", '"&amp;$G14&amp;"', "&amp;$H14&amp;", "&amp;$K14&amp;", "&amp;L14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (13, now(), 1, now(), 1, 'val', 4, 7, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="6">
@@ -7814,13 +7814,13 @@
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;", '"&amp;$G15&amp;"', "&amp;$H15&amp;", "&amp;$K15&amp;", "&amp;L15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (14, now(), 1, now(), 1, 'val', 4, 8, 'reg', 1, null, 4);</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="6">
@@ -7867,13 +7867,13 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A16&amp;", now(), 1, now(), 1, 'val', "&amp;$B16&amp;", "&amp;$D16&amp;", '"&amp;$G16&amp;"', "&amp;$H16&amp;", "&amp;$K16&amp;", "&amp;L16&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (15, now(), 1, now(), 1, 'val', 5, 12, 'reg', 2, null, null);</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="6">
@@ -7920,13 +7920,13 @@
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A17&amp;", now(), 1, now(), 1, 'val', "&amp;$B17&amp;", "&amp;$D17&amp;", '"&amp;$G17&amp;"', "&amp;$H17&amp;", "&amp;$K17&amp;", "&amp;L17&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (16, now(), 1, now(), 1, 'val', 5, 13, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="6">
@@ -7973,13 +7973,13 @@
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A18&amp;", now(), 1, now(), 1, 'val', "&amp;$B18&amp;", "&amp;$D18&amp;", '"&amp;$G18&amp;"', "&amp;$H18&amp;", "&amp;$K18&amp;", "&amp;L18&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (17, now(), 1, now(), 1, 'val', 5, 14, 'fac', 1, 1, null);</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="6">
@@ -8026,13 +8026,13 @@
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A19&amp;", now(), 1, now(), 1, 'val', "&amp;$B19&amp;", "&amp;$D19&amp;", '"&amp;$G19&amp;"', "&amp;$H19&amp;", "&amp;$K19&amp;", "&amp;L19&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (18, now(), 1, now(), 1, 'val', 5, 14, 'fac', 2, 2, null);</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="6">
@@ -8079,13 +8079,13 @@
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A20&amp;", now(), 1, now(), 1, 'val', "&amp;$B20&amp;", "&amp;$D20&amp;", '"&amp;$G20&amp;"', "&amp;$H20&amp;", "&amp;$K20&amp;", "&amp;L20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (19, now(), 1, now(), 1, 'val', 6, 18, 'fac', 3, null, null);</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="6">
@@ -8132,13 +8132,13 @@
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A21&amp;", now(), 1, now(), 1, 'val', "&amp;$B21&amp;", "&amp;$D21&amp;", '"&amp;$G21&amp;"', "&amp;$H21&amp;", "&amp;$K21&amp;", "&amp;L21&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (20, now(), 1, now(), 1, 'val', 6, 19, 'fac', 1, null, null);</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="6">
@@ -8185,13 +8185,13 @@
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A22&amp;", now(), 1, now(), 1, 'val', "&amp;$B22&amp;", "&amp;$D22&amp;", '"&amp;$G22&amp;"', "&amp;$H22&amp;", "&amp;$K22&amp;", "&amp;L22&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (21, now(), 1, now(), 1, 'val', 6, 20, 'fac', 1, 1, null);</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="6">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="5" t="str">
-        <f>"insert into M_SCREEN_OBJ values ("&amp;A23&amp;", now(), 1, now(), 1, 'val', "&amp;$B23&amp;", "&amp;$D23&amp;", '"&amp;$G23&amp;"', "&amp;$H23&amp;", "&amp;$K23&amp;", "&amp;L23&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>insert into M_SCREEN_OBJ values (22, now(), 1, now(), 1, 'val', 6, 20, 'fac', 2, 2, null);</v>
       </c>
     </row>

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="269">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1505,6 +1505,87 @@
     <rPh sb="9" eb="10">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトエイリアス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MainGrp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ListGrp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトエイリアス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TopImg</t>
+  </si>
+  <si>
+    <t>TopImg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MenuBtn01</t>
+  </si>
+  <si>
+    <t>MenuBtn01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MenuBtn02</t>
+  </si>
+  <si>
+    <t>MenuBtn02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MenuBtn03</t>
+  </si>
+  <si>
+    <t>MenuBtn03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PntDscp</t>
+  </si>
+  <si>
+    <t>PntDscp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DscpImg</t>
+  </si>
+  <si>
+    <t>DscpImg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dsc</t>
+  </si>
+  <si>
+    <t>Dsc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Img01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MainDscp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SubDscp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ListGrp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1999,7 +2080,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>225</v>
@@ -2015,7 +2096,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2174,7 +2255,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -2193,7 +2274,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2520,7 +2601,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2536,7 +2617,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2666,7 +2747,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2682,7 +2763,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2813,7 +2894,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2832,7 +2913,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3063,7 +3144,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -3082,7 +3163,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3499,7 +3580,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -3518,7 +3599,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4156,7 +4237,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4172,7 +4253,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4256,7 +4337,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -4272,7 +4353,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4357,7 +4438,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -4376,7 +4457,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4511,7 +4592,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -4530,7 +4611,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4652,7 +4733,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4667,16 +4748,17 @@
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>233</v>
@@ -4685,17 +4767,20 @@
         <v>133</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="str">
+      <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -4708,17 +4793,20 @@
         <v>メニュー001</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="5" t="str">
-        <f t="shared" ref="F2:F9" si="0">"insert into M_LAYOUT_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"');"</f>
-        <v>insert into M_LAYOUT_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 'sin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into M_LAYOUT_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"');"</f>
+        <v>insert into M_LAYOUT_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 'MainGrp', 'sin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
         <v>2</v>
@@ -4731,17 +4819,20 @@
         <v>メニュー002</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 'sin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 'MainGrp', 'sin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4754,17 +4845,20 @@
         <v>一覧001</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 3, 'sin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 3, 'MainGrp', 'sin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4777,17 +4871,20 @@
         <v>一覧001</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 'multi');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 'ListGrp', 'multi');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4800,17 +4897,20 @@
         <v>一覧002</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 'sin');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 'MainGrp', 'sin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4823,17 +4923,20 @@
         <v>一覧002</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 4, 'multi');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 4, 'ListGrp', 'multi');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4846,17 +4949,20 @@
         <v>詳細001</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 'sin');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 'MainGrp', 'sin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4869,14 +4975,17 @@
         <v>詳細002</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 'sin');</v>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 'MainGrp', 'sin');</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +5024,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -4934,7 +5043,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5165,7 +5274,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5184,7 +5293,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5334,7 +5443,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5350,7 +5459,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5412,7 +5521,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5431,7 +5540,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5518,7 +5627,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5537,7 +5646,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5684,7 +5793,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5703,7 +5812,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6207,7 +6316,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6221,18 +6330,19 @@
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>236</v>
@@ -6241,20 +6351,23 @@
         <v>246</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="str">
+      <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -6263,22 +6376,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f ca="1">VLOOKUP(B2,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B2,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"','"&amp;$E2&amp;"');"</f>
-        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1, 'トップ画像','img');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="str">
+        <f t="shared" ref="H2:H21" si="0">"insert into M_LAYOUT_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"','"&amp;$F2&amp;"');"</f>
+        <v>insert into M_LAYOUT_OBJ values (1, now(), 1, now(), 1, 'val', 1, 'TopImg', 'トップ画像','img');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="1">ROW()-1</f>
         <v>2</v>
@@ -6287,22 +6403,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B3,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1, 'メニューボタン1','button');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (2, now(), 1, now(), 1, 'val', 1, 'MenuBtn01', 'メニューボタン1','button');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6311,22 +6430,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B4,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1, 'メニューボタン2','button');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (3, now(), 1, now(), 1, 'val', 1, 'MenuBtn02', 'メニューボタン2','button');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6335,22 +6457,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B5,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1, 'メニューボタン3','button');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (4, now(), 1, now(), 1, 'val', 1, 'MenuBtn03', 'メニューボタン3','button');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6359,22 +6484,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B6,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2, 'トップ画像','img');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (5, now(), 1, now(), 1, 'val', 2, 'TopImg', 'トップ画像','img');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6383,22 +6511,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B7,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2, 'メニューボタン1','button');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (6, now(), 1, now(), 1, 'val', 2, 'MenuBtn01', 'メニューボタン1','button');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6407,22 +6538,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B8,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2, 'メニューボタン2','button');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (7, now(), 1, now(), 1, 'val', 2, 'MenuBtn02', 'メニューボタン2','button');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6431,22 +6565,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B9,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2, 'メニューボタン3','button');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (8, now(), 1, now(), 1, 'val', 2, 'MenuBtn03', 'メニューボタン3','button');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6455,22 +6592,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧001のグループ</v>
+        <f ca="1">VLOOKUP(B10,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3, '親説明文','txt');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (9, now(), 1, now(), 1, 'val', 3, 'PntDscp', '親説明文','txt');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6479,22 +6619,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧001のリストグループ</v>
+        <f ca="1">VLOOKUP(B11,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>multi</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 4, '説明画像','img');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (10, now(), 1, now(), 1, 'val', 4, 'DscpImg', '説明画像','img');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6503,22 +6646,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧001のリストグループ</v>
+        <f ca="1">VLOOKUP(B12,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>multi</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 4, '説明文','txt');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (11, now(), 1, now(), 1, 'val', 4, 'Dsc', '説明文','txt');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6527,22 +6673,25 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧002のグループ</v>
+        <f ca="1">VLOOKUP(B13,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 5, '親説明文','txt');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (12, now(), 1, now(), 1, 'val', 5, 'PntDscp', '親説明文','txt');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6551,22 +6700,25 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧002のリストグループ</v>
+        <f ca="1">VLOOKUP(B14,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>multi</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 6, '説明画像','img');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="7"/>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (13, now(), 1, now(), 1, 'val', 6, 'DscpImg', '説明画像','img');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6575,22 +6727,25 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>一覧002のリストグループ</v>
+        <f ca="1">VLOOKUP(B15,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>multi</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 6, '説明文','list');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="7"/>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (14, now(), 1, now(), 1, 'val', 6, 'Dsc', '説明文','list');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6599,22 +6754,25 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B16,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 7, '画像01','img');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="7"/>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (15, now(), 1, now(), 1, 'val', 7, 'Img01', '画像01','img');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6623,22 +6781,25 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B17,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 7, '説明文（メイン）','txt');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G17" s="7"/>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (16, now(), 1, now(), 1, 'val', 7, 'MainDscp', '説明文（メイン）','txt');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6647,22 +6808,25 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f ca="1">VLOOKUP(B18,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B18,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 7, '説明文（補足）','txt');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="7"/>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (17, now(), 1, now(), 1, 'val', 7, 'SubDscp', '説明文（補足）','txt');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6671,22 +6835,25 @@
         <v>8</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f ca="1">VLOOKUP(B19,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B19,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 8, '画像01','img');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G19" s="7"/>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (18, now(), 1, now(), 1, 'val', 8, 'Img01', '画像01','img');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6695,22 +6862,25 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f ca="1">VLOOKUP(B20,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B20,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 8, '説明文（メイン）','txt');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="7"/>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (19, now(), 1, now(), 1, 'val', 8, 'MainDscp', '説明文（メイン）','txt');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6719,19 +6889,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f ca="1">VLOOKUP(B21,レイアウトオブジェクトグループ!$A:$E,5,FALSE)</f>
-        <v>詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B21,レイアウトオブジェクトグループ!$A:$F,5,FALSE)</f>
+        <v>sin</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 8, '説明文（補足）','list');</v>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_LAYOUT_OBJ values (20, now(), 1, now(), 1, 'val', 8, 'SubDscp', '説明文（補足）','list');</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +6945,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6797,7 +6970,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7030,7 +7203,7 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>177</v>
@@ -7073,7 +7246,7 @@
       </c>
       <c r="O1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -7092,12 +7265,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>TopImg</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>トップ画像</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>172</v>
@@ -7145,12 +7318,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn01</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン1</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>172</v>
@@ -7198,12 +7371,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn02</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン2</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>172</v>
@@ -7251,12 +7424,12 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn03</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン3</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>172</v>
@@ -7304,12 +7477,12 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>PntDscp</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>親説明文</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>172</v>
@@ -7357,12 +7530,12 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>DscpImg</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明画像</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>173</v>
@@ -7410,12 +7583,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>Dsc</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>173</v>
@@ -7463,12 +7636,12 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>Img01</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>画像01</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>173</v>
@@ -7516,12 +7689,12 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MainDscp</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文（メイン）</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>173</v>
@@ -7569,12 +7742,12 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>SubDscp</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文（補足）</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>173</v>
@@ -7622,12 +7795,12 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>TopImg</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>トップ画像</v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>172</v>
@@ -7675,12 +7848,12 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn01</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン1</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>172</v>
@@ -7728,12 +7901,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn02</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン2</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>172</v>
@@ -7781,12 +7954,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MenuBtn03</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>メニューボタン3</v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>button</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>172</v>
@@ -7834,12 +8007,12 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>PntDscp</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>親説明文</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>172</v>
@@ -7887,12 +8060,12 @@
         <v>13</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>DscpImg</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明画像</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>173</v>
@@ -7940,12 +8113,12 @@
         <v>14</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>Dsc</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>list</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>173</v>
@@ -7993,12 +8166,12 @@
         <v>14</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>Dsc</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>list</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>173</v>
@@ -8046,12 +8219,12 @@
         <v>18</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>Img01</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>画像01</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>img</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>173</v>
@@ -8099,12 +8272,12 @@
         <v>19</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>MainDscp</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文（メイン）</v>
-      </c>
-      <c r="F21" s="5" t="str">
-        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>txt</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>173</v>
@@ -8152,12 +8325,12 @@
         <v>20</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>SubDscp</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文（補足）</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>list</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>173</v>
@@ -8205,12 +8378,12 @@
         <v>20</v>
       </c>
       <c r="E23" s="5" t="str">
-        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$D,4,FALSE)</f>
+        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
+        <v>SubDscp</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
         <v>説明文（補足）</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
-        <v>list</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>173</v>
@@ -8277,7 +8450,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -8293,7 +8466,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8377,7 +8550,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -8393,7 +8566,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8524,7 +8697,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -8543,7 +8716,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8774,7 +8947,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウト_ID</v>
+        <v>レイアウトオブジェクトグループ_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8793,7 +8966,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウト（insert文）</v>
+        <v>-- レイアウトオブジェクトグループ（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -9,35 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="639"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="23" r:id="rId1"/>
     <sheet name="レイアウトオブジェクトグループ" sheetId="27" r:id="rId2"/>
     <sheet name="レイアウトオブジェクト" sheetId="24" r:id="rId3"/>
     <sheet name="スクリーン" sheetId="25" r:id="rId4"/>
-    <sheet name="スクリーンオブジェクト" sheetId="26" r:id="rId5"/>
-    <sheet name="地域" sheetId="1" r:id="rId6"/>
-    <sheet name="地域属性グループ" sheetId="2" r:id="rId7"/>
-    <sheet name="地域属性グループ_多言語" sheetId="4" r:id="rId8"/>
-    <sheet name="地域属性値" sheetId="5" r:id="rId9"/>
-    <sheet name="地域属性値_多言語" sheetId="6" r:id="rId10"/>
-    <sheet name="施設" sheetId="7" r:id="rId11"/>
-    <sheet name="施設属性グループ" sheetId="8" r:id="rId12"/>
-    <sheet name="施設属性グループ_多言語" sheetId="9" r:id="rId13"/>
-    <sheet name="施設属性値" sheetId="10" r:id="rId14"/>
-    <sheet name="施設属性値_多言語" sheetId="11" r:id="rId15"/>
-    <sheet name="施設グループ" sheetId="12" r:id="rId16"/>
-    <sheet name="施設グループ属性グループ" sheetId="13" r:id="rId17"/>
-    <sheet name="施設グループ属性グループ_多言語" sheetId="14" r:id="rId18"/>
-    <sheet name="施設グループ属性値" sheetId="15" r:id="rId19"/>
-    <sheet name="施設グループ属性値_多言語" sheetId="16" r:id="rId20"/>
-    <sheet name="施設_施設グループ_リンク" sheetId="17" r:id="rId21"/>
-    <sheet name="施設_施設グループリンク属性グループ" sheetId="18" r:id="rId22"/>
-    <sheet name="施設_施設グループリンク属性グループ_多言語" sheetId="19" r:id="rId23"/>
-    <sheet name="施設_施設グループリンク属性値" sheetId="20" r:id="rId24"/>
-    <sheet name="施設_施設グループリンク属性値_多言語" sheetId="21" r:id="rId25"/>
-    <sheet name="Code" sheetId="3" r:id="rId26"/>
+    <sheet name="スクリーンオブジェクトグループ" sheetId="28" r:id="rId5"/>
+    <sheet name="スクリーンオブジェクト" sheetId="26" r:id="rId6"/>
+    <sheet name="スクリーンオブジェクト属性" sheetId="29" r:id="rId7"/>
+    <sheet name="地域" sheetId="1" r:id="rId8"/>
+    <sheet name="地域属性グループ" sheetId="2" r:id="rId9"/>
+    <sheet name="地域属性グループ_多言語" sheetId="4" r:id="rId10"/>
+    <sheet name="地域属性値" sheetId="5" r:id="rId11"/>
+    <sheet name="地域属性値_多言語" sheetId="6" r:id="rId12"/>
+    <sheet name="施設" sheetId="7" r:id="rId13"/>
+    <sheet name="施設属性グループ" sheetId="8" r:id="rId14"/>
+    <sheet name="施設属性グループ_多言語" sheetId="9" r:id="rId15"/>
+    <sheet name="施設属性値" sheetId="10" r:id="rId16"/>
+    <sheet name="施設属性値_多言語" sheetId="11" r:id="rId17"/>
+    <sheet name="施設グループ" sheetId="12" r:id="rId18"/>
+    <sheet name="施設グループ属性グループ" sheetId="13" r:id="rId19"/>
+    <sheet name="施設グループ属性グループ_多言語" sheetId="14" r:id="rId20"/>
+    <sheet name="施設グループ属性値" sheetId="15" r:id="rId21"/>
+    <sheet name="施設グループ属性値_多言語" sheetId="16" r:id="rId22"/>
+    <sheet name="施設_施設グループ_リンク" sheetId="17" r:id="rId23"/>
+    <sheet name="施設_施設グループリンク属性グループ" sheetId="18" r:id="rId24"/>
+    <sheet name="施設_施設グループリンク属性グループ_多言語" sheetId="19" r:id="rId25"/>
+    <sheet name="施設_施設グループリンク属性値" sheetId="20" r:id="rId26"/>
+    <sheet name="施設_施設グループリンク属性値_多言語" sheetId="21" r:id="rId27"/>
+    <sheet name="Code" sheetId="3" r:id="rId28"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="270">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1153,10 +1155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スクリーンID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スクリーン名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -1312,30 +1310,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cd</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1586,6 +1560,47 @@
   </si>
   <si>
     <t>ListGrp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーンID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトオブジェクトグループ名</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーングループID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーングループ名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクトID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーンオブジェクト名</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2080,10 +2095,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>34</v>
@@ -2096,7 +2111,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2105,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>161</v>
@@ -2125,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>161</v>
@@ -2145,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>162</v>
@@ -2165,10 +2180,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>162</v>
@@ -2185,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>163</v>
@@ -2205,10 +2220,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>163</v>
@@ -2226,6 +2241,530 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">VLOOKUP(B2,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>地域名</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into M_REGION_ATTR_GRP_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;E2&amp;"');"</f>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '地域名');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>地域名</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Region Name');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '説明文');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Description');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>空港有無</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (5, now(), 1, now(), 1, 'val', 3, 'ja', '空港有無');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>空港有無</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (6, now(), 1, now(), 1, 'val', 3, 'en', 'Has Airport');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>画像</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" ref="G8:G9" si="2">"insert into M_REGION_ATTR_GRP_LANG values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", '"&amp;$D8&amp;"', '"&amp;E8&amp;"');"</f>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (7, now(), 1, now(), 1, 'val', 4, 'ja', '画像1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>画像</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into M_REGION_ATTR_GRP_LANG values (8, now(), 1, now(), 1, 'val', 4, 'en', 'Image1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">VLOOKUP(B2,地域!$A:$E,5,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f ca="1">VLOOKUP(D2,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>地域名</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G4" si="0">"insert into M_REGION_ATTR_VAL values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
+        <v>insert into M_REGION_ATTR_VAL values (1, now(), 1, now(), 1, 'val', 1, 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,地域!$A:$E,5,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL values (2, now(), 1, now(), 1, 'val', 1, 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,地域!$A:$E,5,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>空港有無</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_REGION_ATTR_VAL values (3, now(), 1, now(), 1, 'val', 1, 3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,地域!$A:$E,5,FALSE)</f>
+        <v>日光</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>画像</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5" si="2">"insert into M_REGION_ATTR_VAL values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;");"</f>
+        <v>insert into M_REGION_ATTR_VAL values (4, now(), 1, now(), 1, 'val', 1, 4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,地域!$A:$E,5,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f ca="1">VLOOKUP(D6,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>地域名</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G9" si="3">"insert into M_REGION_ATTR_VAL values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;");"</f>
+        <v>insert into M_REGION_ATTR_VAL values (5, now(), 1, now(), 1, 'val', 2, 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,地域!$A:$E,5,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f ca="1">VLOOKUP(D7,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into M_REGION_ATTR_VAL values (6, now(), 1, now(), 1, 'val', 2, 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,地域!$A:$E,5,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f ca="1">VLOOKUP(D8,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>空港有無</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into M_REGION_ATTR_VAL values (7, now(), 1, now(), 1, 'val', 2, 3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,地域!$A:$E,5,FALSE)</f>
+        <v>富士五湖</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f ca="1">VLOOKUP(D9,地域属性グループ!$A:$E,5,FALSE)</f>
+        <v>画像</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into M_REGION_ATTR_VAL values (8, now(), 1, now(), 1, 'val', 2, 4);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2255,7 +2794,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -2274,7 +2813,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2413,7 +2952,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="str">
@@ -2461,7 +3000,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -2485,7 +3024,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="str">
@@ -2509,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="str">
@@ -2533,7 +3072,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="str">
@@ -2557,7 +3096,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="str">
@@ -2572,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2601,7 +3140,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2617,7 +3156,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2718,7 +3257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2747,7 +3286,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -2763,7 +3302,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2818,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2841,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -2851,7 +3390,7 @@
         <v>施設種別</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_FACILITY_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -2864,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2894,7 +3433,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -2913,7 +3452,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3076,7 +3615,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
@@ -3100,7 +3639,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -3114,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3144,7 +3683,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -3163,7 +3702,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3510,7 +4049,7 @@
         <v>施設種別</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
@@ -3537,7 +4076,7 @@
         <v>施設種別</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ref="G15" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
@@ -3550,7 +4089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3580,7 +4119,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -3599,7 +4138,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4167,10 +4706,10 @@
         <v>道の駅　富士吉田の施設種別</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="5" t="str">
@@ -4194,7 +4733,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5" t="str">
@@ -4208,7 +4747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4237,7 +4776,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4253,7 +4792,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4308,7 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4337,7 +4876,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -4353,7 +4892,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4400,326 +4939,6 @@
       <c r="F3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>insert into M_FACILITY_GRP_ATTR_GRP values (2, now(), 1, now(), 1, 'val', 'txt', null);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ名</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G5" si="0">"insert into M_FACILITY_GRP_ATTR_GRP_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;E2&amp;"');"</f>
-        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '名称');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ名</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Name');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ説明文</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '説明文');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ説明文</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Description');</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,施設グループ!$A:$E,5,FALSE)</f>
-        <v>日光の施設グループ</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f ca="1">VLOOKUP(D2,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ名</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G5" si="0">"insert into M_FACILITY_GRP_ATTR_VAL values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
-        <v>insert into M_FACILITY_GRP_ATTR_VAL values (1, now(), 1, now(), 1, 'val', 1, 1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,施設グループ!$A:$E,5,FALSE)</f>
-        <v>日光の施設グループ</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ説明文</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_VAL values (2, now(), 1, now(), 1, 'val', 1, 2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,施設グループ!$A:$E,5,FALSE)</f>
-        <v>富士五湖の施設グループ</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ名</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_VAL values (3, now(), 1, now(), 1, 'val', 2, 1);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,施設グループ!$A:$E,5,FALSE)</f>
-        <v>富士五湖の施設グループ</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,施設グループ属性グループ!$A:$E,5,FALSE)</f>
-        <v>施設グループ説明文</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_FACILITY_GRP_ATTR_VAL values (4, now(), 1, now(), 1, 'val', 2, 2);</v>
       </c>
     </row>
   </sheetData>
@@ -4758,16 +4977,16 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>164</v>
@@ -4777,7 +4996,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4793,13 +5012,13 @@
         <v>メニュー001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" ref="G2:G9" si="0">"insert into M_LAYOUT_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"');"</f>
@@ -4819,13 +5038,13 @@
         <v>メニュー002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4845,13 +5064,13 @@
         <v>一覧001</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4871,13 +5090,13 @@
         <v>一覧001</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4897,13 +5116,13 @@
         <v>一覧002</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4923,13 +5142,13 @@
         <v>一覧002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4949,13 +5168,13 @@
         <v>詳細001</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4975,13 +5194,13 @@
         <v>詳細002</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4995,6 +5214,326 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">VLOOKUP(B2,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ名</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G5" si="0">"insert into M_FACILITY_GRP_ATTR_GRP_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;E2&amp;"');"</f>
+        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '名称');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ名</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Name');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ説明文</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '説明文');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ説明文</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_GRP_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Description');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">VLOOKUP(B2,施設グループ!$A:$E,5,FALSE)</f>
+        <v>日光の施設グループ</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f ca="1">VLOOKUP(D2,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ名</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G5" si="0">"insert into M_FACILITY_GRP_ATTR_VAL values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
+        <v>insert into M_FACILITY_GRP_ATTR_VAL values (1, now(), 1, now(), 1, 'val', 1, 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A5" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,施設グループ!$A:$E,5,FALSE)</f>
+        <v>日光の施設グループ</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ説明文</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_VAL values (2, now(), 1, now(), 1, 'val', 1, 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,施設グループ!$A:$E,5,FALSE)</f>
+        <v>富士五湖の施設グループ</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ名</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_VAL values (3, now(), 1, now(), 1, 'val', 2, 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,施設グループ!$A:$E,5,FALSE)</f>
+        <v>富士五湖の施設グループ</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,施設グループ属性グループ!$A:$E,5,FALSE)</f>
+        <v>施設グループ説明文</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_FACILITY_GRP_ATTR_VAL values (4, now(), 1, now(), 1, 'val', 2, 2);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -5024,7 +5563,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -5043,7 +5582,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5244,7 +5783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5274,7 +5813,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5293,7 +5832,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5414,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5443,7 +5982,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5459,7 +5998,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -5491,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5521,7 +6060,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -5540,7 +6079,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5597,7 +6136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5627,7 +6166,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -5646,7 +6185,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5763,7 +6302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5793,7 +6332,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -5812,7 +6351,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6017,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -6258,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6284,10 +6823,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6342,16 +6881,16 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>134</v>
@@ -6364,7 +6903,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6380,7 +6919,7 @@
         <v>sin</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>135</v>
@@ -6407,7 +6946,7 @@
         <v>sin</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>137</v>
@@ -6434,7 +6973,7 @@
         <v>sin</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>139</v>
@@ -6461,7 +7000,7 @@
         <v>sin</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>141</v>
@@ -6488,7 +7027,7 @@
         <v>sin</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>135</v>
@@ -6515,7 +7054,7 @@
         <v>sin</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
@@ -6542,7 +7081,7 @@
         <v>sin</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>138</v>
@@ -6569,7 +7108,7 @@
         <v>sin</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>140</v>
@@ -6596,7 +7135,7 @@
         <v>sin</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>142</v>
@@ -6623,7 +7162,7 @@
         <v>multi</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>143</v>
@@ -6650,7 +7189,7 @@
         <v>multi</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>144</v>
@@ -6677,7 +7216,7 @@
         <v>sin</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>142</v>
@@ -6704,7 +7243,7 @@
         <v>multi</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>143</v>
@@ -6731,13 +7270,13 @@
         <v>multi</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="5" t="str">
@@ -6758,7 +7297,7 @@
         <v>sin</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>145</v>
@@ -6785,7 +7324,7 @@
         <v>sin</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>146</v>
@@ -6812,7 +7351,7 @@
         <v>sin</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>147</v>
@@ -6839,7 +7378,7 @@
         <v>sin</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>145</v>
@@ -6866,7 +7405,7 @@
         <v>sin</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>146</v>
@@ -6893,13 +7432,13 @@
         <v>sin</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="5" t="str">
@@ -6945,7 +7484,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6970,7 +7509,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7170,7 +7709,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7185,71 +7724,43 @@
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="63.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="8" t="str">
+      <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -7265,1154 +7776,236 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>TopImg</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>トップ画像</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="6">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f ca="1">IF($G2="reg",VLOOKUP(H2,地域属性グループ!$A:$E,5,FALSE),IF($G2="fac",VLOOKUP(H2,施設属性グループ!$A:$E,5,FALSE),IF($G2="facgrp",VLOOKUP(H2,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H2,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f ca="1">IF($G2="reg",VLOOKUP(H2,地域属性グループ!$A:$E,2,FALSE),IF($G2="fac",VLOOKUP(H2,施設属性グループ!$A:$E,2,FALSE),IF($G2="facgrp",VLOOKUP(H2,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H2,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="str">
-        <f>IF(ISNUMBER(L2),VLOOKUP(L2,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5" t="str">
-        <f t="shared" ref="O2:O23" si="0">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$G2&amp;"', "&amp;$H2&amp;", "&amp;$K2&amp;", "&amp;L2&amp;");"</f>
-        <v>insert into M_SCREEN_OBJ values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', 4, null, null);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <f ca="1">VLOOKUP(D2,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>メニュー001のグループ</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f t="shared" ref="G2:G9" ca="1" si="0">C2&amp;"・"&amp;E2</f>
+        <v>日光メニュー・メニュー001のグループ</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f t="shared" ref="H2:H9" si="1">"insert into M_SCREEN_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", "&amp;$F2&amp;");"</f>
+        <v>insert into M_SCREEN_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 1, null);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A23" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A9" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1">VLOOKUP(B3,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光メニュー</v>
+        <v>日光施設一覧</v>
       </c>
       <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>一覧001のグループ</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設一覧・一覧001のグループ</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 3, null);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
         <v>2</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn01</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f ca="1">IF($G3="reg",VLOOKUP(H3,地域属性グループ!$A:$E,5,FALSE),IF($G3="fac",VLOOKUP(H3,施設属性グループ!$A:$E,5,FALSE),IF($G3="facgrp",VLOOKUP(H3,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H3,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f ca="1">IF($G3="reg",VLOOKUP(H3,地域属性グループ!$A:$E,2,FALSE),IF($G3="fac",VLOOKUP(H3,施設属性グループ!$A:$E,2,FALSE),IF($G3="facgrp",VLOOKUP(H3,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H3,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="7">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L3),VLOOKUP(L3,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>日光施設一覧</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (2, now(), 1, now(), 1, 'val', 1, 2, 'reg', 1, null, 2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
         <f ca="1">VLOOKUP(B4,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光メニュー</v>
+        <v>日光施設一覧</v>
       </c>
       <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>一覧001のリストグループ</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設一覧・一覧001のリストグループ</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 2, 4, null);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
         <v>3</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn02</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f ca="1">IF($G4="reg",VLOOKUP(H4,地域属性グループ!$A:$E,5,FALSE),IF($G4="fac",VLOOKUP(H4,施設属性グループ!$A:$E,5,FALSE),IF($G4="facgrp",VLOOKUP(H4,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H4,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f ca="1">IF($G4="reg",VLOOKUP(H4,地域属性グループ!$A:$E,2,FALSE),IF($G4="fac",VLOOKUP(H4,施設属性グループ!$A:$E,2,FALSE),IF($G4="facgrp",VLOOKUP(H4,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H4,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L4),VLOOKUP(L4,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>日光施設一覧</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (3, now(), 1, now(), 1, 'val', 1, 3, 'reg', 1, null, 2);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
       </c>
       <c r="C5" s="5" t="str">
         <f ca="1">VLOOKUP(B5,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光メニュー</v>
+        <v>日光施設詳細</v>
       </c>
       <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>詳細001のグループ</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設詳細・詳細001のグループ</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 7, null);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>4</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn03</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン3</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f ca="1">IF($G5="reg",VLOOKUP(H5,地域属性グループ!$A:$E,5,FALSE),IF($G5="fac",VLOOKUP(H5,施設属性グループ!$A:$E,5,FALSE),IF($G5="facgrp",VLOOKUP(H5,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H5,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f ca="1">IF($G5="reg",VLOOKUP(H5,地域属性グループ!$A:$E,2,FALSE),IF($G5="fac",VLOOKUP(H5,施設属性グループ!$A:$E,2,FALSE),IF($G5="facgrp",VLOOKUP(H5,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H5,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L5),VLOOKUP(L5,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>日光施設一覧</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (4, now(), 1, now(), 1, 'val', 1, 4, 'reg', 1, null, 2);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
         <f ca="1">VLOOKUP(B6,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧</v>
+        <v>富士五湖メニュー</v>
       </c>
       <c r="D6" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>PntDscp</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>親説明文</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f ca="1">IF($G6="reg",VLOOKUP(H6,地域属性グループ!$A:$E,5,FALSE),IF($G6="fac",VLOOKUP(H6,施設属性グループ!$A:$E,5,FALSE),IF($G6="facgrp",VLOOKUP(H6,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H6,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>説明文</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f ca="1">IF($G6="reg",VLOOKUP(H6,地域属性グループ!$A:$E,2,FALSE),IF($G6="fac",VLOOKUP(H6,施設属性グループ!$A:$E,2,FALSE),IF($G6="facgrp",VLOOKUP(H6,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H6,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
+        <f ca="1">VLOOKUP(D6,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>メニュー002のグループ</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="5" t="str">
-        <f>IF(ISNUMBER(L6),VLOOKUP(L6,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (5, now(), 1, now(), 1, 'val', 2, 9, 'reg', 2, null, null);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖メニュー・メニュー002のグループ</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 2, null);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="str">
         <f ca="1">VLOOKUP(B7,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧</v>
+        <v>富士五湖施設一覧</v>
       </c>
       <c r="D7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>DscpImg</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明画像</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f ca="1">IF($G7="reg",VLOOKUP(H7,地域属性グループ!$A:$E,5,FALSE),IF($G7="fac",VLOOKUP(H7,施設属性グループ!$A:$E,5,FALSE),IF($G7="facgrp",VLOOKUP(H7,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H7,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f ca="1">IF($G7="reg",VLOOKUP(H7,地域属性グループ!$A:$E,2,FALSE),IF($G7="fac",VLOOKUP(H7,施設属性グループ!$A:$E,2,FALSE),IF($G7="facgrp",VLOOKUP(H7,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H7,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="7" t="s">
+        <f ca="1">VLOOKUP(D7,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>一覧002のグループ</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="5" t="str">
-        <f>IF(ISNUMBER(L7),VLOOKUP(L7,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (6, now(), 1, now(), 1, 'val', 2, 10, 'fac', 3, null, null);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設一覧・一覧002のグループ</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 5, 5, null);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="str">
         <f ca="1">VLOOKUP(B8,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧</v>
+        <v>富士五湖施設一覧</v>
       </c>
       <c r="D8" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>Dsc</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f ca="1">IF($G8="reg",VLOOKUP(H8,地域属性グループ!$A:$E,5,FALSE),IF($G8="fac",VLOOKUP(H8,施設属性グループ!$A:$E,5,FALSE),IF($G8="facgrp",VLOOKUP(H8,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H8,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f ca="1">IF($G8="reg",VLOOKUP(H8,地域属性グループ!$A:$E,2,FALSE),IF($G8="fac",VLOOKUP(H8,施設属性グループ!$A:$E,2,FALSE),IF($G8="facgrp",VLOOKUP(H8,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H8,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f>IF(ISNUMBER(L8),VLOOKUP(L8,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (7, now(), 1, now(), 1, 'val', 2, 11, 'fac', 2, null, null);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <f ca="1">VLOOKUP(D8,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>一覧002のリストグループ</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設一覧・一覧002のリストグループ</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 6, 6);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="str">
         <f ca="1">VLOOKUP(B9,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細</v>
+        <v>富士五湖施設詳細</v>
       </c>
       <c r="D9" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>Img01</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>画像01</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f ca="1">IF($G9="reg",VLOOKUP(H9,地域属性グループ!$A:$E,5,FALSE),IF($G9="fac",VLOOKUP(H9,施設属性グループ!$A:$E,5,FALSE),IF($G9="facgrp",VLOOKUP(H9,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H9,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f ca="1">IF($G9="reg",VLOOKUP(H9,地域属性グループ!$A:$E,2,FALSE),IF($G9="fac",VLOOKUP(H9,施設属性グループ!$A:$E,2,FALSE),IF($G9="facgrp",VLOOKUP(H9,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H9,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <f ca="1">VLOOKUP(D9,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
+        <v>詳細002のグループ</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M9" s="5" t="str">
-        <f>IF(ISNUMBER(L9),VLOOKUP(L9,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (8, now(), 1, now(), 1, 'val', 3, 15, 'fac', 3, null, null);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細</v>
-      </c>
-      <c r="D10" s="6">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MainDscp</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文（メイン）</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f ca="1">IF($G10="reg",VLOOKUP(H10,地域属性グループ!$A:$E,5,FALSE),IF($G10="fac",VLOOKUP(H10,施設属性グループ!$A:$E,5,FALSE),IF($G10="facgrp",VLOOKUP(H10,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H10,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f ca="1">IF($G10="reg",VLOOKUP(H10,地域属性グループ!$A:$E,2,FALSE),IF($G10="fac",VLOOKUP(H10,施設属性グループ!$A:$E,2,FALSE),IF($G10="facgrp",VLOOKUP(H10,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H10,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f>IF(ISNUMBER(L10),VLOOKUP(L10,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (9, now(), 1, now(), 1, 'val', 3, 16, 'fac', 1, null, null);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,スクリーン!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細</v>
-      </c>
-      <c r="D11" s="6">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>SubDscp</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文（補足）</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f ca="1">IF($G11="reg",VLOOKUP(H11,地域属性グループ!$A:$E,5,FALSE),IF($G11="fac",VLOOKUP(H11,施設属性グループ!$A:$E,5,FALSE),IF($G11="facgrp",VLOOKUP(H11,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H11,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f ca="1">IF($G11="reg",VLOOKUP(H11,地域属性グループ!$A:$E,2,FALSE),IF($G11="fac",VLOOKUP(H11,施設属性グループ!$A:$E,2,FALSE),IF($G11="facgrp",VLOOKUP(H11,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H11,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f>IF(ISNUMBER(L11),VLOOKUP(L11,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (10, now(), 1, now(), 1, 'val', 3, 17, 'fac', 2, null, null);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>TopImg</v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>トップ画像</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="6">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f ca="1">IF($G12="reg",VLOOKUP(H12,地域属性グループ!$A:$E,5,FALSE),IF($G12="fac",VLOOKUP(H12,施設属性グループ!$A:$E,5,FALSE),IF($G12="facgrp",VLOOKUP(H12,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H12,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f ca="1">IF($G12="reg",VLOOKUP(H12,地域属性グループ!$A:$E,2,FALSE),IF($G12="fac",VLOOKUP(H12,施設属性グループ!$A:$E,2,FALSE),IF($G12="facgrp",VLOOKUP(H12,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H12,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f>IF(ISNUMBER(L12),VLOOKUP(L12,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (11, now(), 1, now(), 1, 'val', 4, 5, 'reg', 4, null, null);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn01</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f ca="1">IF($G13="reg",VLOOKUP(H13,地域属性グループ!$A:$E,5,FALSE),IF($G13="fac",VLOOKUP(H13,施設属性グループ!$A:$E,5,FALSE),IF($G13="facgrp",VLOOKUP(H13,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H13,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f ca="1">IF($G13="reg",VLOOKUP(H13,地域属性グループ!$A:$E,2,FALSE),IF($G13="fac",VLOOKUP(H13,施設属性グループ!$A:$E,2,FALSE),IF($G13="facgrp",VLOOKUP(H13,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H13,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7">
-        <v>4</v>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L13),VLOOKUP(L13,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (12, now(), 1, now(), 1, 'val', 4, 6, 'reg', 1, null, 4);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="D14" s="6">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn02</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン2</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f ca="1">IF($G14="reg",VLOOKUP(H14,地域属性グループ!$A:$E,5,FALSE),IF($G14="fac",VLOOKUP(H14,施設属性グループ!$A:$E,5,FALSE),IF($G14="facgrp",VLOOKUP(H14,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H14,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f ca="1">IF($G14="reg",VLOOKUP(H14,地域属性グループ!$A:$E,2,FALSE),IF($G14="fac",VLOOKUP(H14,施設属性グループ!$A:$E,2,FALSE),IF($G14="facgrp",VLOOKUP(H14,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H14,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7">
-        <v>4</v>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L14),VLOOKUP(L14,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (13, now(), 1, now(), 1, 'val', 4, 7, 'reg', 1, null, 4);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MenuBtn03</v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>メニューボタン3</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f ca="1">IF($G15="reg",VLOOKUP(H15,地域属性グループ!$A:$E,5,FALSE),IF($G15="fac",VLOOKUP(H15,施設属性グループ!$A:$E,5,FALSE),IF($G15="facgrp",VLOOKUP(H15,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H15,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>地域名</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f ca="1">IF($G15="reg",VLOOKUP(H15,地域属性グループ!$A:$E,2,FALSE),IF($G15="fac",VLOOKUP(H15,施設属性グループ!$A:$E,2,FALSE),IF($G15="facgrp",VLOOKUP(H15,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H15,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L15" s="7">
-        <v>4</v>
-      </c>
-      <c r="M15" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(L15),VLOOKUP(L15,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (14, now(), 1, now(), 1, 'val', 4, 8, 'reg', 1, null, 4);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧</v>
-      </c>
-      <c r="D16" s="6">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>PntDscp</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>親説明文</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f ca="1">IF($G16="reg",VLOOKUP(H16,地域属性グループ!$A:$E,5,FALSE),IF($G16="fac",VLOOKUP(H16,施設属性グループ!$A:$E,5,FALSE),IF($G16="facgrp",VLOOKUP(H16,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H16,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>説明文</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f ca="1">IF($G16="reg",VLOOKUP(H16,地域属性グループ!$A:$E,2,FALSE),IF($G16="fac",VLOOKUP(H16,施設属性グループ!$A:$E,2,FALSE),IF($G16="facgrp",VLOOKUP(H16,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H16,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="5" t="str">
-        <f>IF(ISNUMBER(L16),VLOOKUP(L16,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (15, now(), 1, now(), 1, 'val', 5, 12, 'reg', 2, null, null);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧</v>
-      </c>
-      <c r="D17" s="6">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>DscpImg</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明画像</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f ca="1">IF($G17="reg",VLOOKUP(H17,地域属性グループ!$A:$E,5,FALSE),IF($G17="fac",VLOOKUP(H17,施設属性グループ!$A:$E,5,FALSE),IF($G17="facgrp",VLOOKUP(H17,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H17,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f ca="1">IF($G17="reg",VLOOKUP(H17,地域属性グループ!$A:$E,2,FALSE),IF($G17="fac",VLOOKUP(H17,施設属性グループ!$A:$E,2,FALSE),IF($G17="facgrp",VLOOKUP(H17,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H17,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M17" s="5" t="str">
-        <f>IF(ISNUMBER(L17),VLOOKUP(L17,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (16, now(), 1, now(), 1, 'val', 5, 13, 'fac', 3, null, null);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="str">
-        <f ca="1">VLOOKUP(B18,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧</v>
-      </c>
-      <c r="D18" s="6">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>Dsc</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f ca="1">IF($G18="reg",VLOOKUP(H18,地域属性グループ!$A:$E,5,FALSE),IF($G18="fac",VLOOKUP(H18,施設属性グループ!$A:$E,5,FALSE),IF($G18="facgrp",VLOOKUP(H18,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H18,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f ca="1">IF($G18="reg",VLOOKUP(H18,地域属性グループ!$A:$E,2,FALSE),IF($G18="fac",VLOOKUP(H18,施設属性グループ!$A:$E,2,FALSE),IF($G18="facgrp",VLOOKUP(H18,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H18,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="5" t="str">
-        <f>IF(ISNUMBER(L18),VLOOKUP(L18,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (17, now(), 1, now(), 1, 'val', 5, 14, 'fac', 1, 1, null);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="str">
-        <f ca="1">VLOOKUP(B19,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧</v>
-      </c>
-      <c r="D19" s="6">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>Dsc</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f ca="1">IF($G19="reg",VLOOKUP(H19,地域属性グループ!$A:$E,5,FALSE),IF($G19="fac",VLOOKUP(H19,施設属性グループ!$A:$E,5,FALSE),IF($G19="facgrp",VLOOKUP(H19,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H19,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="J19" s="5" t="str">
-        <f ca="1">IF($G19="reg",VLOOKUP(H19,地域属性グループ!$A:$E,2,FALSE),IF($G19="fac",VLOOKUP(H19,施設属性グループ!$A:$E,2,FALSE),IF($G19="facgrp",VLOOKUP(H19,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H19,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="5" t="str">
-        <f>IF(ISNUMBER(L19),VLOOKUP(L19,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (18, now(), 1, now(), 1, 'val', 5, 14, 'fac', 2, 2, null);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f ca="1">VLOOKUP(B20,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細</v>
-      </c>
-      <c r="D20" s="6">
-        <v>18</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>Img01</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>画像01</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="6">
-        <v>3</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f ca="1">IF($G20="reg",VLOOKUP(H20,地域属性グループ!$A:$E,5,FALSE),IF($G20="fac",VLOOKUP(H20,施設属性グループ!$A:$E,5,FALSE),IF($G20="facgrp",VLOOKUP(H20,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H20,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>画像1</v>
-      </c>
-      <c r="J20" s="5" t="str">
-        <f ca="1">IF($G20="reg",VLOOKUP(H20,地域属性グループ!$A:$E,2,FALSE),IF($G20="fac",VLOOKUP(H20,施設属性グループ!$A:$E,2,FALSE),IF($G20="facgrp",VLOOKUP(H20,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H20,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>imgp</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f>IF(ISNUMBER(L20),VLOOKUP(L20,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (19, now(), 1, now(), 1, 'val', 6, 18, 'fac', 3, null, null);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="str">
-        <f ca="1">VLOOKUP(B21,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細</v>
-      </c>
-      <c r="D21" s="6">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>MainDscp</v>
-      </c>
-      <c r="F21" s="5" t="str">
-        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文（メイン）</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f ca="1">IF($G21="reg",VLOOKUP(H21,地域属性グループ!$A:$E,5,FALSE),IF($G21="fac",VLOOKUP(H21,施設属性グループ!$A:$E,5,FALSE),IF($G21="facgrp",VLOOKUP(H21,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H21,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="J21" s="5" t="str">
-        <f ca="1">IF($G21="reg",VLOOKUP(H21,地域属性グループ!$A:$E,2,FALSE),IF($G21="fac",VLOOKUP(H21,施設属性グループ!$A:$E,2,FALSE),IF($G21="facgrp",VLOOKUP(H21,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H21,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>IF(ISNUMBER(L21),VLOOKUP(L21,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (20, now(), 1, now(), 1, 'val', 6, 19, 'fac', 1, null, null);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="str">
-        <f ca="1">VLOOKUP(B22,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細</v>
-      </c>
-      <c r="D22" s="6">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>SubDscp</v>
-      </c>
-      <c r="F22" s="5" t="str">
-        <f ca="1">VLOOKUP(D22,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文（補足）</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f ca="1">IF($G22="reg",VLOOKUP(H22,地域属性グループ!$A:$E,5,FALSE),IF($G22="fac",VLOOKUP(H22,施設属性グループ!$A:$E,5,FALSE),IF($G22="facgrp",VLOOKUP(H22,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H22,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設名</v>
-      </c>
-      <c r="J22" s="5" t="str">
-        <f ca="1">IF($G22="reg",VLOOKUP(H22,地域属性グループ!$A:$E,2,FALSE),IF($G22="fac",VLOOKUP(H22,施設属性グループ!$A:$E,2,FALSE),IF($G22="facgrp",VLOOKUP(H22,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H22,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>IF(ISNUMBER(L22),VLOOKUP(L22,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (21, now(), 1, now(), 1, 'val', 6, 20, 'fac', 1, 1, null);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="str">
-        <f ca="1">VLOOKUP(B23,スクリーン!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細</v>
-      </c>
-      <c r="D23" s="6">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$E,4,FALSE)</f>
-        <v>SubDscp</v>
-      </c>
-      <c r="F23" s="5" t="str">
-        <f ca="1">VLOOKUP(D23,レイアウトオブジェクト!$A:$F,5,FALSE)</f>
-        <v>説明文（補足）</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f ca="1">IF($G23="reg",VLOOKUP(H23,地域属性グループ!$A:$E,5,FALSE),IF($G23="fac",VLOOKUP(H23,施設属性グループ!$A:$E,5,FALSE),IF($G23="facgrp",VLOOKUP(H23,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(H23,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
-        <v>施設説明文</v>
-      </c>
-      <c r="J23" s="5" t="str">
-        <f ca="1">IF($G23="reg",VLOOKUP(H23,地域属性グループ!$A:$E,2,FALSE),IF($G23="fac",VLOOKUP(H23,施設属性グループ!$A:$E,2,FALSE),IF($G23="facgrp",VLOOKUP(H23,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(H23,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
-        <v>txt</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>IF(ISNUMBER(L23),VLOOKUP(L23,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ values (22, now(), 1, now(), 1, 'val', 6, 20, 'fac', 2, 2, null);</v>
+      <c r="G9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設詳細・詳細002のグループ</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 8, null);</v>
       </c>
     </row>
   </sheetData>
@@ -8422,6 +8015,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f ca="1">VLOOKUP(B2,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>トップ画像</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f ca="1">VLOOKUP(D2,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f t="shared" ref="G2:G21" ca="1" si="0">C2&amp;"・"&amp;E2&amp;"（"&amp;F2&amp;"）"</f>
+        <v>日光メニュー・メニュー001のグループ・トップ画像（img）</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f t="shared" ref="H2:H21" si="1">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
+        <v>insert into M_SCREEN_OBJ values (1, now(), 1, now(), 1, 'val', 1, 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A21" si="2">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン1</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f ca="1">VLOOKUP(D3,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン1（button）</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (2, now(), 1, now(), 1, 'val', 1, 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン2</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f ca="1">VLOOKUP(D4,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン2（button）</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (3, now(), 1, now(), 1, 'val', 1, 3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン3</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f ca="1">VLOOKUP(D5,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン3（button）</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (4, now(), 1, now(), 1, 'val', 1, 4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のグループ</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>親説明文</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f ca="1">VLOOKUP(D6,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設一覧・一覧001のグループ・親説明文（txt）</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (5, now(), 1, now(), 1, 'val', 2, 9);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のリストグループ</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明画像</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f ca="1">VLOOKUP(D7,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設一覧・一覧001のリストグループ・説明画像（img）</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (6, now(), 1, now(), 1, 'val', 3, 10);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のリストグループ</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f ca="1">VLOOKUP(D8,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設一覧・一覧001のリストグループ・説明文（txt）</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (7, now(), 1, now(), 1, 'val', 3, 11);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>画像01</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f ca="1">VLOOKUP(D9,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設詳細・詳細001のグループ・画像01（img）</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (8, now(), 1, now(), 1, 'val', 4, 15);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f ca="1">VLOOKUP(B10,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文（メイン）</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f ca="1">VLOOKUP(D10,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設詳細・詳細001のグループ・説明文（メイン）（txt）</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (9, now(), 1, now(), 1, 'val', 4, 16);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f ca="1">VLOOKUP(B11,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ</v>
+      </c>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文（補足）</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f ca="1">VLOOKUP(D11,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日光施設詳細・詳細001のグループ・説明文（補足）（txt）</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (10, now(), 1, now(), 1, 'val', 4, 17);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f ca="1">VLOOKUP(B12,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>トップ画像</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f ca="1">VLOOKUP(D12,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖メニュー・メニュー002のグループ・トップ画像（img）</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (11, now(), 1, now(), 1, 'val', 5, 5);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f ca="1">VLOOKUP(B13,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン1</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f ca="1">VLOOKUP(D13,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン1（button）</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (12, now(), 1, now(), 1, 'val', 5, 6);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f ca="1">VLOOKUP(B14,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン2</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f ca="1">VLOOKUP(D14,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン2（button）</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (13, now(), 1, now(), 1, 'val', 5, 7);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f ca="1">VLOOKUP(B15,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>メニューボタン3</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f ca="1">VLOOKUP(D15,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>button</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン3（button）</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (14, now(), 1, now(), 1, 'val', 5, 8);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f ca="1">VLOOKUP(B16,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のグループ</v>
+      </c>
+      <c r="D16" s="6">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>親説明文</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f ca="1">VLOOKUP(D16,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設一覧・一覧002のグループ・親説明文（txt）</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (15, now(), 1, now(), 1, 'val', 6, 12);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f ca="1">VLOOKUP(B17,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のリストグループ</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明画像</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f ca="1">VLOOKUP(D17,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設一覧・一覧002のリストグループ・説明画像（img）</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (16, now(), 1, now(), 1, 'val', 7, 13);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f ca="1">VLOOKUP(B18,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のリストグループ</v>
+      </c>
+      <c r="D18" s="6">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f ca="1">VLOOKUP(D18,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (17, now(), 1, now(), 1, 'val', 7, 14);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f ca="1">VLOOKUP(B19,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ</v>
+      </c>
+      <c r="D19" s="6">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>画像01</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f ca="1">VLOOKUP(D19,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>img</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設詳細・詳細002のグループ・画像01（img）</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (18, now(), 1, now(), 1, 'val', 8, 18);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f ca="1">VLOOKUP(B20,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文（メイン）</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f ca="1">VLOOKUP(D20,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>txt</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設詳細・詳細002のグループ・説明文（メイン）（txt）</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (19, now(), 1, now(), 1, 'val', 8, 19);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f ca="1">VLOOKUP(B21,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$E,5,FALSE)</f>
+        <v>説明文（補足）</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f ca="1">VLOOKUP(D21,レイアウトオブジェクト!$A:$F,6,FALSE)</f>
+        <v>list</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ values (20, now(), 1, now(), 1, 'val', 8, 20);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="str">
+        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
+        <v>スクリーンDTO_ID</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="str">
+        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
+        <v>-- スクリーンDTO（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f ca="1">VLOOKUP(B2,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ・トップ画像（img）</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f ca="1">IF($D2="reg",VLOOKUP(E2,地域属性グループ!$A:$E,5,FALSE),IF($D2="fac",VLOOKUP(E2,施設属性グループ!$A:$E,5,FALSE),IF($D2="facgrp",VLOOKUP(E2,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E2,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f ca="1">IF($D2="reg",VLOOKUP(E2,地域属性グループ!$A:$E,2,FALSE),IF($D2="fac",VLOOKUP(E2,施設属性グループ!$A:$E,2,FALSE),IF($D2="facgrp",VLOOKUP(E2,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E2,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>IF(ISNUMBER(I2),VLOOKUP(I2,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="str">
+        <f t="shared" ref="L2:L23" si="0">"insert into M_SCREEN_OBJ_ATTR values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', "&amp;$E2&amp;", "&amp;$H2&amp;", "&amp;I2&amp;");"</f>
+        <v>insert into M_SCREEN_OBJ_ATTR values (1, now(), 1, now(), 1, 'val', 1, 'reg', 4, null, null);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A23" si="1">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン1（button）</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f ca="1">IF($D3="reg",VLOOKUP(E3,地域属性グループ!$A:$E,5,FALSE),IF($D3="fac",VLOOKUP(E3,施設属性グループ!$A:$E,5,FALSE),IF($D3="facgrp",VLOOKUP(E3,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E3,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f ca="1">IF($D3="reg",VLOOKUP(E3,地域属性グループ!$A:$E,2,FALSE),IF($D3="fac",VLOOKUP(E3,施設属性グループ!$A:$E,2,FALSE),IF($D3="facgrp",VLOOKUP(E3,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E3,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I3),VLOOKUP(I3,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>日光施設一覧</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (2, now(), 1, now(), 1, 'val', 2, 'reg', 1, null, 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン2（button）</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f ca="1">IF($D4="reg",VLOOKUP(E4,地域属性グループ!$A:$E,5,FALSE),IF($D4="fac",VLOOKUP(E4,施設属性グループ!$A:$E,5,FALSE),IF($D4="facgrp",VLOOKUP(E4,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E4,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f ca="1">IF($D4="reg",VLOOKUP(E4,地域属性グループ!$A:$E,2,FALSE),IF($D4="fac",VLOOKUP(E4,施設属性グループ!$A:$E,2,FALSE),IF($D4="facgrp",VLOOKUP(E4,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E4,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I4),VLOOKUP(I4,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>日光施設一覧</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (3, now(), 1, now(), 1, 'val', 3, 'reg', 1, null, 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光メニュー・メニュー001のグループ・メニューボタン3（button）</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f ca="1">IF($D5="reg",VLOOKUP(E5,地域属性グループ!$A:$E,5,FALSE),IF($D5="fac",VLOOKUP(E5,施設属性グループ!$A:$E,5,FALSE),IF($D5="facgrp",VLOOKUP(E5,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E5,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f ca="1">IF($D5="reg",VLOOKUP(E5,地域属性グループ!$A:$E,2,FALSE),IF($D5="fac",VLOOKUP(E5,施設属性グループ!$A:$E,2,FALSE),IF($D5="facgrp",VLOOKUP(E5,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E5,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I5),VLOOKUP(I5,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>日光施設一覧</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (4, now(), 1, now(), 1, 'val', 4, 'reg', 1, null, 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f ca="1">VLOOKUP(B6,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のグループ・親説明文（txt）</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f ca="1">IF($D6="reg",VLOOKUP(E6,地域属性グループ!$A:$E,5,FALSE),IF($D6="fac",VLOOKUP(E6,施設属性グループ!$A:$E,5,FALSE),IF($D6="facgrp",VLOOKUP(E6,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E6,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>説明文</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f ca="1">IF($D6="reg",VLOOKUP(E6,地域属性グループ!$A:$E,2,FALSE),IF($D6="fac",VLOOKUP(E6,施設属性グループ!$A:$E,2,FALSE),IF($D6="facgrp",VLOOKUP(E6,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E6,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>IF(ISNUMBER(I6),VLOOKUP(I6,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (5, now(), 1, now(), 1, 'val', 5, 'reg', 2, null, null);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f ca="1">VLOOKUP(B7,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のリストグループ・説明画像（img）</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f ca="1">IF($D7="reg",VLOOKUP(E7,地域属性グループ!$A:$E,5,FALSE),IF($D7="fac",VLOOKUP(E7,施設属性グループ!$A:$E,5,FALSE),IF($D7="facgrp",VLOOKUP(E7,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E7,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f ca="1">IF($D7="reg",VLOOKUP(E7,地域属性グループ!$A:$E,2,FALSE),IF($D7="fac",VLOOKUP(E7,施設属性グループ!$A:$E,2,FALSE),IF($D7="facgrp",VLOOKUP(E7,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E7,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I7),VLOOKUP(I7,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>日光施設詳細</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (6, now(), 1, now(), 1, 'val', 6, 'fac', 3, null, 3);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">VLOOKUP(B8,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設一覧・一覧001のリストグループ・説明文（txt）</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f ca="1">IF($D8="reg",VLOOKUP(E8,地域属性グループ!$A:$E,5,FALSE),IF($D8="fac",VLOOKUP(E8,施設属性グループ!$A:$E,5,FALSE),IF($D8="facgrp",VLOOKUP(E8,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E8,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f ca="1">IF($D8="reg",VLOOKUP(E8,地域属性グループ!$A:$E,2,FALSE),IF($D8="fac",VLOOKUP(E8,施設属性グループ!$A:$E,2,FALSE),IF($D8="facgrp",VLOOKUP(E8,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E8,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>IF(ISNUMBER(I8),VLOOKUP(I8,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (7, now(), 1, now(), 1, 'val', 7, 'fac', 2, null, null);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f ca="1">VLOOKUP(B9,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ・画像01（img）</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f ca="1">IF($D9="reg",VLOOKUP(E9,地域属性グループ!$A:$E,5,FALSE),IF($D9="fac",VLOOKUP(E9,施設属性グループ!$A:$E,5,FALSE),IF($D9="facgrp",VLOOKUP(E9,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E9,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f ca="1">IF($D9="reg",VLOOKUP(E9,地域属性グループ!$A:$E,2,FALSE),IF($D9="fac",VLOOKUP(E9,施設属性グループ!$A:$E,2,FALSE),IF($D9="facgrp",VLOOKUP(E9,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E9,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>IF(ISNUMBER(I9),VLOOKUP(I9,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (8, now(), 1, now(), 1, 'val', 8, 'fac', 3, null, null);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f ca="1">VLOOKUP(B10,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ・説明文（メイン）（txt）</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f ca="1">IF($D10="reg",VLOOKUP(E10,地域属性グループ!$A:$E,5,FALSE),IF($D10="fac",VLOOKUP(E10,施設属性グループ!$A:$E,5,FALSE),IF($D10="facgrp",VLOOKUP(E10,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E10,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f ca="1">IF($D10="reg",VLOOKUP(E10,地域属性グループ!$A:$E,2,FALSE),IF($D10="fac",VLOOKUP(E10,施設属性グループ!$A:$E,2,FALSE),IF($D10="facgrp",VLOOKUP(E10,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E10,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f>IF(ISNUMBER(I10),VLOOKUP(I10,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (9, now(), 1, now(), 1, 'val', 9, 'fac', 1, null, null);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f ca="1">VLOOKUP(B11,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>日光施設詳細・詳細001のグループ・説明文（補足）（txt）</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f ca="1">IF($D11="reg",VLOOKUP(E11,地域属性グループ!$A:$E,5,FALSE),IF($D11="fac",VLOOKUP(E11,施設属性グループ!$A:$E,5,FALSE),IF($D11="facgrp",VLOOKUP(E11,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E11,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f ca="1">IF($D11="reg",VLOOKUP(E11,地域属性グループ!$A:$E,2,FALSE),IF($D11="fac",VLOOKUP(E11,施設属性グループ!$A:$E,2,FALSE),IF($D11="facgrp",VLOOKUP(E11,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E11,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>IF(ISNUMBER(I11),VLOOKUP(I11,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (10, now(), 1, now(), 1, 'val', 10, 'fac', 2, null, null);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f ca="1">VLOOKUP(B12,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ・トップ画像（img）</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f ca="1">IF($D12="reg",VLOOKUP(E12,地域属性グループ!$A:$E,5,FALSE),IF($D12="fac",VLOOKUP(E12,施設属性グループ!$A:$E,5,FALSE),IF($D12="facgrp",VLOOKUP(E12,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E12,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f ca="1">IF($D12="reg",VLOOKUP(E12,地域属性グループ!$A:$E,2,FALSE),IF($D12="fac",VLOOKUP(E12,施設属性グループ!$A:$E,2,FALSE),IF($D12="facgrp",VLOOKUP(E12,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E12,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>IF(ISNUMBER(I12),VLOOKUP(I12,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (11, now(), 1, now(), 1, 'val', 11, 'reg', 4, null, null);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f ca="1">VLOOKUP(B13,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン1（button）</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f ca="1">IF($D13="reg",VLOOKUP(E13,地域属性グループ!$A:$E,5,FALSE),IF($D13="fac",VLOOKUP(E13,施設属性グループ!$A:$E,5,FALSE),IF($D13="facgrp",VLOOKUP(E13,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E13,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f ca="1">IF($D13="reg",VLOOKUP(E13,地域属性グループ!$A:$E,2,FALSE),IF($D13="fac",VLOOKUP(E13,施設属性グループ!$A:$E,2,FALSE),IF($D13="facgrp",VLOOKUP(E13,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E13,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I13),VLOOKUP(I13,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>富士五湖メニュー</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (12, now(), 1, now(), 1, 'val', 12, 'reg', 1, null, 4);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f ca="1">VLOOKUP(B14,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン2（button）</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f ca="1">IF($D14="reg",VLOOKUP(E14,地域属性グループ!$A:$E,5,FALSE),IF($D14="fac",VLOOKUP(E14,施設属性グループ!$A:$E,5,FALSE),IF($D14="facgrp",VLOOKUP(E14,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E14,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f ca="1">IF($D14="reg",VLOOKUP(E14,地域属性グループ!$A:$E,2,FALSE),IF($D14="fac",VLOOKUP(E14,施設属性グループ!$A:$E,2,FALSE),IF($D14="facgrp",VLOOKUP(E14,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E14,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I14),VLOOKUP(I14,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>富士五湖メニュー</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (13, now(), 1, now(), 1, 'val', 13, 'reg', 1, null, 4);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f ca="1">VLOOKUP(B15,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン3（button）</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f ca="1">IF($D15="reg",VLOOKUP(E15,地域属性グループ!$A:$E,5,FALSE),IF($D15="fac",VLOOKUP(E15,施設属性グループ!$A:$E,5,FALSE),IF($D15="facgrp",VLOOKUP(E15,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E15,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>地域名</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f ca="1">IF($D15="reg",VLOOKUP(E15,地域属性グループ!$A:$E,2,FALSE),IF($D15="fac",VLOOKUP(E15,施設属性グループ!$A:$E,2,FALSE),IF($D15="facgrp",VLOOKUP(E15,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E15,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f ca="1">IF(ISNUMBER(I15),VLOOKUP(I15,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v>富士五湖メニュー</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (14, now(), 1, now(), 1, 'val', 14, 'reg', 1, null, 4);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f ca="1">VLOOKUP(B16,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のグループ・親説明文（txt）</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f ca="1">IF($D16="reg",VLOOKUP(E16,地域属性グループ!$A:$E,5,FALSE),IF($D16="fac",VLOOKUP(E16,施設属性グループ!$A:$E,5,FALSE),IF($D16="facgrp",VLOOKUP(E16,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E16,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>説明文</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f ca="1">IF($D16="reg",VLOOKUP(E16,地域属性グループ!$A:$E,2,FALSE),IF($D16="fac",VLOOKUP(E16,施設属性グループ!$A:$E,2,FALSE),IF($D16="facgrp",VLOOKUP(E16,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E16,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f>IF(ISNUMBER(I16),VLOOKUP(I16,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (15, now(), 1, now(), 1, 'val', 15, 'reg', 2, null, null);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f ca="1">VLOOKUP(B17,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のリストグループ・説明画像（img）</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f ca="1">IF($D17="reg",VLOOKUP(E17,地域属性グループ!$A:$E,5,FALSE),IF($D17="fac",VLOOKUP(E17,施設属性グループ!$A:$E,5,FALSE),IF($D17="facgrp",VLOOKUP(E17,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E17,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f ca="1">IF($D17="reg",VLOOKUP(E17,地域属性グループ!$A:$E,2,FALSE),IF($D17="fac",VLOOKUP(E17,施設属性グループ!$A:$E,2,FALSE),IF($D17="facgrp",VLOOKUP(E17,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E17,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f>IF(ISNUMBER(I17),VLOOKUP(I17,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (16, now(), 1, now(), 1, 'val', 16, 'fac', 3, null, null);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f ca="1">VLOOKUP(B18,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f ca="1">IF($D18="reg",VLOOKUP(E18,地域属性グループ!$A:$E,5,FALSE),IF($D18="fac",VLOOKUP(E18,施設属性グループ!$A:$E,5,FALSE),IF($D18="facgrp",VLOOKUP(E18,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E18,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f ca="1">IF($D18="reg",VLOOKUP(E18,地域属性グループ!$A:$E,2,FALSE),IF($D18="fac",VLOOKUP(E18,施設属性グループ!$A:$E,2,FALSE),IF($D18="facgrp",VLOOKUP(E18,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E18,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f>IF(ISNUMBER(I18),VLOOKUP(I18,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (17, now(), 1, now(), 1, 'val', 17, 'fac', 1, 1, null);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f ca="1">VLOOKUP(B19,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f ca="1">IF($D19="reg",VLOOKUP(E19,地域属性グループ!$A:$E,5,FALSE),IF($D19="fac",VLOOKUP(E19,施設属性グループ!$A:$E,5,FALSE),IF($D19="facgrp",VLOOKUP(E19,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E19,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f ca="1">IF($D19="reg",VLOOKUP(E19,地域属性グループ!$A:$E,2,FALSE),IF($D19="fac",VLOOKUP(E19,施設属性グループ!$A:$E,2,FALSE),IF($D19="facgrp",VLOOKUP(E19,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E19,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f>IF(ISNUMBER(I19),VLOOKUP(I19,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (18, now(), 1, now(), 1, 'val', 17, 'fac', 2, 2, null);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f ca="1">VLOOKUP(B20,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ・画像01（img）</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f ca="1">IF($D20="reg",VLOOKUP(E20,地域属性グループ!$A:$E,5,FALSE),IF($D20="fac",VLOOKUP(E20,施設属性グループ!$A:$E,5,FALSE),IF($D20="facgrp",VLOOKUP(E20,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E20,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>画像1</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f ca="1">IF($D20="reg",VLOOKUP(E20,地域属性グループ!$A:$E,2,FALSE),IF($D20="fac",VLOOKUP(E20,施設属性グループ!$A:$E,2,FALSE),IF($D20="facgrp",VLOOKUP(E20,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E20,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>imgp</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f>IF(ISNUMBER(I20),VLOOKUP(I20,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (19, now(), 1, now(), 1, 'val', 18, 'fac', 3, null, null);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f ca="1">VLOOKUP(B21,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ・説明文（メイン）（txt）</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f ca="1">IF($D21="reg",VLOOKUP(E21,地域属性グループ!$A:$E,5,FALSE),IF($D21="fac",VLOOKUP(E21,施設属性グループ!$A:$E,5,FALSE),IF($D21="facgrp",VLOOKUP(E21,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E21,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f ca="1">IF($D21="reg",VLOOKUP(E21,地域属性グループ!$A:$E,2,FALSE),IF($D21="fac",VLOOKUP(E21,施設属性グループ!$A:$E,2,FALSE),IF($D21="facgrp",VLOOKUP(E21,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E21,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f>IF(ISNUMBER(I21),VLOOKUP(I21,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (20, now(), 1, now(), 1, 'val', 19, 'fac', 1, null, null);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f ca="1">VLOOKUP(B22,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f ca="1">IF($D22="reg",VLOOKUP(E22,地域属性グループ!$A:$E,5,FALSE),IF($D22="fac",VLOOKUP(E22,施設属性グループ!$A:$E,5,FALSE),IF($D22="facgrp",VLOOKUP(E22,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E22,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設名</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f ca="1">IF($D22="reg",VLOOKUP(E22,地域属性グループ!$A:$E,2,FALSE),IF($D22="fac",VLOOKUP(E22,施設属性グループ!$A:$E,2,FALSE),IF($D22="facgrp",VLOOKUP(E22,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E22,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f>IF(ISNUMBER(I22),VLOOKUP(I22,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (21, now(), 1, now(), 1, 'val', 20, 'fac', 1, 1, null);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f ca="1">VLOOKUP(B23,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
+        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f ca="1">IF($D23="reg",VLOOKUP(E23,地域属性グループ!$A:$E,5,FALSE),IF($D23="fac",VLOOKUP(E23,施設属性グループ!$A:$E,5,FALSE),IF($D23="facgrp",VLOOKUP(E23,施設グループ属性グループ!$A:$E,5,FALSE),VLOOKUP(E23,施設_施設グループリンク属性グループ!$A:$E,5,FALSE))))</f>
+        <v>施設説明文</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f ca="1">IF($D23="reg",VLOOKUP(E23,地域属性グループ!$A:$E,2,FALSE),IF($D23="fac",VLOOKUP(E23,施設属性グループ!$A:$E,2,FALSE),IF($D23="facgrp",VLOOKUP(E23,施設グループ属性グループ!$A:$E,2,FALSE),VLOOKUP(E23,施設_施設グループリンク属性グループ!$A:$E,2,FALSE))))</f>
+        <v>txt</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>IF(ISNUMBER(I23),VLOOKUP(I23,スクリーン!$A:$G,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into M_SCREEN_OBJ_ATTR values (22, now(), 1, now(), 1, 'val', 20, 'fac', 2, 2, null);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8450,7 +9747,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -8466,7 +9763,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8521,7 +9818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8550,7 +9847,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
+        <v>スクリーンDTO_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -8566,7 +9863,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
+        <v>-- スクリーンDTO（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8644,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -8654,535 +9951,11 @@
         <v/>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_REGION_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
         <v>insert into M_REGION_ATTR_GRP values (4, now(), 1, now(), 1, 'val', 'imgp', null);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>地域名</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G7" si="0">"insert into M_REGION_ATTR_GRP_LANG values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', '"&amp;E2&amp;"');"</f>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (1, now(), 1, now(), 1, 'val', 1, 'ja', '地域名');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>地域名</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (2, now(), 1, now(), 1, 'val', 1, 'en', 'Region Name');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (3, now(), 1, now(), 1, 'val', 2, 'ja', '説明文');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (4, now(), 1, now(), 1, 'val', 2, 'en', 'Description');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>空港有無</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (5, now(), 1, now(), 1, 'val', 3, 'ja', '空港有無');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>空港有無</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (6, now(), 1, now(), 1, 'val', 3, 'en', 'Has Airport');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>画像</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" ref="G8:G9" si="2">"insert into M_REGION_ATTR_GRP_LANG values ("&amp;A8&amp;", now(), 1, now(), 1, 'val', "&amp;$B8&amp;", '"&amp;$D8&amp;"', '"&amp;E8&amp;"');"</f>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (7, now(), 1, now(), 1, 'val', 4, 'ja', '画像1');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>画像</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into M_REGION_ATTR_GRP_LANG values (8, now(), 1, now(), 1, 'val', 4, 'en', 'Image1');</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E20" sqref="E20"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="str">
-        <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>レイアウトオブジェクトグループ_ID</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- レイアウトオブジェクトグループ（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,地域!$A:$E,5,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f ca="1">VLOOKUP(D2,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>地域名</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G4" si="0">"insert into M_REGION_ATTR_VAL values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
-        <v>insert into M_REGION_ATTR_VAL values (1, now(), 1, now(), 1, 'val', 1, 1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <f t="shared" ref="A3:A9" si="1">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,地域!$A:$E,5,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f ca="1">VLOOKUP(D3,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL values (2, now(), 1, now(), 1, 'val', 1, 2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,地域!$A:$E,5,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f ca="1">VLOOKUP(D4,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>空港有無</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into M_REGION_ATTR_VAL values (3, now(), 1, now(), 1, 'val', 1, 3);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,地域!$A:$E,5,FALSE)</f>
-        <v>日光</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f ca="1">VLOOKUP(D5,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>画像</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5" si="2">"insert into M_REGION_ATTR_VAL values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;");"</f>
-        <v>insert into M_REGION_ATTR_VAL values (4, now(), 1, now(), 1, 'val', 1, 4);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,地域!$A:$E,5,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f ca="1">VLOOKUP(D6,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>地域名</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G9" si="3">"insert into M_REGION_ATTR_VAL values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;");"</f>
-        <v>insert into M_REGION_ATTR_VAL values (5, now(), 1, now(), 1, 'val', 2, 1);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,地域!$A:$E,5,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f ca="1">VLOOKUP(D7,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>説明文</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into M_REGION_ATTR_VAL values (6, now(), 1, now(), 1, 'val', 2, 2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,地域!$A:$E,5,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f ca="1">VLOOKUP(D8,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>空港有無</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into M_REGION_ATTR_VAL values (7, now(), 1, now(), 1, 'val', 2, 3);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,地域!$A:$E,5,FALSE)</f>
-        <v>富士五湖</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f ca="1">VLOOKUP(D9,地域属性グループ!$A:$E,5,FALSE)</f>
-        <v>画像</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into M_REGION_ATTR_VAL values (8, now(), 1, now(), 1, 'val', 2, 4);</v>
       </c>
     </row>
   </sheetData>

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\02_SQLコマンド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\02_SQLコマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2095,7 +2095,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>218</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2270,7 +2270,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2520,7 +2520,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2794,7 +2794,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3140,7 +3140,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3286,7 +3286,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3433,7 +3433,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3683,7 +3683,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4119,7 +4119,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4776,7 +4776,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4876,7 +4876,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4977,7 +4977,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>226</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5243,7 +5243,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5397,7 +5397,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5563,7 +5563,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5813,7 +5813,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5982,7 +5982,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6060,7 +6060,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6166,7 +6166,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6332,7 +6332,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6881,7 +6881,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>229</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7484,7 +7484,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7735,7 +7735,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>262</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8045,7 +8045,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>266</v>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8751,7 +8751,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>268</v>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="L1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -9280,16 +9280,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5" t="str">
         <f ca="1">IF(ISNUMBER(I13),VLOOKUP(I13,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
+        <v>富士五湖施設一覧</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ_ATTR values (12, now(), 1, now(), 1, 'val', 12, 'reg', 1, null, 4);</v>
+        <v>insert into M_SCREEN_OBJ_ATTR values (12, now(), 1, now(), 1, 'val', 12, 'reg', 1, null, 5);</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -9322,16 +9322,16 @@
         <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="5" t="str">
         <f ca="1">IF(ISNUMBER(I14),VLOOKUP(I14,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
+        <v>富士五湖施設一覧</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ_ATTR values (13, now(), 1, now(), 1, 'val', 13, 'reg', 1, null, 4);</v>
+        <v>insert into M_SCREEN_OBJ_ATTR values (13, now(), 1, now(), 1, 'val', 13, 'reg', 1, null, 5);</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -9364,16 +9364,16 @@
         <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5" t="str">
         <f ca="1">IF(ISNUMBER(I15),VLOOKUP(I15,スクリーン!$A:$G,7,FALSE),"")</f>
-        <v>富士五湖メニュー</v>
+        <v>富士五湖施設一覧</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into M_SCREEN_OBJ_ATTR values (14, now(), 1, now(), 1, 'val', 14, 'reg', 1, null, 4);</v>
+        <v>insert into M_SCREEN_OBJ_ATTR values (14, now(), 1, now(), 1, 'val', 14, 'reg', 1, null, 5);</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -9747,7 +9747,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -9847,7 +9847,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンDTO_ID</v>
+        <v>スクリーンオブジェクト属性_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンDTO（insert文）</v>
+        <v>-- スクリーンオブジェクト属性（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-suzuki\git\melip-doc\03_設計\04_DB\02_SQLコマンド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Files\01. MELIP\02_SVN (Document)\03_設計\04_DB\02_SQLコマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="273">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1074,13 +1074,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>対象エンティティ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日光メニュー</t>
     <rPh sb="0" eb="2">
       <t>ニッコウ</t>
@@ -1601,6 +1594,22 @@
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンティティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fac</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンティティ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2095,10 +2104,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>34</v>
@@ -2111,7 +2120,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2120,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>161</v>
@@ -2140,10 +2149,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>161</v>
@@ -2160,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>162</v>
@@ -2180,10 +2189,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>162</v>
@@ -2200,10 +2209,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>163</v>
@@ -2220,10 +2229,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>163</v>
@@ -2270,7 +2279,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2476,7 +2485,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -2520,7 +2529,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2539,7 +2548,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2616,7 +2625,7 @@
         <v>空港有無</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2643,7 +2652,7 @@
         <v>画像</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ref="G5" si="2">"insert into M_REGION_ATTR_VAL values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', "&amp;$B5&amp;", "&amp;$D5&amp;");"</f>
@@ -2670,7 +2679,7 @@
         <v>地域名</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G9" si="3">"insert into M_REGION_ATTR_VAL values ("&amp;A6&amp;", now(), 1, now(), 1, 'val', "&amp;$B6&amp;", "&amp;$D6&amp;");"</f>
@@ -2697,7 +2706,7 @@
         <v>説明文</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2724,7 +2733,7 @@
         <v>空港有無</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2751,7 +2760,7 @@
         <v>画像</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2794,7 +2803,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>44</v>
@@ -2813,7 +2822,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2952,7 +2961,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="str">
@@ -3000,7 +3009,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -3024,7 +3033,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="str">
@@ -3048,7 +3057,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="5" t="str">
@@ -3072,7 +3081,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="5" t="str">
@@ -3096,7 +3105,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5" t="str">
@@ -3140,7 +3149,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3156,7 +3165,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3286,7 +3295,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -3302,7 +3311,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3357,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -3380,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -3390,7 +3399,7 @@
         <v>施設種別</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_FACILITY_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>
@@ -3433,7 +3442,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -3452,7 +3461,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3615,7 +3624,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
@@ -3639,7 +3648,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -3683,7 +3692,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>61</v>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4049,7 +4058,7 @@
         <v>施設種別</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
@@ -4076,7 +4085,7 @@
         <v>施設種別</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ref="G15" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
@@ -4119,7 +4128,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>77</v>
@@ -4138,7 +4147,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4706,10 +4715,10 @@
         <v>道の駅　富士吉田の施設種別</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="5" t="str">
@@ -4733,7 +4742,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5" t="str">
@@ -4776,7 +4785,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4792,7 +4801,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4876,7 +4885,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -4892,7 +4901,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4977,16 +4986,16 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>164</v>
@@ -4996,7 +5005,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5012,13 +5021,13 @@
         <v>メニュー001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" ref="G2:G9" si="0">"insert into M_LAYOUT_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;B2&amp;", '"&amp;$D2&amp;"', '"&amp;$E2&amp;"');"</f>
@@ -5038,13 +5047,13 @@
         <v>メニュー002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5064,13 +5073,13 @@
         <v>一覧001</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5090,13 +5099,13 @@
         <v>一覧001</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5116,13 +5125,13 @@
         <v>一覧002</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5142,13 +5151,13 @@
         <v>一覧002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5168,13 +5177,13 @@
         <v>詳細001</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5194,13 +5203,13 @@
         <v>詳細002</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5243,7 +5252,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>98</v>
@@ -5262,7 +5271,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5397,7 +5406,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>100</v>
@@ -5416,7 +5425,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5563,7 +5572,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>105</v>
@@ -5582,7 +5591,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5813,7 +5822,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>110</v>
@@ -5832,7 +5841,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5982,7 +5991,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -5998,7 +6007,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6060,7 +6069,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>114</v>
@@ -6079,7 +6088,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6166,7 +6175,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>118</v>
@@ -6185,7 +6194,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6332,7 +6341,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>126</v>
@@ -6351,7 +6360,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6797,10 +6806,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
         <v>202</v>
-      </c>
-      <c r="C37" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6823,10 +6832,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
         <v>204</v>
-      </c>
-      <c r="C41" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6881,16 +6890,16 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>134</v>
@@ -6903,7 +6912,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6919,7 +6928,7 @@
         <v>sin</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>135</v>
@@ -6946,7 +6955,7 @@
         <v>sin</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>137</v>
@@ -6973,7 +6982,7 @@
         <v>sin</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>139</v>
@@ -7000,7 +7009,7 @@
         <v>sin</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>141</v>
@@ -7027,7 +7036,7 @@
         <v>sin</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>135</v>
@@ -7054,7 +7063,7 @@
         <v>sin</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>136</v>
@@ -7081,7 +7090,7 @@
         <v>sin</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>138</v>
@@ -7108,7 +7117,7 @@
         <v>sin</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>140</v>
@@ -7135,7 +7144,7 @@
         <v>sin</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>142</v>
@@ -7162,7 +7171,7 @@
         <v>multi</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>143</v>
@@ -7189,7 +7198,7 @@
         <v>multi</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>144</v>
@@ -7216,7 +7225,7 @@
         <v>sin</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>142</v>
@@ -7243,7 +7252,7 @@
         <v>multi</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>143</v>
@@ -7270,13 +7279,13 @@
         <v>multi</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="5" t="str">
@@ -7297,7 +7306,7 @@
         <v>sin</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>145</v>
@@ -7324,7 +7333,7 @@
         <v>sin</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>146</v>
@@ -7351,7 +7360,7 @@
         <v>sin</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>147</v>
@@ -7378,7 +7387,7 @@
         <v>sin</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>145</v>
@@ -7405,7 +7414,7 @@
         <v>sin</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>146</v>
@@ -7432,13 +7441,13 @@
         <v>sin</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="5" t="str">
@@ -7484,7 +7493,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -7499,7 +7508,7 @@
         <v>133</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>34</v>
@@ -7509,7 +7518,7 @@
       </c>
       <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7532,10 +7541,10 @@
         <v>メニュー001</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="5" t="str">
@@ -7563,10 +7572,10 @@
         <v>一覧001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="5" t="str">
@@ -7594,10 +7603,10 @@
         <v>詳細001</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="str">
@@ -7625,10 +7634,10 @@
         <v>メニュー002</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5" t="str">
@@ -7656,10 +7665,10 @@
         <v>一覧002</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="5" t="str">
@@ -7687,10 +7696,10 @@
         <v>詳細002</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="5" t="str">
@@ -7709,7 +7718,7 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7726,41 +7735,45 @@
     <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="str">
+      <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>-- スクリーン（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -7780,18 +7793,21 @@
         <v>メニュー001のグループ</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f t="shared" ref="G2:G9" ca="1" si="0">C2&amp;"・"&amp;E2</f>
+        <v>270</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f t="shared" ref="H2:H9" ca="1" si="0">C2&amp;"・"&amp;E2</f>
         <v>日光メニュー・メニュー001のグループ</v>
       </c>
-      <c r="H2" s="5" t="str">
-        <f t="shared" ref="H2:H9" si="1">"insert into M_SCREEN_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", "&amp;$F2&amp;");"</f>
-        <v>insert into M_SCREEN_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 1, null);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="5" t="str">
+        <f t="shared" ref="I2:I9" si="1">"insert into M_SCREEN_OBJ_GRP values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;", '"&amp;$F2&amp;"', "&amp;$G2&amp;");"</f>
+        <v>insert into M_SCREEN_OBJ_GRP values (1, now(), 1, now(), 1, 'val', 1, 1, 'reg', null);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A9" si="2">ROW()-1</f>
         <v>2</v>
@@ -7811,18 +7827,21 @@
         <v>一覧001のグループ</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="H3" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>日光施設一覧・一覧001のグループ</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 3, null);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (2, now(), 1, now(), 1, 'val', 2, 3, 'reg', null);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7842,18 +7861,21 @@
         <v>一覧001のリストグループ</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>日光施設一覧・一覧001のリストグループ</v>
       </c>
-      <c r="H4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 2, 4, null);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (3, now(), 1, now(), 1, 'val', 2, 4, 'fac', null);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -7873,18 +7895,21 @@
         <v>詳細001のグループ</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>日光施設詳細・詳細001のグループ</v>
       </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 7, null);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (4, now(), 1, now(), 1, 'val', 3, 7, 'fac', null);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -7904,18 +7929,21 @@
         <v>メニュー002のグループ</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>富士五湖メニュー・メニュー002のグループ</v>
       </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 2, null);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (5, now(), 1, now(), 1, 'val', 4, 2, 'reg', null);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7935,18 +7963,21 @@
         <v>一覧002のグループ</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>富士五湖施設一覧・一覧002のグループ</v>
       </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 5, 5, null);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (6, now(), 1, now(), 1, 'val', 5, 5, 'reg', null);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7965,19 +7996,22 @@
         <f ca="1">VLOOKUP(D8,レイアウトオブジェクトグループ!$A:$F,6,FALSE)</f>
         <v>一覧002のリストグループ</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>富士五湖施設一覧・一覧002のリストグループ</v>
       </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 6, 6);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (7, now(), 1, now(), 1, 'val', 5, 6, 'fac', 6);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7997,15 +8031,18 @@
         <v>詳細002のグループ</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>富士五湖施設詳細・詳細002のグループ</v>
       </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_SCREEN_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 8, null);</v>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_SCREEN_OBJ_GRP values (8, now(), 1, now(), 1, 'val', 6, 8, 'fac', null);</v>
       </c>
     </row>
   </sheetData>
@@ -8045,19 +8082,19 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="D1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>6</v>
@@ -8067,7 +8104,7 @@
       </c>
       <c r="H1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8079,8 +8116,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f ca="1">VLOOKUP(B2,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B2,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -8095,7 +8132,7 @@
       </c>
       <c r="G2" s="7" t="str">
         <f t="shared" ref="G2:G21" ca="1" si="0">C2&amp;"・"&amp;E2&amp;"（"&amp;F2&amp;"）"</f>
-        <v>日光メニュー・メニュー001のグループ・トップ画像（img）</v>
+        <v>null・トップ画像（img）</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" ref="H2:H21" si="1">"insert into M_SCREEN_OBJ values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", "&amp;$D2&amp;");"</f>
@@ -8111,8 +8148,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B3,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -8127,7 +8164,7 @@
       </c>
       <c r="G3" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン1（button）</v>
+        <v>null・メニューボタン1（button）</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8143,8 +8180,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B4,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -8159,7 +8196,7 @@
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン2（button）</v>
+        <v>null・メニューボタン2（button）</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8175,8 +8212,8 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ</v>
+        <f ca="1">VLOOKUP(B5,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
@@ -8191,7 +8228,7 @@
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン3（button）</v>
+        <v>null・メニューボタン3（button）</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8207,8 +8244,8 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のグループ</v>
+        <f ca="1">VLOOKUP(B6,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D6" s="6">
         <v>9</v>
@@ -8223,7 +8260,7 @@
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設一覧・一覧001のグループ・親説明文（txt）</v>
+        <v>null・親説明文（txt）</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8239,8 +8276,8 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のリストグループ</v>
+        <f ca="1">VLOOKUP(B7,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D7" s="6">
         <v>10</v>
@@ -8255,7 +8292,7 @@
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設一覧・一覧001のリストグループ・説明画像（img）</v>
+        <v>null・説明画像（img）</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8271,8 +8308,8 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のリストグループ</v>
+        <f ca="1">VLOOKUP(B8,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D8" s="6">
         <v>11</v>
@@ -8287,7 +8324,7 @@
       </c>
       <c r="G8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設一覧・一覧001のリストグループ・説明文（txt）</v>
+        <v>null・説明文（txt）</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8303,8 +8340,8 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B9,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
@@ -8319,7 +8356,7 @@
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設詳細・詳細001のグループ・画像01（img）</v>
+        <v>null・画像01（img）</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8335,8 +8372,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B10,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D10" s="6">
         <v>16</v>
@@ -8351,7 +8388,7 @@
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設詳細・詳細001のグループ・説明文（メイン）（txt）</v>
+        <v>null・説明文（メイン）（txt）</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8367,8 +8404,8 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ</v>
+        <f ca="1">VLOOKUP(B11,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D11" s="6">
         <v>17</v>
@@ -8383,7 +8420,7 @@
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光施設詳細・詳細001のグループ・説明文（補足）（txt）</v>
+        <v>null・説明文（補足）（txt）</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8399,8 +8436,8 @@
         <v>5</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B12,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -8415,7 +8452,7 @@
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖メニュー・メニュー002のグループ・トップ画像（img）</v>
+        <v>null・トップ画像（img）</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8431,8 +8468,8 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B13,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
@@ -8447,7 +8484,7 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン1（button）</v>
+        <v>null・メニューボタン1（button）</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8463,8 +8500,8 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B14,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D14" s="6">
         <v>7</v>
@@ -8479,7 +8516,7 @@
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン2（button）</v>
+        <v>null・メニューボタン2（button）</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8495,8 +8532,8 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ</v>
+        <f ca="1">VLOOKUP(B15,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D15" s="6">
         <v>8</v>
@@ -8511,7 +8548,7 @@
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン3（button）</v>
+        <v>null・メニューボタン3（button）</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8527,8 +8564,8 @@
         <v>6</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のグループ</v>
+        <f ca="1">VLOOKUP(B16,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D16" s="6">
         <v>12</v>
@@ -8543,7 +8580,7 @@
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設一覧・一覧002のグループ・親説明文（txt）</v>
+        <v>null・親説明文（txt）</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8558,9 +8595,9 @@
       <c r="B17" s="6">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のリストグループ</v>
+      <c r="C17" s="5">
+        <f ca="1">VLOOKUP(B17,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="D17" s="6">
         <v>13</v>
@@ -8575,7 +8612,7 @@
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設一覧・一覧002のリストグループ・説明画像（img）</v>
+        <v>6・説明画像（img）</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8590,9 +8627,9 @@
       <c r="B18" s="6">
         <v>7</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f ca="1">VLOOKUP(B18,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のリストグループ</v>
+      <c r="C18" s="5">
+        <f ca="1">VLOOKUP(B18,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="D18" s="6">
         <v>14</v>
@@ -8607,7 +8644,7 @@
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+        <v>6・説明文（list）</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8623,8 +8660,8 @@
         <v>8</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f ca="1">VLOOKUP(B19,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B19,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D19" s="6">
         <v>18</v>
@@ -8639,7 +8676,7 @@
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設詳細・詳細002のグループ・画像01（img）</v>
+        <v>null・画像01（img）</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8655,8 +8692,8 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f ca="1">VLOOKUP(B20,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B20,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D20" s="6">
         <v>19</v>
@@ -8671,7 +8708,7 @@
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設詳細・詳細002のグループ・説明文（メイン）（txt）</v>
+        <v>null・説明文（メイン）（txt）</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8687,8 +8724,8 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f ca="1">VLOOKUP(B21,スクリーンオブジェクトグループ!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ</v>
+        <f ca="1">VLOOKUP(B21,スクリーンオブジェクトグループ!$A:$H,7,FALSE)</f>
+        <v>null</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
@@ -8703,7 +8740,7 @@
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+        <v>null・説明文（補足）（list）</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8751,41 +8788,41 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="D1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -8798,10 +8835,10 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">VLOOKUP(B2,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ・トップ画像（img）</v>
+        <v>null・トップ画像（img）</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="6">
         <v>4</v>
@@ -8840,10 +8877,10 @@
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1">VLOOKUP(B3,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン1（button）</v>
+        <v>null・メニューボタン1（button）</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -8882,10 +8919,10 @@
       </c>
       <c r="C4" s="5" t="str">
         <f ca="1">VLOOKUP(B4,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン2（button）</v>
+        <v>null・メニューボタン2（button）</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -8924,10 +8961,10 @@
       </c>
       <c r="C5" s="5" t="str">
         <f ca="1">VLOOKUP(B5,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光メニュー・メニュー001のグループ・メニューボタン3（button）</v>
+        <v>null・メニューボタン3（button）</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -8966,10 +9003,10 @@
       </c>
       <c r="C6" s="5" t="str">
         <f ca="1">VLOOKUP(B6,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のグループ・親説明文（txt）</v>
+        <v>null・親説明文（txt）</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -9008,10 +9045,10 @@
       </c>
       <c r="C7" s="5" t="str">
         <f ca="1">VLOOKUP(B7,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のリストグループ・説明画像（img）</v>
+        <v>null・説明画像（img）</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
@@ -9050,10 +9087,10 @@
       </c>
       <c r="C8" s="5" t="str">
         <f ca="1">VLOOKUP(B8,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設一覧・一覧001のリストグループ・説明文（txt）</v>
+        <v>null・説明文（txt）</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -9092,10 +9129,10 @@
       </c>
       <c r="C9" s="5" t="str">
         <f ca="1">VLOOKUP(B9,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ・画像01（img）</v>
+        <v>null・画像01（img）</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -9134,10 +9171,10 @@
       </c>
       <c r="C10" s="5" t="str">
         <f ca="1">VLOOKUP(B10,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ・説明文（メイン）（txt）</v>
+        <v>null・説明文（メイン）（txt）</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -9176,10 +9213,10 @@
       </c>
       <c r="C11" s="5" t="str">
         <f ca="1">VLOOKUP(B11,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>日光施設詳細・詳細001のグループ・説明文（補足）（txt）</v>
+        <v>null・説明文（補足）（txt）</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -9218,10 +9255,10 @@
       </c>
       <c r="C12" s="5" t="str">
         <f ca="1">VLOOKUP(B12,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ・トップ画像（img）</v>
+        <v>null・トップ画像（img）</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
@@ -9260,10 +9297,10 @@
       </c>
       <c r="C13" s="5" t="str">
         <f ca="1">VLOOKUP(B13,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン1（button）</v>
+        <v>null・メニューボタン1（button）</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -9302,10 +9339,10 @@
       </c>
       <c r="C14" s="5" t="str">
         <f ca="1">VLOOKUP(B14,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン2（button）</v>
+        <v>null・メニューボタン2（button）</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -9344,10 +9381,10 @@
       </c>
       <c r="C15" s="5" t="str">
         <f ca="1">VLOOKUP(B15,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖メニュー・メニュー002のグループ・メニューボタン3（button）</v>
+        <v>null・メニューボタン3（button）</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -9386,10 +9423,10 @@
       </c>
       <c r="C16" s="5" t="str">
         <f ca="1">VLOOKUP(B16,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のグループ・親説明文（txt）</v>
+        <v>null・親説明文（txt）</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -9428,10 +9465,10 @@
       </c>
       <c r="C17" s="5" t="str">
         <f ca="1">VLOOKUP(B17,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のリストグループ・説明画像（img）</v>
+        <v>6・説明画像（img）</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -9470,10 +9507,10 @@
       </c>
       <c r="C18" s="5" t="str">
         <f ca="1">VLOOKUP(B18,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+        <v>6・説明文（list）</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -9512,10 +9549,10 @@
       </c>
       <c r="C19" s="5" t="str">
         <f ca="1">VLOOKUP(B19,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設一覧・一覧002のリストグループ・説明文（list）</v>
+        <v>6・説明文（list）</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -9554,10 +9591,10 @@
       </c>
       <c r="C20" s="5" t="str">
         <f ca="1">VLOOKUP(B20,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ・画像01（img）</v>
+        <v>null・画像01（img）</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="6">
         <v>3</v>
@@ -9596,10 +9633,10 @@
       </c>
       <c r="C21" s="5" t="str">
         <f ca="1">VLOOKUP(B21,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ・説明文（メイン）（txt）</v>
+        <v>null・説明文（メイン）（txt）</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -9638,10 +9675,10 @@
       </c>
       <c r="C22" s="5" t="str">
         <f ca="1">VLOOKUP(B22,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+        <v>null・説明文（補足）（list）</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -9680,10 +9717,10 @@
       </c>
       <c r="C23" s="5" t="str">
         <f ca="1">VLOOKUP(B23,スクリーンオブジェクト!$A:$G,7,FALSE)</f>
-        <v>富士五湖施設詳細・詳細002のグループ・説明文（補足）（list）</v>
+        <v>null・説明文（補足）（list）</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -9747,7 +9784,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -9763,7 +9800,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -9847,7 +9884,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>スクリーンオブジェクト属性_ID</v>
+        <v>スクリーン_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>6</v>
@@ -9863,7 +9900,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- スクリーンオブジェクト属性（insert文）</v>
+        <v>-- スクリーン（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -9941,7 +9978,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -9951,7 +9988,7 @@
         <v/>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" ref="F5" si="2">"insert into M_REGION_ATTR_GRP values ("&amp;A5&amp;", now(), 1, now(), 1, 'val', '"&amp;$B5&amp;"', "&amp;$C5&amp;");"</f>

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="198">
   <si>
     <t>地域ID</t>
     <rPh sb="0" eb="2">
@@ -1051,9 +1051,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日光東照宮</t>
-  </si>
-  <si>
     <t>エイリアス</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1210,6 +1207,20 @@
   </si>
   <si>
     <t>museum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1702,7 +1713,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -1712,7 +1723,7 @@
       </c>
       <c r="D1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1783,7 +1794,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>74</v>
@@ -1802,7 +1813,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2373,7 +2384,7 @@
         <v>159</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="5" t="str">
@@ -2397,7 +2408,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="5" t="str">
@@ -2421,7 +2432,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="5" t="str">
@@ -2445,7 +2456,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="5" t="str">
@@ -2488,7 +2499,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2504,7 +2515,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2588,7 +2599,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -2604,7 +2615,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2689,7 +2700,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>95</v>
@@ -2708,7 +2719,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2843,7 +2854,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>97</v>
@@ -2862,7 +2873,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3009,7 +3020,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>102</v>
@@ -3028,7 +3039,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3259,7 +3270,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>107</v>
@@ -3278,7 +3289,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3290,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f ca="1">VLOOKUP(B2,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B2,施設!$A:$H,8,FALSE)</f>
         <v>日光東照宮</v>
       </c>
       <c r="D2" s="6">
@@ -3317,8 +3328,9 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>164</v>
+      <c r="C3" s="5" t="str">
+        <f ca="1">VLOOKUP(B3,施設!$A:$H,8,FALSE)</f>
+        <v>華厳の滝</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3329,7 +3341,7 @@
       </c>
       <c r="F3" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>日光の施設グループ・日光東照宮</v>
+        <v>日光の施設グループ・華厳の滝</v>
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3344,8 +3356,9 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>164</v>
+      <c r="C4" s="5" t="str">
+        <f ca="1">VLOOKUP(B4,施設!$A:$H,8,FALSE)</f>
+        <v>道の駅　富士吉田</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -3356,7 +3369,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖の施設グループ・日光東照宮</v>
+        <v>富士五湖の施設グループ・道の駅　富士吉田</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3371,8 +3384,9 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>164</v>
+      <c r="C5" s="5" t="str">
+        <f ca="1">VLOOKUP(B5,施設!$A:$H,8,FALSE)</f>
+        <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -3383,7 +3397,7 @@
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>富士五湖の施設グループ・日光東照宮</v>
+        <v>富士五湖の施設グループ・富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3425,7 +3439,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -3441,7 +3455,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3503,7 +3517,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>111</v>
@@ -3522,7 +3536,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3609,7 +3623,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>115</v>
@@ -3628,7 +3642,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3668,7 +3682,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1">VLOOKUP(B3,施設_施設グループ_リンク!$A:$F,6,FALSE)</f>
-        <v>日光の施設グループ・日光東照宮</v>
+        <v>日光の施設グループ・華厳の滝</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3695,7 +3709,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f ca="1">VLOOKUP(B4,施設_施設グループ_リンク!$A:$F,6,FALSE)</f>
-        <v>富士五湖の施設グループ・日光東照宮</v>
+        <v>富士五湖の施設グループ・道の駅　富士吉田</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -3722,7 +3736,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f ca="1">VLOOKUP(B5,施設_施設グループ_リンク!$A:$F,6,FALSE)</f>
-        <v>富士五湖の施設グループ・日光東照宮</v>
+        <v>富士五湖の施設グループ・富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -3774,7 +3788,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -3790,7 +3804,7 @@
       </c>
       <c r="F1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3921,7 +3935,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>123</v>
@@ -3940,7 +3954,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4412,10 +4426,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
         <v>169</v>
-      </c>
-      <c r="C41" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -4448,10 +4462,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
         <v>171</v>
-      </c>
-      <c r="C47" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -4534,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
         <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -4600,10 +4614,10 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
         <v>175</v>
-      </c>
-      <c r="C75" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -4696,10 +4710,10 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
         <v>177</v>
-      </c>
-      <c r="C93" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -4747,10 +4761,10 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" t="s">
         <v>179</v>
-      </c>
-      <c r="C102" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -4778,10 +4792,10 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
         <v>181</v>
-      </c>
-      <c r="C107" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4834,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>28</v>
@@ -4839,7 +4853,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5070,7 +5084,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -5089,7 +5103,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5344,7 +5358,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>42</v>
@@ -5363,7 +5377,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5666,7 +5680,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5682,16 +5696,16 @@
     <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -5703,17 +5717,23 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="str">
+      <c r="I1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>-- 施設（insert文）</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -5728,18 +5748,24 @@
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="6">
+        <v>111.11111099999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>111.11111099999999</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>"insert into M_FACILITY values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', "&amp;E2&amp;");"</f>
-        <v>insert into M_FACILITY values (1, now(), 1, now(), 1, 'val', 1, 'dcls', null);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I2" s="5" t="str">
+        <f>"insert into M_FACILITY values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', "&amp;$E2&amp;", "&amp;$F2&amp;", "&amp;$G2&amp;");"</f>
+        <v>insert into M_FACILITY values (1, now(), 1, now(), 1, 'val', 1, 'dcls', 111.111111, 111.111111, null);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A5" si="0">ROW()-1</f>
         <v>2</v>
@@ -5754,18 +5780,24 @@
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="6">
+        <v>222.22222199999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>222.22222199999999</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G5" si="1">"insert into M_FACILITY values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", '"&amp;$D3&amp;"', "&amp;E3&amp;");"</f>
-        <v>insert into M_FACILITY values (2, now(), 1, now(), 1, 'val', 1, 'dcls', null);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I5" si="1">"insert into M_FACILITY values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", '"&amp;$D3&amp;"', "&amp;$E3&amp;", "&amp;$F3&amp;", "&amp;$G3&amp;");"</f>
+        <v>insert into M_FACILITY values (2, now(), 1, now(), 1, 'val', 1, 'dcls', 222.222222, 222.222222, null);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5780,18 +5812,24 @@
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="6">
+        <v>333.33333299999998</v>
+      </c>
+      <c r="F4" s="6">
+        <v>333.33333299999998</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_FACILITY values (3, now(), 1, now(), 1, 'val', 2, 'dcls', null);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_FACILITY values (3, now(), 1, now(), 1, 'val', 2, 'dcls', 333.333333, 333.333333, null);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5806,15 +5844,21 @@
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="6">
+        <v>444.44444399999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>444.44444399999998</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into M_FACILITY values (4, now(), 1, now(), 1, 'val', 2, 'dcls', null);</v>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into M_FACILITY values (4, now(), 1, now(), 1, 'val', 2, 'dcls', 444.444444, 444.444444, null);</v>
       </c>
     </row>
   </sheetData>
@@ -5853,10 +5897,10 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>4</v>
@@ -5872,7 +5916,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5881,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5907,7 +5951,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
@@ -5933,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>160</v>
@@ -5959,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
@@ -5972,7 +6016,7 @@
         <v>目的</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5985,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>24</v>
@@ -5998,7 +6042,7 @@
         <v>買うジャンル</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6011,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>156</v>
@@ -6024,7 +6068,7 @@
         <v>見るジャンル</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6067,7 +6111,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>54</v>
@@ -6086,7 +6130,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6249,7 +6293,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="5" t="str">
@@ -6273,7 +6317,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5" t="str">
@@ -6297,7 +6341,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5" t="str">
@@ -6341,7 +6385,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"_ID"</f>
-        <v>コード一覧_ID</v>
+        <v>施設_ID</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>58</v>
@@ -6360,7 +6404,7 @@
       </c>
       <c r="G1" s="8" t="str">
         <f ca="1">"-- "&amp;RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))&amp;"（insert文）"</f>
-        <v>-- コード一覧（insert文）</v>
+        <v>-- 施設（insert文）</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6372,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f ca="1">VLOOKUP(B2,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B2,施設!$A:$H,8,FALSE)</f>
         <v>日光東照宮</v>
       </c>
       <c r="D2" s="3">
@@ -6399,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f ca="1">VLOOKUP(B3,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B3,施設!$A:$H,8,FALSE)</f>
         <v>日光東照宮</v>
       </c>
       <c r="D3" s="6">
@@ -6426,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f ca="1">VLOOKUP(B4,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B4,施設!$A:$H,8,FALSE)</f>
         <v>日光東照宮</v>
       </c>
       <c r="D4" s="6">
@@ -6453,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f ca="1">VLOOKUP(B5,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B5,施設!$A:$H,8,FALSE)</f>
         <v>華厳の滝</v>
       </c>
       <c r="D5" s="6">
@@ -6480,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f ca="1">VLOOKUP(B6,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B6,施設!$A:$H,8,FALSE)</f>
         <v>華厳の滝</v>
       </c>
       <c r="D6" s="6">
@@ -6507,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f ca="1">VLOOKUP(B7,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B7,施設!$A:$H,8,FALSE)</f>
         <v>華厳の滝</v>
       </c>
       <c r="D7" s="6">
@@ -6534,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f ca="1">VLOOKUP(B8,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B8,施設!$A:$H,8,FALSE)</f>
         <v>道の駅　富士吉田</v>
       </c>
       <c r="D8" s="6">
@@ -6561,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f ca="1">VLOOKUP(B9,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B9,施設!$A:$H,8,FALSE)</f>
         <v>道の駅　富士吉田</v>
       </c>
       <c r="D9" s="6">
@@ -6588,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f ca="1">VLOOKUP(B10,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B10,施設!$A:$H,8,FALSE)</f>
         <v>道の駅　富士吉田</v>
       </c>
       <c r="D10" s="6">
@@ -6615,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f ca="1">VLOOKUP(B11,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B11,施設!$A:$H,8,FALSE)</f>
         <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D11" s="6">
@@ -6642,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f ca="1">VLOOKUP(B12,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B12,施設!$A:$H,8,FALSE)</f>
         <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D12" s="6">
@@ -6669,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f ca="1">VLOOKUP(B13,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B13,施設!$A:$H,8,FALSE)</f>
         <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D13" s="6">
@@ -6696,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f ca="1">VLOOKUP(B14,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B14,施設!$A:$H,8,FALSE)</f>
         <v>道の駅　富士吉田</v>
       </c>
       <c r="D14" s="6">
@@ -6707,7 +6751,7 @@
         <v>目的</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" ref="G14" si="2">"insert into M_FACILITY_ATTR_VAL values ("&amp;A14&amp;", now(), 1, now(), 1, 'val', "&amp;$B14&amp;", "&amp;$D14&amp;");"</f>
@@ -6723,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f ca="1">VLOOKUP(B15,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B15,施設!$A:$H,8,FALSE)</f>
         <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D15" s="6">
@@ -6734,7 +6778,7 @@
         <v>目的</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" ref="G15:G16" si="3">"insert into M_FACILITY_ATTR_VAL values ("&amp;A15&amp;", now(), 1, now(), 1, 'val', "&amp;$B15&amp;", "&amp;$D15&amp;");"</f>
@@ -6750,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f ca="1">VLOOKUP(B16,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B16,施設!$A:$H,8,FALSE)</f>
         <v>道の駅　富士吉田</v>
       </c>
       <c r="D16" s="6">
@@ -6761,7 +6805,7 @@
         <v>買うジャンル</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="3"/>
@@ -6777,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f ca="1">VLOOKUP(B17,施設!$A:$F,6,FALSE)</f>
+        <f ca="1">VLOOKUP(B17,施設!$A:$H,8,FALSE)</f>
         <v>富士吉田市上吉田・歴史民俗博物館</v>
       </c>
       <c r="D17" s="6">
@@ -6788,7 +6832,7 @@
         <v>見るジャンル</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" ref="G17" si="4">"insert into M_FACILITY_ATTR_VAL values ("&amp;A17&amp;", now(), 1, now(), 1, 'val', "&amp;$B17&amp;", "&amp;$D17&amp;");"</f>

--- a/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
+++ b/03_設計/04_DB/02_SQLコマンド/テストデータ作成ツール.xlsx
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="6">
-        <v>111.11111099999999</v>
+        <v>11.111110999999999</v>
       </c>
       <c r="F2" s="6">
         <v>111.11111099999999</v>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="I2" s="5" t="str">
         <f>"insert into M_FACILITY values ("&amp;A2&amp;", now(), 1, now(), 1, 'val', "&amp;$B2&amp;", '"&amp;$D2&amp;"', "&amp;$E2&amp;", "&amp;$F2&amp;", "&amp;$G2&amp;");"</f>
-        <v>insert into M_FACILITY values (1, now(), 1, now(), 1, 'val', 1, 'dcls', 111.111111, 111.111111, null);</v>
+        <v>insert into M_FACILITY values (1, now(), 1, now(), 1, 'val', 1, 'dcls', 11.111111, 111.111111, null);</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5781,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>222.22222199999999</v>
+        <v>22.222221999999999</v>
       </c>
       <c r="F3" s="6">
         <v>222.22222199999999</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I5" si="1">"insert into M_FACILITY values ("&amp;A3&amp;", now(), 1, now(), 1, 'val', "&amp;$B3&amp;", '"&amp;$D3&amp;"', "&amp;$E3&amp;", "&amp;$F3&amp;", "&amp;$G3&amp;");"</f>
-        <v>insert into M_FACILITY values (2, now(), 1, now(), 1, 'val', 1, 'dcls', 222.222222, 222.222222, null);</v>
+        <v>insert into M_FACILITY values (2, now(), 1, now(), 1, 'val', 1, 'dcls', 22.222222, 222.222222, null);</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5813,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>333.33333299999998</v>
+        <v>33.333333000000003</v>
       </c>
       <c r="F4" s="6">
         <v>333.33333299999998</v>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into M_FACILITY values (3, now(), 1, now(), 1, 'val', 2, 'dcls', 333.333333, 333.333333, null);</v>
+        <v>insert into M_FACILITY values (3, now(), 1, now(), 1, 'val', 2, 'dcls', 33.333333, 333.333333, null);</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -5845,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>444.44444399999998</v>
+        <v>44.444443999999997</v>
       </c>
       <c r="F5" s="6">
         <v>444.44444399999998</v>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into M_FACILITY values (4, now(), 1, now(), 1, 'val', 2, 'dcls', 444.444444, 444.444444, null);</v>
+        <v>insert into M_FACILITY values (4, now(), 1, now(), 1, 'val', 2, 'dcls', 44.444444, 444.444444, null);</v>
       </c>
     </row>
   </sheetData>
